--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="158" uniqueCount="99">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,6 +21,9 @@
     <t>300540</t>
   </si>
   <si>
+    <t>900150</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
     <t>900231</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
@@ -39,21 +45,36 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
     <t>MDA</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
@@ -66,21 +87,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
     <t>4764-17-4</t>
   </si>
   <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t>67-71-0</t>
   </si>
   <si>
@@ -90,28 +126,37 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
     <t>WUB601BHAA</t>
   </si>
   <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>abundance</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>trace</t>
@@ -312,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -323,169 +368,169 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="P1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="Q1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="R1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="S1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="T1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="U1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="V1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Y1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Z1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AA1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AE1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="AF1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="AG1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AH1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AI1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AL1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AN1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="AO1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AP1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="AQ1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AR1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="AS1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AT1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AU1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AV1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AW1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AX1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AY1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AZ1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="BA1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="BB1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BC1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="BD1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
@@ -493,22 +538,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>446220</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <v>45721</v>
@@ -661,28 +706,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>10848</v>
+        <v>10897</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -695,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -722,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -761,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -812,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -829,41 +874,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>119478</v>
+        <v>12107</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>10848</v>
+        <v>10897</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
         <v>4</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -928,7 +973,9 @@
       <c r="AI4" s="1">
         <v>0</v>
       </c>
-      <c r="AJ4" s="1"/>
+      <c r="AJ4" s="1">
+        <v>119</v>
+      </c>
       <c r="AK4" s="1">
         <v>0</v>
       </c>
@@ -978,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -995,28 +1042,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>3821</v>
+        <v>156346345</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>10848</v>
+        <v>10897</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1029,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -1083,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1">
         <v>0</v>
@@ -1095,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1146,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1163,50 +1210,50 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>104904</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>10848</v>
+        <v>10897</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
         <v>4</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1262,12 +1309,14 @@
       <c r="AI6" s="1">
         <v>0</v>
       </c>
-      <c r="AJ6" s="1"/>
+      <c r="AJ6" s="1">
+        <v>227</v>
+      </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1329,38 +1378,38 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>6089</v>
+        <v>104904</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>10856</v>
+        <v>10901</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -1492,41 +1541,41 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>1614</v>
+        <v>119478</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>10860</v>
+        <v>10901</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -1594,9 +1643,7 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>86</v>
-      </c>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1660,31 +1707,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2">
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>10863</v>
+        <v>10901</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1694,10 +1741,10 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1724,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1751,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
@@ -1763,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -1828,31 +1875,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2">
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>10863</v>
+        <v>10901</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1862,10 +1909,10 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1919,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1930,7 +1977,9 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="1">
+        <v>254</v>
+      </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -1994,31 +2043,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2">
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>10863</v>
+        <v>10909</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2028,10 +2077,10 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -2155,6 +2204,1178 @@
         <v>0</v>
       </c>
       <c r="BD11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1614</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10913</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>86</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45723</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10914</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>227</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5707</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45723</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10914</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>377</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45723</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10914</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6089</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10917</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3821</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10917</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>254</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6213</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10917</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1">
         <v>3</v>
       </c>
     </row>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -57,12 +57,12 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -99,12 +99,12 @@
     <t>437-38-7</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -135,10 +135,10 @@
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>10897</v>
+        <v>10998</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>10897</v>
+        <v>10998</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>10897</v>
+        <v>10998</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>10897</v>
+        <v>10998</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1378,19 +1378,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1399,13 +1399,13 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>10901</v>
+        <v>11002</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1477,7 +1477,9 @@
       <c r="AI7" s="1">
         <v>0</v>
       </c>
-      <c r="AJ7" s="1"/>
+      <c r="AJ7" s="1">
+        <v>175</v>
+      </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
@@ -1544,16 +1546,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>119478</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -1565,7 +1567,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>10901</v>
+        <v>11002</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1710,19 +1712,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1731,13 +1733,13 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>10901</v>
+        <v>11002</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1809,9 +1811,7 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>175</v>
-      </c>
+      <c r="AJ9" s="1"/>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>10901</v>
+        <v>11002</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>10909</v>
+        <v>11010</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>10913</v>
+        <v>11014</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>10914</v>
+        <v>11015</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>10914</v>
+        <v>11015</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>10914</v>
+        <v>11015</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>10917</v>
+        <v>11018</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3050,16 +3050,16 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -3071,7 +3071,7 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>10917</v>
+        <v>11018</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3138,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -3149,9 +3149,7 @@
       <c r="AI17" s="1">
         <v>0</v>
       </c>
-      <c r="AJ17" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
@@ -3218,16 +3216,16 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
@@ -3239,7 +3237,7 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>10917</v>
+        <v>11018</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3306,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3317,7 +3315,9 @@
       <c r="AI18" s="1">
         <v>0</v>
       </c>
-      <c r="AJ18" s="1"/>
+      <c r="AJ18" s="1">
+        <v>254</v>
+      </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,16 +45,19 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
@@ -63,9 +66,6 @@
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,16 +87,19 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>6740-88-1</t>
   </si>
   <si>
     <t>43021-26-7</t>
@@ -105,9 +108,6 @@
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -126,22 +126,22 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>58C337KP3E</t>
   </si>
   <si>
     <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>10998</v>
+        <v>11016</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -895,7 +895,7 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>10998</v>
+        <v>11016</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>10998</v>
+        <v>11016</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>10998</v>
+        <v>11016</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK6" s="1">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1399,13 +1399,13 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11002</v>
+        <v>11020</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="1">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -1546,16 +1546,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>119478</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -1567,7 +1567,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11002</v>
+        <v>11020</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1733,13 +1733,13 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11002</v>
+        <v>11020</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1811,7 +1811,9 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1"/>
+      <c r="AJ9" s="1">
+        <v>175</v>
+      </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1899,7 +1901,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11002</v>
+        <v>11020</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1966,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1977,9 +1979,7 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ10" s="1"/>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11010</v>
+        <v>11028</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11014</v>
+        <v>11032</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2383,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11015</v>
+        <v>11033</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2548,16 +2548,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -2569,7 +2569,7 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11015</v>
+        <v>11033</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2588,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK14" s="1">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11015</v>
+        <v>11033</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,13 +2905,13 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11018</v>
+        <v>11036</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -2983,7 +2983,9 @@
       <c r="AI16" s="1">
         <v>0</v>
       </c>
-      <c r="AJ16" s="1"/>
+      <c r="AJ16" s="1">
+        <v>254</v>
+      </c>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11018</v>
+        <v>11036</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3216,19 +3218,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3237,13 +3239,13 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11018</v>
+        <v>11036</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3304,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3315,9 +3317,7 @@
       <c r="AI18" s="1">
         <v>0</v>
       </c>
-      <c r="AJ18" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <v>0</v>
       </c>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,27 +45,27 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,27 +87,27 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
+    <t>9/1/7143</t>
+  </si>
+  <si>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -129,19 +129,19 @@
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,16 +709,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,13 +727,13 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11016</v>
+        <v>11064</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,7 +895,7 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11016</v>
+        <v>11064</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,13 +1063,13 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11016</v>
+        <v>11064</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11016</v>
+        <v>11064</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK6" s="1">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1399,13 +1399,13 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11020</v>
+        <v>11068</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="1">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -1546,16 +1546,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -1567,7 +1567,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11020</v>
+        <v>11068</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1733,13 +1733,13 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11020</v>
+        <v>11068</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1811,9 +1811,7 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>175</v>
-      </c>
+      <c r="AJ9" s="1"/>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1901,7 +1899,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11020</v>
+        <v>11068</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1968,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1979,7 +1977,9 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="1">
+        <v>254</v>
+      </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11028</v>
+        <v>11076</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11032</v>
+        <v>11080</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11033</v>
+        <v>11081</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11033</v>
+        <v>11081</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2588,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11033</v>
+        <v>11081</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2756,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>3821</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11036</v>
+        <v>11084</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -3052,19 +3052,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3073,13 +3073,13 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11036</v>
+        <v>11084</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3218,19 +3218,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3239,13 +3239,13 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11036</v>
+        <v>11084</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,27 +45,27 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>4-ANPP</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,27 +87,27 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
     <t>21409-26-7</t>
   </si>
   <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -135,13 +135,13 @@
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,16 +709,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>156346345</v>
+        <v>12107</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,13 +727,13 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11064</v>
+        <v>11067</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,13 +895,13 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11064</v>
+        <v>11067</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11064</v>
+        <v>11067</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11064</v>
+        <v>11067</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11068</v>
+        <v>11071</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1549,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1567,7 +1567,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11068</v>
+        <v>11071</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1645,7 +1645,9 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>254</v>
+      </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11068</v>
+        <v>11071</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1881,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1899,7 +1901,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11068</v>
+        <v>11071</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1966,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1977,9 +1979,7 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ10" s="1"/>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11076</v>
+        <v>11079</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11080</v>
+        <v>11083</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11081</v>
+        <v>11084</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11081</v>
+        <v>11084</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11081</v>
+        <v>11084</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2756,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>3821</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11084</v>
+        <v>11087</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -3052,19 +3052,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3073,13 +3073,13 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11084</v>
+        <v>11087</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3218,19 +3218,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3239,13 +3239,13 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11084</v>
+        <v>11087</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,27 +45,27 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,27 +87,27 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>43021-26-7</t>
+  </si>
+  <si>
+    <t>9/1/7143</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -126,22 +126,22 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
+    <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -718,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11067</v>
+        <v>11084</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,13 +895,13 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11067</v>
+        <v>11084</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11067</v>
+        <v>11084</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,13 +1231,13 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11067</v>
+        <v>11084</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1399,13 +1399,13 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11071</v>
+        <v>11088</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1477,9 +1477,7 @@
       <c r="AI7" s="1">
         <v>0</v>
       </c>
-      <c r="AJ7" s="1">
-        <v>175</v>
-      </c>
+      <c r="AJ7" s="1"/>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
@@ -1546,19 +1544,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
@@ -1567,13 +1565,13 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11071</v>
+        <v>11088</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1607,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1634,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1646,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -1717,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1735,7 +1733,7 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11071</v>
+        <v>11088</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1883,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1901,7 +1899,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11071</v>
+        <v>11088</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1968,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1979,7 +1977,9 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="1">
+        <v>254</v>
+      </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11079</v>
+        <v>11096</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11083</v>
+        <v>11100</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>3345</v>
       </c>
       <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11084</v>
+        <v>11101</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11084</v>
+        <v>11101</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11084</v>
+        <v>11101</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11087</v>
+        <v>11104</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -2983,9 +2983,7 @@
       <c r="AI16" s="1">
         <v>0</v>
       </c>
-      <c r="AJ16" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ16" s="1"/>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
@@ -3052,19 +3050,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3073,13 +3071,13 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11087</v>
+        <v>11104</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3218,19 +3216,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3239,13 +3237,13 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11087</v>
+        <v>11104</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3306,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3317,7 +3315,9 @@
       <c r="AI18" s="1">
         <v>0</v>
       </c>
-      <c r="AJ18" s="1"/>
+      <c r="AJ18" s="1">
+        <v>254</v>
+      </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,12 +45,12 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
@@ -87,12 +87,12 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
@@ -126,10 +126,10 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11084</v>
+        <v>11156</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK3" s="1">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -895,7 +895,7 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11084</v>
+        <v>11156</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK4" s="1">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11084</v>
+        <v>11156</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11084</v>
+        <v>11156</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11088</v>
+        <v>11160</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
@@ -1565,13 +1565,13 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11088</v>
+        <v>11160</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1643,9 +1643,7 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>175</v>
-      </c>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1712,16 +1710,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1733,7 +1731,7 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11088</v>
+        <v>11160</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1800,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -1811,7 +1809,9 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1"/>
+      <c r="AJ9" s="1">
+        <v>254</v>
+      </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -1878,19 +1878,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1899,13 +1899,13 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11088</v>
+        <v>11160</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11096</v>
+        <v>11168</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11100</v>
+        <v>11172</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2383,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11101</v>
+        <v>11173</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11101</v>
+        <v>11173</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -2737,7 +2737,7 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11101</v>
+        <v>11173</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2884,16 +2884,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11104</v>
+        <v>11176</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -2983,7 +2983,9 @@
       <c r="AI16" s="1">
         <v>0</v>
       </c>
-      <c r="AJ16" s="1"/>
+      <c r="AJ16" s="1">
+        <v>254</v>
+      </c>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11104</v>
+        <v>11176</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3216,16 +3218,16 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
@@ -3237,7 +3239,7 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11104</v>
+        <v>11176</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3304,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3315,9 +3317,7 @@
       <c r="AI18" s="1">
         <v>0</v>
       </c>
-      <c r="AJ18" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <v>0</v>
       </c>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,27 +45,27 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>ketamine</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,27 +87,27 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t/>
+    <t>9/1/7143</t>
+  </si>
+  <si>
+    <t>6740-88-1</t>
   </si>
   <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -126,22 +126,22 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
+    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -718,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11156</v>
+        <v>11205</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,13 +895,13 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11156</v>
+        <v>11205</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11156</v>
+        <v>11205</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,13 +1231,13 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11156</v>
+        <v>11205</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11160</v>
+        <v>11209</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1565,7 +1565,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11160</v>
+        <v>11209</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1643,7 +1643,9 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>254</v>
+      </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -1731,7 +1733,7 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11160</v>
+        <v>11209</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1798,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -1809,9 +1811,7 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ9" s="1"/>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1899,7 +1899,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11160</v>
+        <v>11209</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11168</v>
+        <v>11217</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11172</v>
+        <v>11221</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11173</v>
+        <v>11222</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11173</v>
+        <v>11222</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2588,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11173</v>
+        <v>11222</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2756,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,13 +2905,13 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11176</v>
+        <v>11225</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -2983,9 +2983,7 @@
       <c r="AI16" s="1">
         <v>0</v>
       </c>
-      <c r="AJ16" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ16" s="1"/>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
@@ -3052,19 +3050,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3073,13 +3071,13 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11176</v>
+        <v>11225</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3140,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -3151,7 +3149,9 @@
       <c r="AI17" s="1">
         <v>0</v>
       </c>
-      <c r="AJ17" s="1"/>
+      <c r="AJ17" s="1">
+        <v>254</v>
+      </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3239,7 +3239,7 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11176</v>
+        <v>11225</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,16 +45,19 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>ecgonine methylester (EME)</t>
@@ -63,9 +66,6 @@
     <t>ketamine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,16 +87,19 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>9/1/7143</t>
@@ -105,9 +108,6 @@
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -126,22 +126,22 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -718,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -898,10 +898,10 @@
         <v>11205</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1066,10 +1066,10 @@
         <v>11205</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1402,10 +1402,10 @@
         <v>11209</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1477,7 +1477,9 @@
       <c r="AI7" s="1">
         <v>0</v>
       </c>
-      <c r="AJ7" s="1"/>
+      <c r="AJ7" s="1">
+        <v>175</v>
+      </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
@@ -1544,16 +1546,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -1632,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1643,9 +1645,7 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1712,16 +1712,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1878,19 +1878,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1902,10 +1902,10 @@
         <v>11209</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2588,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK14" s="1">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2908,10 +2908,10 @@
         <v>11225</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3050,19 +3050,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>3821</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3218,19 +3218,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3242,10 +3242,10 @@
         <v>11225</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,27 +45,27 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,27 +87,27 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -135,13 +135,13 @@
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,16 +709,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,13 +727,13 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11205</v>
+        <v>11224</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,7 +895,7 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11205</v>
+        <v>11224</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK4" s="1">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,13 +1063,13 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11205</v>
+        <v>11224</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11205</v>
+        <v>11224</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11209</v>
+        <v>11228</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1549,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1567,7 +1567,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11209</v>
+        <v>11228</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1733,7 +1733,7 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11209</v>
+        <v>11228</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -1811,7 +1811,9 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1"/>
+      <c r="AJ9" s="1">
+        <v>254</v>
+      </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1899,7 +1901,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11209</v>
+        <v>11228</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1966,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1977,9 +1979,7 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ10" s="1"/>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11217</v>
+        <v>11236</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11221</v>
+        <v>11240</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11222</v>
+        <v>11241</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11222</v>
+        <v>11241</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11222</v>
+        <v>11241</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11225</v>
+        <v>11244</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -2983,7 +2983,9 @@
       <c r="AI16" s="1">
         <v>0</v>
       </c>
-      <c r="AJ16" s="1"/>
+      <c r="AJ16" s="1">
+        <v>254</v>
+      </c>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
@@ -3050,19 +3052,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3071,13 +3073,13 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11225</v>
+        <v>11244</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3138,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -3149,9 +3151,7 @@
       <c r="AI17" s="1">
         <v>0</v>
       </c>
-      <c r="AJ17" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
@@ -3218,19 +3218,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3239,13 +3239,13 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11225</v>
+        <v>11244</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,18 +45,18 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
@@ -87,18 +87,18 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>620-71-3</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
     <t>9/1/7143</t>
   </si>
   <si>
@@ -129,10 +129,10 @@
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>Y35FJB3QBJ</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,16 +709,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,13 +727,13 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11224</v>
+        <v>11280</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,13 +895,13 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11224</v>
+        <v>11280</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1054,7 +1054,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11224</v>
+        <v>11280</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11224</v>
+        <v>11280</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1399,13 +1399,13 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11228</v>
+        <v>11284</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1477,9 +1477,7 @@
       <c r="AI7" s="1">
         <v>0</v>
       </c>
-      <c r="AJ7" s="1">
-        <v>175</v>
-      </c>
+      <c r="AJ7" s="1"/>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
@@ -1546,16 +1544,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -1567,7 +1565,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11228</v>
+        <v>11284</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1634,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1645,7 +1643,9 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>254</v>
+      </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1712,16 +1712,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1733,7 +1733,7 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11228</v>
+        <v>11284</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -1811,9 +1811,7 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ9" s="1"/>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -1880,19 +1878,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1901,13 +1899,13 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11228</v>
+        <v>11284</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1941,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1979,7 +1977,9 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="1">
+        <v>175</v>
+      </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11236</v>
+        <v>11292</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11240</v>
+        <v>11296</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,13 +2401,13 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11241</v>
+        <v>11297</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2420,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11241</v>
+        <v>11297</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,7 +2737,7 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11241</v>
+        <v>11297</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,13 +2905,13 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11244</v>
+        <v>11300</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -2983,9 +2983,7 @@
       <c r="AI16" s="1">
         <v>0</v>
       </c>
-      <c r="AJ16" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ16" s="1"/>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
@@ -3052,19 +3050,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3073,13 +3071,13 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11244</v>
+        <v>11300</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3218,19 +3216,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3239,7 +3237,7 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11244</v>
+        <v>11300</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3306,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3317,7 +3315,9 @@
       <c r="AI18" s="1">
         <v>0</v>
       </c>
-      <c r="AJ18" s="1"/>
+      <c r="AJ18" s="1">
+        <v>254</v>
+      </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,27 +45,27 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,27 +87,27 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>9/1/7143</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -126,22 +126,22 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -718,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11280</v>
+        <v>11295</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="1">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>156346345</v>
+        <v>12107</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,13 +895,13 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11280</v>
+        <v>11295</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11280</v>
+        <v>11295</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,13 +1231,13 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11280</v>
+        <v>11295</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11284</v>
+        <v>11299</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1565,7 +1565,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11284</v>
+        <v>11299</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1643,9 +1643,7 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1712,19 +1710,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1733,13 +1731,13 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11284</v>
+        <v>11299</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1773,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1811,7 +1809,9 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1"/>
+      <c r="AJ9" s="1">
+        <v>175</v>
+      </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -1878,19 +1878,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1899,13 +1899,13 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11284</v>
+        <v>11299</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11292</v>
+        <v>11307</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11296</v>
+        <v>11311</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,13 +2401,13 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11297</v>
+        <v>11312</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2420,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11297</v>
+        <v>11312</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -2728,7 +2728,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,7 +2737,7 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11297</v>
+        <v>11312</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,13 +2905,13 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11300</v>
+        <v>11315</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3050,19 +3050,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3071,13 +3071,13 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11300</v>
+        <v>11315</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3216,19 +3216,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>3821</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3237,7 +3237,7 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11300</v>
+        <v>11315</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,27 +45,27 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,27 +87,27 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>9/1/7143</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -126,22 +126,22 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -718,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11295</v>
+        <v>11307</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -886,7 +886,7 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,7 +895,7 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11295</v>
+        <v>11307</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,13 +1063,13 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11295</v>
+        <v>11307</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,13 +1231,13 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11295</v>
+        <v>11307</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11299</v>
+        <v>11311</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1565,7 +1565,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11299</v>
+        <v>11311</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1643,7 +1643,9 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>254</v>
+      </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1722,7 +1724,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1731,7 +1733,7 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11299</v>
+        <v>11311</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1881,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1899,7 +1901,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11299</v>
+        <v>11311</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1966,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1977,9 +1979,7 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ10" s="1"/>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11307</v>
+        <v>11319</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11311</v>
+        <v>11323</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11312</v>
+        <v>11324</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11312</v>
+        <v>11324</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2588,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11312</v>
+        <v>11324</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,13 +2905,13 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11315</v>
+        <v>11327</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3050,19 +3050,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3071,13 +3071,13 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11315</v>
+        <v>11327</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3216,19 +3216,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>3821</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3237,7 +3237,7 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11315</v>
+        <v>11327</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,27 +45,27 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,27 +87,27 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -135,13 +135,13 @@
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,16 +709,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,13 +727,13 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11307</v>
+        <v>11373</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,7 +895,7 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11307</v>
+        <v>11373</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,13 +1063,13 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11307</v>
+        <v>11373</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11307</v>
+        <v>11373</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11311</v>
+        <v>11377</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1565,7 +1565,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11311</v>
+        <v>11377</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1643,9 +1643,7 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1724,7 +1722,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1733,7 +1731,7 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11311</v>
+        <v>11377</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1883,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1901,7 +1899,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11311</v>
+        <v>11377</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1968,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1979,7 +1977,9 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="1">
+        <v>254</v>
+      </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11319</v>
+        <v>11385</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11323</v>
+        <v>11389</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,13 +2401,13 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11324</v>
+        <v>11390</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2429,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,7 +2569,7 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11324</v>
+        <v>11390</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11324</v>
+        <v>11390</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11327</v>
+        <v>11393</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3071,7 +3071,7 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11327</v>
+        <v>11393</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3216,19 +3216,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>3821</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3237,7 +3237,7 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11327</v>
+        <v>11393</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,24 +45,24 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
+    <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -87,24 +87,24 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
+    <t>9/1/7143</t>
   </si>
   <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -126,19 +126,19 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
+    <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,16 +709,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,13 +727,13 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11373</v>
+        <v>11384</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,13 +895,13 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11373</v>
+        <v>11384</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11373</v>
+        <v>11384</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11373</v>
+        <v>11384</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11377</v>
+        <v>11388</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1565,7 +1565,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11377</v>
+        <v>11388</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1710,19 +1710,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1731,13 +1731,13 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11377</v>
+        <v>11388</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -1878,19 +1878,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1899,13 +1899,13 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11377</v>
+        <v>11388</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11385</v>
+        <v>11396</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11389</v>
+        <v>11400</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,13 +2401,13 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11390</v>
+        <v>11401</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2420,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11390</v>
+        <v>11401</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2588,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,7 +2737,7 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11390</v>
+        <v>11401</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11393</v>
+        <v>11404</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3050,19 +3050,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3071,7 +3071,7 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11393</v>
+        <v>11404</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3138,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -3149,7 +3149,9 @@
       <c r="AI17" s="1">
         <v>0</v>
       </c>
-      <c r="AJ17" s="1"/>
+      <c r="AJ17" s="1">
+        <v>254</v>
+      </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
@@ -3216,19 +3218,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3237,7 +3239,7 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11393</v>
+        <v>11404</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3304,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3315,9 +3317,7 @@
       <c r="AI18" s="1">
         <v>0</v>
       </c>
-      <c r="AJ18" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <v>0</v>
       </c>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -48,24 +48,24 @@
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -90,24 +90,24 @@
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
     <t>9/1/7143</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -129,19 +129,19 @@
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -718,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11384</v>
+        <v>11482</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>156346345</v>
+        <v>12107</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,13 +895,13 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11384</v>
+        <v>11482</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11384</v>
+        <v>11482</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1213,16 +1213,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,13 +1231,13 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11384</v>
+        <v>11482</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11388</v>
+        <v>11486</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1565,7 +1565,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11388</v>
+        <v>11486</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1643,7 +1643,9 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>254</v>
+      </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1710,19 +1712,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1731,13 +1733,13 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11388</v>
+        <v>11486</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1798,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -1878,19 +1880,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1899,13 +1901,13 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11388</v>
+        <v>11486</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -1939,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -1977,9 +1979,7 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1">
-        <v>175</v>
-      </c>
+      <c r="AJ10" s="1"/>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11396</v>
+        <v>11494</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11400</v>
+        <v>11498</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11401</v>
+        <v>11499</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11401</v>
+        <v>11499</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,7 +2737,7 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11401</v>
+        <v>11499</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2884,19 +2884,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,13 +2905,13 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11404</v>
+        <v>11502</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3050,19 +3050,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>3821</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3071,7 +3071,7 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11404</v>
+        <v>11502</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3218,19 +3218,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3239,13 +3239,13 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11404</v>
+        <v>11502</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,16 +45,19 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>ethyl-4-ANPP</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>ecgonine methylester (EME)</t>
@@ -63,9 +66,6 @@
     <t>ketamine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -87,16 +87,19 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t/>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>9/1/7143</t>
@@ -105,9 +108,6 @@
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -126,22 +126,22 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
   </si>
   <si>
     <t>WUB601BHAA</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -718,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK3" s="1">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -886,7 +886,7 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1066,10 +1066,10 @@
         <v>11482</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>156346345</v>
+        <v>12107</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1234,10 +1234,10 @@
         <v>11482</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -1643,9 +1643,7 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1724,7 +1722,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1883,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1968,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -1979,7 +1977,9 @@
       <c r="AI10" s="1">
         <v>0</v>
       </c>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="1">
+        <v>254</v>
+      </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2383,7 +2383,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -2392,7 +2392,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -3050,19 +3050,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3074,10 +3074,10 @@
         <v>11502</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3138,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -3149,9 +3149,7 @@
       <c r="AI17" s="1">
         <v>0</v>
       </c>
-      <c r="AJ17" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
@@ -3218,19 +3216,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3242,10 +3240,10 @@
         <v>11502</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3306,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3317,7 +3315,9 @@
       <c r="AI18" s="1">
         <v>0</v>
       </c>
-      <c r="AJ18" s="1"/>
+      <c r="AJ18" s="1">
+        <v>254</v>
+      </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,24 +45,24 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -87,24 +87,24 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -126,19 +126,19 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="1">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK4" s="1">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1544,19 +1544,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
@@ -1568,10 +1568,10 @@
         <v>11486</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1643,7 +1643,9 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>175</v>
+      </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1710,19 +1712,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1734,10 +1736,10 @@
         <v>11486</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1809,9 +1811,7 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>175</v>
-      </c>
+      <c r="AJ9" s="1"/>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2572,10 +2572,10 @@
         <v>11499</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2588,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2740,10 +2740,10 @@
         <v>11499</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11482</v>
+        <v>11546</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11482</v>
+        <v>11546</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11482</v>
+        <v>11546</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11482</v>
+        <v>11546</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11486</v>
+        <v>11550</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11486</v>
+        <v>11550</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11486</v>
+        <v>11550</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11486</v>
+        <v>11550</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11494</v>
+        <v>11558</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11498</v>
+        <v>11562</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11499</v>
+        <v>11563</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11499</v>
+        <v>11563</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2588,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11499</v>
+        <v>11563</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2756,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2884,16 +2884,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11502</v>
+        <v>11566</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -2983,7 +2983,9 @@
       <c r="AI16" s="1">
         <v>0</v>
       </c>
-      <c r="AJ16" s="1"/>
+      <c r="AJ16" s="1">
+        <v>254</v>
+      </c>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11502</v>
+        <v>11566</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3216,16 +3218,16 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
@@ -3237,7 +3239,7 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11502</v>
+        <v>11566</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3304,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3315,9 +3317,7 @@
       <c r="AI18" s="1">
         <v>0</v>
       </c>
-      <c r="AJ18" s="1">
-        <v>254</v>
-      </c>
+      <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <v>0</v>
       </c>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -45,18 +45,18 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
@@ -87,18 +87,18 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
     <t>9/1/7143</t>
   </si>
   <si>
@@ -126,13 +126,13 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>Y35FJB3QBJ</t>
@@ -550,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -709,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -718,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -727,7 +727,7 @@
         <v>45723</v>
       </c>
       <c r="I3" s="1">
-        <v>11546</v>
+        <v>11590</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -895,13 +895,13 @@
         <v>45723</v>
       </c>
       <c r="I4" s="1">
-        <v>11546</v>
+        <v>11590</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,13 +1063,13 @@
         <v>45723</v>
       </c>
       <c r="I5" s="1">
-        <v>11546</v>
+        <v>11590</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1231,7 +1231,7 @@
         <v>45723</v>
       </c>
       <c r="I6" s="1">
-        <v>11546</v>
+        <v>11590</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>45721</v>
       </c>
       <c r="I7" s="1">
-        <v>11550</v>
+        <v>11594</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
@@ -1565,13 +1565,13 @@
         <v>45721</v>
       </c>
       <c r="I8" s="1">
-        <v>11550</v>
+        <v>11594</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1643,9 +1643,7 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>175</v>
-      </c>
+      <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1712,19 +1710,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1733,13 +1731,13 @@
         <v>45721</v>
       </c>
       <c r="I9" s="1">
-        <v>11550</v>
+        <v>11594</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1773,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1811,7 +1809,9 @@
       <c r="AI9" s="1">
         <v>0</v>
       </c>
-      <c r="AJ9" s="1"/>
+      <c r="AJ9" s="1">
+        <v>175</v>
+      </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>45721</v>
       </c>
       <c r="I10" s="1">
-        <v>11550</v>
+        <v>11594</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
         <v>45721</v>
       </c>
       <c r="I11" s="1">
-        <v>11558</v>
+        <v>11602</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>45721</v>
       </c>
       <c r="I12" s="1">
-        <v>11562</v>
+        <v>11606</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2380,19 +2380,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2401,7 +2401,7 @@
         <v>45723</v>
       </c>
       <c r="I13" s="1">
-        <v>11563</v>
+        <v>11607</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2569,13 +2569,13 @@
         <v>45723</v>
       </c>
       <c r="I14" s="1">
-        <v>11563</v>
+        <v>11607</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2588,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2716,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2737,13 +2737,13 @@
         <v>45723</v>
       </c>
       <c r="I15" s="1">
-        <v>11563</v>
+        <v>11607</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2756,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -2896,7 +2896,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2905,7 +2905,7 @@
         <v>45721</v>
       </c>
       <c r="I16" s="1">
-        <v>11566</v>
+        <v>11610</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -3052,19 +3052,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3073,13 +3073,13 @@
         <v>45721</v>
       </c>
       <c r="I17" s="1">
-        <v>11566</v>
+        <v>11610</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3218,19 +3218,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3239,13 +3239,13 @@
         <v>45721</v>
       </c>
       <c r="I18" s="1">
-        <v>11566</v>
+        <v>11610</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="173" uniqueCount="106">
   <si>
     <t>sampleid</t>
   </si>
@@ -45,24 +45,24 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -87,24 +87,24 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -126,21 +126,21 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
@@ -171,7 +171,34 @@
     <t>date_complete</t>
   </si>
   <si>
-    <t>card</t>
+    <t>gcms_peak</t>
+  </si>
+  <si>
+    <t>8.35</t>
+  </si>
+  <si>
+    <t>10.48</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>6.88</t>
+  </si>
+  <si>
+    <t>5.61</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>7.21</t>
   </si>
   <si>
     <t>primary</t>
@@ -249,9 +276,6 @@
     <t>lab_btmps</t>
   </si>
   <si>
-    <t>chemdict</t>
-  </si>
-  <si>
     <t>lab_opioid</t>
   </si>
   <si>
@@ -307,9 +331,6 @@
   </si>
   <si>
     <t>lab_substituted_cathinones_any</t>
-  </si>
-  <si>
-    <t>_merge</t>
   </si>
 </sst>
 </file>
@@ -357,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BB18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -392,145 +413,139 @@
         <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
         <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="S1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="T1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="U1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Z1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AA1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AC1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AD1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AE1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AF1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AG1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AJ1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AK1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AL1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AM1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AN1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AO1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AP1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AQ1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AR1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AS1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AT1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AU1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AV1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AW1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AX1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="AY1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AZ1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="BA1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="BB1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -558,8 +573,8 @@
       <c r="H2" s="2">
         <v>45721</v>
       </c>
-      <c r="I2" s="1">
-        <v>330</v>
+      <c r="I2" t="s">
+        <v>53</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -638,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="1">
         <v>0</v>
@@ -693,12 +708,6 @@
       </c>
       <c r="BB2" s="1">
         <v>0</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -709,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -726,8 +735,8 @@
       <c r="H3" s="2">
         <v>45723</v>
       </c>
-      <c r="I3" s="1">
-        <v>11590</v>
+      <c r="I3" t="s">
+        <v>54</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -746,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -806,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -857,16 +866,10 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -894,8 +897,8 @@
       <c r="H4" s="2">
         <v>45723</v>
       </c>
-      <c r="I4" s="1">
-        <v>11590</v>
+      <c r="I4" t="s">
+        <v>55</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -974,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -1022,19 +1025,13 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1062,8 +1059,8 @@
       <c r="H5" s="2">
         <v>45723</v>
       </c>
-      <c r="I5" s="1">
-        <v>11590</v>
+      <c r="I5" t="s">
+        <v>56</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1142,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
         <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1190,19 +1187,13 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1230,8 +1221,8 @@
       <c r="H6" s="2">
         <v>45723</v>
       </c>
-      <c r="I6" s="1">
-        <v>11590</v>
+      <c r="I6" t="s">
+        <v>57</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1250,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1310,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1358,19 +1349,13 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1378,19 +1363,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1398,14 +1383,14 @@
       <c r="H7" s="2">
         <v>45721</v>
       </c>
-      <c r="I7" s="1">
-        <v>11594</v>
+      <c r="I7" t="s">
+        <v>53</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1439,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1477,7 +1462,9 @@
       <c r="AI7" s="1">
         <v>0</v>
       </c>
-      <c r="AJ7" s="1"/>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
@@ -1531,12 +1518,6 @@
       </c>
       <c r="BB7" s="1">
         <v>0</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1544,16 +1525,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>119478</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -1564,8 +1545,8 @@
       <c r="H8" s="2">
         <v>45721</v>
       </c>
-      <c r="I8" s="1">
-        <v>11594</v>
+      <c r="I8" t="s">
+        <v>55</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1643,7 +1624,9 @@
       <c r="AI8" s="1">
         <v>0</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
@@ -1697,12 +1680,6 @@
       </c>
       <c r="BB8" s="1">
         <v>0</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1710,19 +1687,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1730,14 +1707,14 @@
       <c r="H9" s="2">
         <v>45721</v>
       </c>
-      <c r="I9" s="1">
-        <v>11594</v>
+      <c r="I9" t="s">
+        <v>55</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1771,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1810,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -1865,12 +1842,6 @@
       </c>
       <c r="BB9" s="1">
         <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1898,8 +1869,8 @@
       <c r="H10" s="2">
         <v>45721</v>
       </c>
-      <c r="I10" s="1">
-        <v>11594</v>
+      <c r="I10" t="s">
+        <v>55</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1978,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -2033,12 +2004,6 @@
       </c>
       <c r="BB10" s="1">
         <v>0</v>
-      </c>
-      <c r="BC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2066,8 +2031,8 @@
       <c r="H11" s="2">
         <v>45721</v>
       </c>
-      <c r="I11" s="1">
-        <v>11602</v>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2145,7 +2110,9 @@
       <c r="AI11" s="1">
         <v>0</v>
       </c>
-      <c r="AJ11" s="1"/>
+      <c r="AJ11" s="1">
+        <v>0</v>
+      </c>
       <c r="AK11" s="1">
         <v>0</v>
       </c>
@@ -2199,12 +2166,6 @@
       </c>
       <c r="BB11" s="1">
         <v>0</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2232,8 +2193,8 @@
       <c r="H12" s="2">
         <v>45721</v>
       </c>
-      <c r="I12" s="1">
-        <v>11606</v>
+      <c r="I12" t="s">
+        <v>59</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2312,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1">
         <v>0</v>
@@ -2367,12 +2328,6 @@
       </c>
       <c r="BB12" s="1">
         <v>0</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2400,8 +2355,8 @@
       <c r="H13" s="2">
         <v>45723</v>
       </c>
-      <c r="I13" s="1">
-        <v>11607</v>
+      <c r="I13" t="s">
+        <v>55</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2480,13 +2435,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2528,19 +2483,13 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
-      </c>
-      <c r="BC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2548,16 +2497,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
         <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -2568,8 +2517,8 @@
       <c r="H14" s="2">
         <v>45723</v>
       </c>
-      <c r="I14" s="1">
-        <v>11607</v>
+      <c r="I14" t="s">
+        <v>55</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2648,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="1">
         <v>1</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2703,12 +2652,6 @@
       </c>
       <c r="BB14" s="1">
         <v>0</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2736,8 +2679,8 @@
       <c r="H15" s="2">
         <v>45723</v>
       </c>
-      <c r="I15" s="1">
-        <v>11607</v>
+      <c r="I15" t="s">
+        <v>55</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2816,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -2871,12 +2814,6 @@
       </c>
       <c r="BB15" s="1">
         <v>0</v>
-      </c>
-      <c r="BC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2884,19 +2821,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2904,14 +2841,14 @@
       <c r="H16" s="2">
         <v>45721</v>
       </c>
-      <c r="I16" s="1">
-        <v>11610</v>
+      <c r="I16" t="s">
+        <v>55</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2972,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -2984,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
@@ -3039,12 +2976,6 @@
       </c>
       <c r="BB16" s="1">
         <v>0</v>
-      </c>
-      <c r="BC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -3072,8 +3003,8 @@
       <c r="H17" s="2">
         <v>45721</v>
       </c>
-      <c r="I17" s="1">
-        <v>11610</v>
+      <c r="I17" t="s">
+        <v>60</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3151,7 +3082,9 @@
       <c r="AI17" s="1">
         <v>0</v>
       </c>
-      <c r="AJ17" s="1"/>
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
@@ -3205,12 +3138,6 @@
       </c>
       <c r="BB17" s="1">
         <v>0</v>
-      </c>
-      <c r="BC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -3218,19 +3145,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3238,14 +3165,14 @@
       <c r="H18" s="2">
         <v>45721</v>
       </c>
-      <c r="I18" s="1">
-        <v>11610</v>
+      <c r="I18" t="s">
+        <v>61</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3306,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3317,7 +3244,9 @@
       <c r="AI18" s="1">
         <v>0</v>
       </c>
-      <c r="AJ18" s="1"/>
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>
@@ -3371,12 +3300,6 @@
       </c>
       <c r="BB18" s="1">
         <v>0</v>
-      </c>
-      <c r="BC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -48,24 +48,24 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
@@ -90,24 +90,24 @@
     <t>437-38-7</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
     <t>43021-26-7</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>61-50-7</t>
   </si>
   <si>
@@ -138,12 +138,12 @@
     <t>58C337KP3E</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>WUB601BHAA</t>
   </si>
   <si>
@@ -180,10 +180,10 @@
     <t>10.48</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>9.27</t>
   </si>
   <si>
     <t>5.02</t>
@@ -565,7 +565,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -727,7 +727,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -901,10 +901,10 @@
         <v>55</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1042,16 +1042,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1063,10 +1063,10 @@
         <v>56</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1375,7 +1375,7 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -1546,7 +1546,7 @@
         <v>45721</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1708,7 +1708,7 @@
         <v>45721</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1870,7 +1870,7 @@
         <v>45721</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -2185,7 +2185,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -2335,19 +2335,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -2356,7 +2356,7 @@
         <v>45723</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2497,19 +2497,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -2518,13 +2518,13 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2537,19 +2537,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1">
         <v>1</v>
@@ -2659,19 +2659,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -2680,13 +2680,13 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2699,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1">
         <v>1</v>
@@ -2821,19 +2821,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -2842,13 +2842,13 @@
         <v>45721</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -2983,19 +2983,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -3004,7 +3004,7 @@
         <v>45721</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -3145,19 +3145,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -3166,13 +3166,13 @@
         <v>45721</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3233,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="404" uniqueCount="156">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,12 +21,42 @@
     <t>300540</t>
   </si>
   <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
     <t>900150</t>
   </si>
   <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900221</t>
+  </si>
+  <si>
     <t>900223</t>
   </si>
   <si>
@@ -39,15 +69,39 @@
     <t>900245</t>
   </si>
   <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900286</t>
+  </si>
+  <si>
     <t>substance</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
@@ -66,18 +120,36 @@
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
+    <t>MDA</t>
+  </si>
+  <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
-    <t>MDA</t>
-  </si>
-  <si>
     <t>xylazine</t>
   </si>
   <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
+    <t>erythritol</t>
+  </si>
+  <si>
+    <t>tetracaine</t>
+  </si>
+  <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -87,15 +159,24 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
@@ -108,27 +189,45 @@
     <t>9/1/7143</t>
   </si>
   <si>
+    <t>4764-17-4</t>
+  </si>
+  <si>
     <t>61-50-7</t>
   </si>
   <si>
-    <t>4764-17-4</t>
-  </si>
-  <si>
     <t>7361-61-7</t>
   </si>
   <si>
     <t>67-71-0</t>
   </si>
   <si>
+    <t>1622-61-3</t>
+  </si>
+  <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
@@ -144,18 +243,27 @@
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
+    <t>XJZ28FJ27W</t>
+  </si>
+  <si>
     <t>WUB601BHAA</t>
   </si>
   <si>
-    <t>XJZ28FJ27W</t>
-  </si>
-  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>5PE9FDE8GB</t>
+  </si>
+  <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -177,16 +285,46 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>4.51</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
     <t>10.48</t>
   </si>
   <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>5.02</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>10.46</t>
+  </si>
+  <si>
+    <t>5.62</t>
   </si>
   <si>
     <t>6.88</t>
@@ -199,6 +337,18 @@
   </si>
   <si>
     <t>7.21</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>12.54</t>
+  </si>
+  <si>
+    <t>7.59</t>
   </si>
   <si>
     <t>primary</t>
@@ -378,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB18"/>
+  <dimension ref="A1:BB51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -389,163 +539,163 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="Q1" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="T1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Y1" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="Z1" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AA1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AB1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AC1" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AD1" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AE1" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="AF1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="AG1" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="AH1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="AI1" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="AJ1" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="AK1" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="AL1" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="AM1" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AN1" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="AO1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="AP1" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="AQ1" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AR1" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="AS1" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="AT1" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="AU1" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="AV1" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="AW1" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AX1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AY1" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="AZ1" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="BA1" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="BB1" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
@@ -553,28 +703,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>446220</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2">
         <v>45721</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -715,50 +865,50 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
         <v>4</v>
       </c>
-      <c r="N3" s="1">
-        <v>3</v>
-      </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -815,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -854,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -877,42 +1027,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>88890</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
         <v>4</v>
       </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
@@ -971,16 +1119,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="1">
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1025,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -1039,42 +1187,42 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>156346345</v>
+        <v>66924</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
         <v>4</v>
       </c>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
@@ -1187,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1201,28 +1349,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1232,19 +1380,19 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
         <v>4</v>
       </c>
-      <c r="N6" s="1">
-        <v>3</v>
-      </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1301,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1349,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
@@ -1360,31 +1508,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>446220</v>
+        <v>10836</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1394,11 +1542,11 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1">
         <v>4</v>
       </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
@@ -1418,16 +1566,16 @@
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1522,45 +1670,45 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>119478</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1">
         <v>4</v>
       </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
       <c r="O8" s="1">
         <v>0</v>
       </c>
@@ -1625,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1673,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="1">
         <v>0</v>
@@ -1687,38 +1835,38 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
-        <v>3821</v>
+        <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -1742,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
@@ -1775,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -1846,41 +1994,41 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
-        <v>104904</v>
+        <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -1904,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
         <v>0</v>
@@ -2008,31 +2156,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
-        <v>6089</v>
+        <v>10836</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H11" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2066,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1">
         <v>0</v>
@@ -2170,31 +2318,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>1614</v>
+        <v>10836</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2228,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -2332,31 +2480,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2">
         <v>45723</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2366,19 +2514,19 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1">
         <v>3</v>
       </c>
-      <c r="N13" s="1">
-        <v>2</v>
-      </c>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2483,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="1">
         <v>0</v>
@@ -2494,31 +2642,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>156346345</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2">
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2528,11 +2676,11 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
         <v>3</v>
       </c>
-      <c r="N14" s="1">
-        <v>2</v>
-      </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
@@ -2546,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2600,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2645,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -2656,31 +2804,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H15" s="2">
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2690,19 +2838,19 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
+        <v>4</v>
+      </c>
+      <c r="N15" s="1">
         <v>3</v>
       </c>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2759,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2807,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="1">
         <v>0</v>
@@ -2821,28 +2969,28 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2852,11 +3000,11 @@
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
         <v>3</v>
       </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
       <c r="O16" s="1">
         <v>0</v>
       </c>
@@ -2921,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -2969,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="1">
         <v>0</v>
@@ -2980,31 +3128,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>3821</v>
+        <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H17" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -3014,10 +3162,10 @@
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -3038,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
@@ -3071,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="1">
         <v>0</v>
@@ -3142,163 +3290,5501 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>6089</v>
+        <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H18" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>446220</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1">
+        <v>119478</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3821</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
+        <v>104904</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1614</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6089</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1614</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45723</v>
+      </c>
+      <c r="I29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
         <v>3</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N29" s="1">
         <v>2</v>
       </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="1">
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="2">
+        <v>45723</v>
+      </c>
+      <c r="I30" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
+        <v>3</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5707</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45723</v>
+      </c>
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
+        <v>3</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6213</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6089</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1">
+        <v>3</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3821</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1">
+        <v>3</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1">
+        <v>2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1">
+        <v>3</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1">
+        <v>2</v>
+      </c>
+      <c r="N40" s="1">
+        <v>2</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I41" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1">
+        <v>2</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I42" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1">
+        <v>10</v>
+      </c>
+      <c r="N42" s="1">
+        <v>5</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1">
+        <v>10</v>
+      </c>
+      <c r="N43" s="1">
+        <v>5</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2802</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1">
+        <v>10</v>
+      </c>
+      <c r="N44" s="1">
+        <v>5</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I45" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1">
+        <v>10</v>
+      </c>
+      <c r="N45" s="1">
+        <v>5</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1">
+        <v>91725431</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I46" t="s">
+        <v>109</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1">
+        <v>10</v>
+      </c>
+      <c r="N46" s="1">
+        <v>5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
+        <v>10</v>
+      </c>
+      <c r="N47" s="1">
+        <v>5</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I48" t="s">
+        <v>110</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1">
+        <v>10</v>
+      </c>
+      <c r="N48" s="1">
+        <v>5</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3676</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I49" t="s">
+        <v>90</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1">
+        <v>10</v>
+      </c>
+      <c r="N49" s="1">
+        <v>5</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5707</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I50" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1">
+        <v>10</v>
+      </c>
+      <c r="N50" s="1">
+        <v>5</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>68602</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I51" t="s">
+        <v>90</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1">
+        <v>10</v>
+      </c>
+      <c r="N51" s="1">
+        <v>5</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="1">
         <v>0</v>
       </c>
     </row>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,39 +87,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -138,18 +138,18 @@
     <t>tetracaine</t>
   </si>
   <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>clonazepam</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>NPP</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,36 +159,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -201,48 +201,48 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>1622-61-3</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>5PE9FDE8GB</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,21 +285,21 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>10.45</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>4.75</t>
   </si>
   <si>
-    <t>10.45</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>9.26</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -309,12 +309,12 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>10.48</t>
   </si>
   <si>
-    <t>5.02</t>
-  </si>
-  <si>
     <t>9.27</t>
   </si>
   <si>
@@ -342,13 +342,13 @@
     <t>10.47</t>
   </si>
   <si>
+    <t>12.54</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>7.51</t>
-  </si>
-  <si>
-    <t>12.54</t>
-  </si>
-  <si>
-    <t>7.59</t>
   </si>
   <si>
     <t>primary</t>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +889,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>45762</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -1208,7 +1208,7 @@
         <v>45762</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -1370,7 +1370,7 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>10836</v>
+        <v>3676</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -1523,7 +1523,7 @@
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1532,13 +1532,13 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="1">
         <v>0</v>
@@ -1835,16 +1835,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -1997,16 +1997,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -2159,16 +2159,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -2321,16 +2321,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
@@ -2483,16 +2483,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>49</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="1">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>156346345</v>
@@ -2666,7 +2666,7 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2807,16 +2807,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
         <v>49</v>
@@ -2847,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2907,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="1">
         <v>0</v>
@@ -2969,16 +2969,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -3131,16 +3131,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
         <v>49</v>
@@ -3293,16 +3293,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -3455,19 +3455,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -3476,13 +3476,13 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
@@ -3617,19 +3617,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -3638,13 +3638,13 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -3800,7 +3800,7 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="1">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D22" t="s">
         <v>57</v>
@@ -3962,7 +3962,7 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
@@ -4265,16 +4265,16 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -4286,7 +4286,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="1">
         <v>0</v>
@@ -4427,16 +4427,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -5075,16 +5075,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
         <v>49</v>
@@ -5096,7 +5096,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="1">
         <v>0</v>
@@ -5237,16 +5237,16 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
         <v>49</v>
@@ -5258,7 +5258,7 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30" s="1">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -5723,19 +5723,19 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
         <v>86</v>
@@ -5744,13 +5744,13 @@
         <v>45721</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33" s="1">
         <v>0</v>
@@ -5885,19 +5885,19 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -5906,13 +5906,13 @@
         <v>45721</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5973,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
         <v>0</v>
@@ -6047,16 +6047,16 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1">
         <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
         <v>49</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6209,16 +6209,16 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1">
         <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
@@ -6371,16 +6371,16 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
         <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
@@ -6392,7 +6392,7 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -6552,7 +6552,7 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6693,16 +6693,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1">
         <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
         <v>49</v>
@@ -6855,16 +6855,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
@@ -7017,16 +7017,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1">
         <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
         <v>49</v>
@@ -7038,7 +7038,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7179,7 +7179,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" t="s">
@@ -7189,7 +7189,7 @@
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7198,13 +7198,13 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7271,10 +7271,10 @@
         <v>0</v>
       </c>
       <c r="AH42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="1">
         <v>0</v>
@@ -7339,19 +7339,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7360,13 +7360,13 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7379,10 +7379,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -7439,10 +7439,10 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="1">
         <v>0</v>
@@ -7501,16 +7501,14 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2802</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
@@ -7522,7 +7520,7 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -7622,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="1">
         <v>0</v>
@@ -7663,16 +7661,16 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s">
         <v>49</v>
@@ -7684,7 +7682,7 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7703,10 +7701,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -7811,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="1">
         <v>0</v>
@@ -7825,16 +7823,16 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C46" s="1">
-        <v>91725431</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -7846,7 +7844,7 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -7925,10 +7923,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7973,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46" s="1">
         <v>0</v>
@@ -7987,7 +7985,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
@@ -8006,7 +8004,7 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -8147,14 +8145,16 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5707</v>
+      </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -8191,10 +8191,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -8239,16 +8239,16 @@
         <v>0</v>
       </c>
       <c r="AH48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8307,19 +8307,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1">
-        <v>3676</v>
+        <v>91725431</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8328,13 +8328,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AW49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="1">
         <v>0</v>
@@ -8469,19 +8469,19 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8490,13 +8490,13 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>44</v>
       </c>
       <c r="C51" s="1">
-        <v>68602</v>
+        <v>2802</v>
       </c>
       <c r="D51" t="s">
         <v>64</v>
@@ -8652,7 +8652,7 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,39 +87,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
     <t>tetracaine</t>
   </si>
   <si>
-    <t>NPP</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>clonazepam</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,36 +159,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -201,48 +201,48 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>1622-61-3</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>1462260-87-2</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>1622-61-3</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>5PE9FDE8GB</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>5PE9FDE8GB</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,21 +285,21 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>10.45</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -309,15 +309,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>5.02</t>
   </si>
   <si>
     <t>10.48</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -333,19 +333,19 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>7.21</t>
+  </si>
+  <si>
     <t>2.38</t>
   </si>
   <si>
-    <t>7.21</t>
-  </si>
-  <si>
     <t>10.47</t>
   </si>
   <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>12.54</t>
-  </si>
-  <si>
-    <t>7.59</t>
   </si>
   <si>
     <t>7.51</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +889,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1029,15 +1029,17 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>10836</v>
+      </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1049,10 +1051,10 @@
         <v>91</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1080,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -1119,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1287,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1335,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1352,16 +1354,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1449,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
@@ -1514,16 +1516,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1532,13 +1534,13 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1551,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1611,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1650,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -1675,17 +1677,15 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>10836</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -1694,13 +1694,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
@@ -1835,19 +1835,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -1997,19 +1997,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2159,19 +2159,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2321,19 +2321,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2483,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>156346345</v>
+        <v>12107</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2666,13 +2666,13 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2807,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2828,7 +2828,7 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2969,19 +2969,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -2990,13 +2990,13 @@
         <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3293,19 +3293,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -3476,7 +3476,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -3782,7 +3782,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -3800,7 +3800,7 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D22" t="s">
         <v>57</v>
@@ -3962,7 +3962,7 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="1">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4427,19 +4427,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5096,7 +5096,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="1">
         <v>0</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5258,13 +5258,13 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="1">
         <v>0</v>
@@ -5399,19 +5399,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5420,13 +5420,13 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5439,19 +5439,19 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5561,19 +5561,19 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5649,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="1">
         <v>0</v>
@@ -5723,19 +5723,19 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>86</v>
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="1">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>45721</v>
       </c>
       <c r="I34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="1">
         <v>0</v>
@@ -6209,19 +6209,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="1">
         <v>0</v>
@@ -6371,19 +6371,19 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1">
         <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6392,7 +6392,7 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -6537,10 +6537,10 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
         <v>84</v>
@@ -6552,7 +6552,7 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6693,19 +6693,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1">
         <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6855,19 +6855,19 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -6876,7 +6876,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6895,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40" s="1">
         <v>0</v>
@@ -7017,19 +7017,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7038,7 +7038,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="1">
         <v>0</v>
@@ -7179,17 +7179,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5707</v>
+      </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7223,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -7271,16 +7273,16 @@
         <v>0</v>
       </c>
       <c r="AH42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -7339,19 +7341,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
         <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7360,13 +7362,13 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7439,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7478,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="1">
         <v>0</v>
@@ -7487,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA43" s="1">
         <v>0</v>
@@ -7503,12 +7505,14 @@
       <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1">
+        <v>2802</v>
+      </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
@@ -7520,7 +7524,7 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -7620,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44" s="1">
         <v>0</v>
@@ -7661,19 +7665,17 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3345</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7682,7 +7684,7 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7701,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1">
         <v>0</v>
@@ -7755,16 +7757,16 @@
         <v>0</v>
       </c>
       <c r="AH45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="1">
         <v>0</v>
@@ -7823,19 +7825,19 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7844,7 +7846,7 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -7863,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -7971,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="1">
         <v>0</v>
@@ -7987,12 +7989,14 @@
       <c r="B47" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1">
+        <v>68602</v>
+      </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>84</v>
@@ -8004,7 +8008,7 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -8145,19 +8149,19 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1">
-        <v>5707</v>
+        <v>91725431</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8166,7 +8170,7 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8191,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -8245,10 +8249,10 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8307,19 +8311,17 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="1">
-        <v>91725431</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8328,13 +8330,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8469,16 +8471,16 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1">
-        <v>68602</v>
+        <v>3676</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
         <v>84</v>
@@ -8490,7 +8492,7 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50" s="1">
         <v>0</v>
@@ -8633,14 +8635,12 @@
       <c r="B51" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="1">
-        <v>2802</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F51" t="s">
         <v>84</v>
@@ -8652,7 +8652,7 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,24 +87,24 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
@@ -138,18 +138,18 @@
     <t>clonazepam</t>
   </si>
   <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>tetracaine</t>
+  </si>
+  <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>NPP</t>
-  </si>
-  <si>
-    <t>tetracaine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,24 +159,24 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
@@ -204,30 +204,30 @@
     <t>1622-61-3</t>
   </si>
   <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
@@ -258,12 +258,12 @@
     <t>5PE9FDE8GB</t>
   </si>
   <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,18 +285,18 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
@@ -309,15 +309,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>10.48</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>5.02</t>
-  </si>
-  <si>
-    <t>10.48</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -333,22 +333,22 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>2.38</t>
+  </si>
+  <si>
     <t>7.21</t>
   </si>
   <si>
-    <t>2.38</t>
-  </si>
-  <si>
     <t>10.47</t>
   </si>
   <si>
+    <t>12.54</t>
+  </si>
+  <si>
+    <t>7.51</t>
+  </si>
+  <si>
     <t>7.59</t>
-  </si>
-  <si>
-    <t>12.54</t>
-  </si>
-  <si>
-    <t>7.51</t>
   </si>
   <si>
     <t>primary</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +889,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -1039,7 +1039,7 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -1201,7 +1201,7 @@
         <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -1353,17 +1353,15 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1">
-        <v>88890</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1375,10 +1373,10 @@
         <v>93</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1445,16 +1443,16 @@
         <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="1">
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1499,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
@@ -1516,16 +1514,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1534,13 +1532,13 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1553,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1613,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1652,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -1677,15 +1675,17 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>3345</v>
+      </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -1694,13 +1694,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1835,19 +1835,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -1997,19 +1997,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2159,19 +2159,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2321,19 +2321,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2483,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -2807,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2847,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="1">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         <v>156346345</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
         <v>84</v>
@@ -2990,7 +2990,7 @@
         <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3293,19 +3293,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3476,7 +3476,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -3800,7 +3800,7 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>88890</v>
       </c>
       <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
         <v>51</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
         <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4427,19 +4427,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
         <v>88890</v>
       </c>
       <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5096,7 +5096,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5258,13 +5258,13 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5399,19 +5399,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5420,13 +5420,13 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5439,19 +5439,19 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5561,19 +5561,19 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5649,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
         <v>0</v>
@@ -5723,19 +5723,19 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
         <v>86</v>
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33" s="1">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>45721</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
         <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
         <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6209,19 +6209,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1">
         <v>88890</v>
       </c>
       <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
         <v>51</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>53</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6371,19 +6371,17 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="1">
-        <v>88890</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" t="s">
         <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6395,10 +6393,10 @@
         <v>93</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6471,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -6519,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="1">
         <v>0</v>
@@ -6533,17 +6531,19 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3345</v>
+      </c>
       <c r="D38" t="s">
         <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -6552,13 +6552,13 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6571,10 +6571,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6631,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -6693,19 +6693,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6714,7 +6714,7 @@
         <v>45761</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -6733,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA39" s="1">
         <v>0</v>
@@ -6855,19 +6855,19 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s">
         <v>51</v>
-      </c>
-      <c r="E40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" t="s">
-        <v>53</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -6876,7 +6876,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7017,19 +7017,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
         <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7179,19 +7179,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C42" s="1">
-        <v>5707</v>
+        <v>3676</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7200,13 +7200,13 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7225,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
         <v>0</v>
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="AW42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42" s="1">
         <v>0</v>
@@ -7343,17 +7343,15 @@
       <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="1">
-        <v>88890</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" t="s">
         <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7362,7 +7360,7 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7435,16 +7433,16 @@
         <v>0</v>
       </c>
       <c r="AH43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7489,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="1">
         <v>0</v>
@@ -7503,19 +7501,19 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
-        <v>2802</v>
+        <v>88890</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
         <v>86</v>
@@ -7527,10 +7525,10 @@
         <v>90</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7603,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -7624,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="1">
         <v>0</v>
@@ -7651,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44" s="1">
         <v>0</v>
@@ -7665,17 +7663,19 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2802</v>
+      </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7684,13 +7684,13 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7757,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="AH45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="1">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR45" s="1">
         <v>0</v>
@@ -7825,19 +7825,19 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1">
         <v>3345</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
         <v>71</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7989,14 +7989,12 @@
       <c r="B47" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="1">
-        <v>68602</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
         <v>84</v>
@@ -8008,7 +8006,7 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -8155,13 +8153,13 @@
         <v>91725431</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8170,7 +8168,7 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8311,17 +8309,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5707</v>
+      </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8330,13 +8330,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8355,10 +8355,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8409,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -8471,16 +8471,14 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3676</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s">
         <v>84</v>
@@ -8492,7 +8490,7 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -8610,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="1">
         <v>0</v>
@@ -8635,12 +8633,14 @@
       <c r="B51" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1">
+        <v>68602</v>
+      </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
         <v>84</v>
@@ -8652,7 +8652,7 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,28 +87,31 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>ecgonine methylester (EME)</t>
@@ -117,9 +120,6 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -141,15 +141,15 @@
     <t>NPP</t>
   </si>
   <si>
+    <t>tetracaine</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>tetracaine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,36 +159,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>105-70-4</t>
+    <t/>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
     <t>437-38-7</t>
   </si>
   <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -204,45 +204,45 @@
     <t>1622-61-3</t>
   </si>
   <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>1462260-87-2</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -258,12 +258,12 @@
     <t>5PE9FDE8GB</t>
   </si>
   <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,18 +285,18 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
     <t>9.26</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
@@ -309,15 +309,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>5.02</t>
   </si>
   <si>
     <t>10.48</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -345,10 +345,10 @@
     <t>12.54</t>
   </si>
   <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>7.51</t>
-  </si>
-  <si>
-    <t>7.59</t>
   </si>
   <si>
     <t>primary</t>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +889,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>3676</v>
+        <v>10836</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -1523,7 +1523,7 @@
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1535,10 +1535,10 @@
         <v>93</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -1835,16 +1835,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
@@ -1997,16 +1997,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
         <v>51</v>
@@ -2159,16 +2159,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
@@ -2321,16 +2321,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
@@ -2483,16 +2483,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2666,13 +2666,13 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -2807,16 +2807,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -2828,7 +2828,7 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2907,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2969,19 +2969,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -2990,13 +2990,13 @@
         <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="1">
         <v>0</v>
@@ -3131,16 +3131,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
@@ -3293,16 +3293,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -3476,7 +3476,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
@@ -3617,19 +3617,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -3638,13 +3638,13 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3779,16 +3779,16 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
         <v>119478</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>84</v>
@@ -3800,7 +3800,7 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3941,19 +3941,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
         <v>86</v>
@@ -3962,13 +3962,13 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="1">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
         <v>51</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
@@ -4265,16 +4265,16 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
@@ -4286,7 +4286,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="1">
         <v>0</v>
@@ -5075,16 +5075,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
         <v>51</v>
@@ -5096,7 +5096,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5258,7 +5258,7 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -5723,16 +5723,16 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <v>3821</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
@@ -5906,7 +5906,7 @@
         <v>45721</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -6209,16 +6209,16 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1">
         <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
         <v>51</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6371,17 +6371,19 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C37" s="1">
+        <v>88890</v>
+      </c>
       <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
         <v>51</v>
-      </c>
-      <c r="E37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" t="s">
-        <v>84</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6390,13 +6392,13 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6469,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -6517,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA37" s="1">
         <v>0</v>
@@ -6693,19 +6695,17 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="1">
-        <v>88890</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6717,10 +6717,10 @@
         <v>90</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="1">
         <v>0</v>
@@ -6855,16 +6855,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
         <v>51</v>
@@ -6876,7 +6876,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7179,19 +7179,17 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3676</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7200,13 +7198,13 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7273,10 +7271,10 @@
         <v>0</v>
       </c>
       <c r="AH42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="1">
         <v>0</v>
@@ -7318,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="AW42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="1">
         <v>0</v>
@@ -7341,17 +7339,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2802</v>
+      </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7360,13 +7360,13 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7433,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="AH43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="1">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="1">
         <v>0</v>
@@ -7501,19 +7501,17 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1">
-        <v>88890</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
         <v>86</v>
@@ -7525,10 +7523,10 @@
         <v>90</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7601,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -7649,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="1">
         <v>0</v>
@@ -7663,16 +7661,16 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1">
-        <v>2802</v>
+        <v>3676</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s">
         <v>84</v>
@@ -7684,7 +7682,7 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -7784,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="1">
         <v>0</v>
@@ -7802,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="AW45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45" s="1">
         <v>0</v>
@@ -7987,7 +7985,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
@@ -8006,7 +8004,7 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -8147,16 +8145,16 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
-        <v>91725431</v>
+        <v>5707</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
@@ -8193,10 +8191,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -8247,10 +8245,10 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8309,19 +8307,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8330,13 +8328,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8355,10 +8353,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8409,10 +8407,10 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -8471,17 +8469,19 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C50" s="1">
+        <v>88890</v>
+      </c>
       <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" t="s">
         <v>51</v>
-      </c>
-      <c r="E50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" t="s">
-        <v>84</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8490,13 +8490,13 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="1">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>44</v>
       </c>
       <c r="C51" s="1">
-        <v>68602</v>
+        <v>91725431</v>
       </c>
       <c r="D51" t="s">
         <v>64</v>
@@ -8643,7 +8643,7 @@
         <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -8652,13 +8652,13 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,39 +87,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
+    <t>methamphetamine</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
     <t>clonazepam</t>
   </si>
   <si>
-    <t>NPP</t>
-  </si>
-  <si>
     <t>tetracaine</t>
   </si>
   <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,36 +159,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
+    <t>537-46-2</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -201,48 +201,48 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
     <t>1622-61-3</t>
   </si>
   <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
     <t>5PE9FDE8GB</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,21 +285,21 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>10.45</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -309,12 +309,12 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>5.02</t>
-  </si>
-  <si>
     <t>10.48</t>
   </si>
   <si>
@@ -333,22 +333,22 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>7.21</t>
+  </si>
+  <si>
     <t>2.38</t>
   </si>
   <si>
-    <t>7.21</t>
-  </si>
-  <si>
     <t>10.47</t>
   </si>
   <si>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>12.54</t>
-  </si>
-  <si>
-    <t>7.59</t>
-  </si>
-  <si>
-    <t>7.51</t>
   </si>
   <si>
     <t>primary</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3676</v>
+        <v>66924</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +889,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -1039,7 +1039,7 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1127,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -1201,7 +1201,7 @@
         <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1353,12 +1353,14 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>3676</v>
+      </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
@@ -1370,7 +1372,7 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1443,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="1">
         <v>0</v>
@@ -1488,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="1">
         <v>0</v>
@@ -1520,10 +1522,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1532,7 +1534,7 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1675,17 +1677,15 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>3345</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -1694,13 +1694,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -2006,10 +2006,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2168,10 +2168,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2330,10 +2330,10 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2483,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2666,13 +2666,13 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2828,13 +2828,13 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2969,19 +2969,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>3345</v>
       </c>
       <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -3140,10 +3140,10 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3302,10 +3302,10 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3476,7 +3476,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -3638,7 +3638,7 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
@@ -3800,7 +3800,7 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>86</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>3345</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>51</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4286,7 +4286,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4427,19 +4427,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
         <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5096,7 +5096,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5258,13 +5258,13 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5399,19 +5399,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5420,13 +5420,13 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5439,19 +5439,19 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5561,19 +5561,19 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5649,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="1">
         <v>0</v>
@@ -5723,19 +5723,19 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s">
         <v>86</v>
@@ -5744,13 +5744,13 @@
         <v>45721</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="1">
         <v>0</v>
@@ -5885,19 +5885,19 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -5906,13 +5906,13 @@
         <v>45721</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1">
         <v>3345</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
         <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>51</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6209,19 +6209,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
         <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6371,19 +6371,19 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1">
         <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6392,7 +6392,7 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -6533,19 +6533,17 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3345</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" t="s">
         <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -6554,13 +6552,13 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6573,10 +6571,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6633,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -6695,17 +6693,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3345</v>
+      </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6714,13 +6714,13 @@
         <v>45761</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6733,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
@@ -6867,7 +6867,7 @@
         <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -6876,7 +6876,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6895,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="1">
         <v>0</v>
@@ -7017,19 +7017,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
         <v>53</v>
-      </c>
-      <c r="E41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>51</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7038,7 +7038,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA41" s="1">
         <v>0</v>
@@ -7179,17 +7179,17 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7198,13 +7198,13 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7271,10 +7271,10 @@
         <v>0</v>
       </c>
       <c r="AH42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="1">
         <v>0</v>
@@ -7339,19 +7339,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
-        <v>2802</v>
+        <v>3345</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7360,13 +7360,13 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7379,10 +7379,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -7439,10 +7439,10 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="1">
         <v>0</v>
@@ -7501,14 +7501,16 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3676</v>
+      </c>
       <c r="D44" t="s">
         <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
@@ -7520,7 +7522,7 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -7638,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44" s="1">
         <v>0</v>
@@ -7661,19 +7663,19 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7682,13 +7684,13 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7761,10 +7763,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="1">
         <v>0</v>
@@ -7800,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AW45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="1">
         <v>0</v>
@@ -7809,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA45" s="1">
         <v>0</v>
@@ -7823,19 +7825,19 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1">
-        <v>3345</v>
+        <v>91725431</v>
       </c>
       <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" t="s">
         <v>53</v>
-      </c>
-      <c r="E46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" t="s">
-        <v>51</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7844,7 +7846,7 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -7863,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -7923,10 +7925,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7985,17 +7987,19 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5707</v>
+      </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G47" t="s">
         <v>86</v>
@@ -8004,13 +8008,13 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -8029,10 +8033,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -8083,10 +8087,10 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -8145,19 +8149,19 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1">
-        <v>5707</v>
+        <v>2802</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8166,13 +8170,13 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -8191,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -8245,10 +8249,10 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8266,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR48" s="1">
         <v>0</v>
@@ -8307,19 +8311,17 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="1">
-        <v>68602</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8328,13 +8330,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8401,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="AH49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49" s="1">
         <v>0</v>
@@ -8469,19 +8471,17 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8490,13 +8490,13 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="1">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>44</v>
       </c>
       <c r="C51" s="1">
-        <v>91725431</v>
+        <v>68602</v>
       </c>
       <c r="D51" t="s">
         <v>64</v>
@@ -8643,7 +8643,7 @@
         <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -8652,13 +8652,13 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,39 +87,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>tetracaine</t>
+  </si>
+  <si>
     <t>NPP</t>
   </si>
   <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>clonazepam</t>
   </si>
   <si>
-    <t>tetracaine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,36 +159,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>437-38-7</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -204,45 +204,45 @@
     <t>1462260-87-2</t>
   </si>
   <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>1622-61-3</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -258,12 +258,12 @@
     <t>3D9E9KK5K5</t>
   </si>
   <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>5PE9FDE8GB</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,18 +285,18 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>4.75</t>
   </si>
   <si>
-    <t>9.26</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
@@ -309,13 +309,13 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>10.48</t>
+  </si>
+  <si>
     <t>5.02</t>
-  </si>
-  <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>10.48</t>
   </si>
   <si>
     <t>4.5</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -867,17 +867,15 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
-        <v>66924</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +887,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -959,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="1">
         <v>0</v>
@@ -1036,10 +1034,10 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1192,16 +1190,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1229,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1289,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1354,16 +1352,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1375,10 +1373,10 @@
         <v>93</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1391,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1451,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1490,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="1">
         <v>0</v>
@@ -1522,10 +1520,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1677,12 +1675,14 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>3676</v>
+      </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -1694,7 +1694,7 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="1">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -2006,10 +2006,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2168,10 +2168,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2330,10 +2330,10 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2483,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -2807,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>156346345</v>
+        <v>12107</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2828,13 +2828,13 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2969,19 +2969,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -2990,13 +2990,13 @@
         <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="1">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3302,10 +3302,10 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -3476,7 +3476,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3779,19 +3779,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -3800,13 +3800,13 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3840,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
@@ -3941,19 +3941,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
         <v>86</v>
@@ -3962,13 +3962,13 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="1">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4286,7 +4286,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="1">
         <v>0</v>
@@ -4427,19 +4427,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5096,13 +5096,13 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5124,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="1">
         <v>0</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5258,13 +5258,13 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5399,19 +5399,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5420,7 +5420,7 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5439,10 +5439,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" s="1">
         <v>0</v>
@@ -5561,19 +5561,19 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <v>3821</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5744,7 +5744,7 @@
         <v>45721</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5897,7 +5897,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="1">
         <v>0</v>
@@ -6209,19 +6209,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="1">
         <v>0</v>
@@ -6380,10 +6380,10 @@
         <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6533,17 +6533,19 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3345</v>
+      </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -6552,13 +6554,13 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6571,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6631,10 +6633,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -6693,19 +6695,17 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3345</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6714,13 +6714,13 @@
         <v>45761</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6733,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6855,19 +6855,19 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
         <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -7026,10 +7026,10 @@
         <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7179,17 +7179,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C42" s="1">
+        <v>88890</v>
+      </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7198,13 +7200,13 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7277,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -7325,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA42" s="1">
         <v>0</v>
@@ -7339,19 +7341,17 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3345</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7360,13 +7360,13 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7379,10 +7379,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -7439,10 +7439,10 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7501,16 +7501,14 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3676</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
@@ -7522,7 +7520,7 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -7640,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="1">
         <v>0</v>
@@ -7663,19 +7661,19 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1">
-        <v>88890</v>
+        <v>91725431</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7684,7 +7682,7 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7763,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="1">
         <v>0</v>
@@ -7811,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="1">
         <v>0</v>
@@ -7825,19 +7823,19 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1">
-        <v>91725431</v>
+        <v>3676</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7846,13 +7844,13 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7964,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="AW46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX46" s="1">
         <v>0</v>
@@ -7999,7 +7997,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
         <v>86</v>
@@ -8149,19 +8147,19 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1">
-        <v>2802</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8173,10 +8171,10 @@
         <v>93</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -8189,10 +8187,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -8249,10 +8247,10 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8270,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="1">
         <v>0</v>
@@ -8311,17 +8309,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C49" s="1">
+        <v>68602</v>
+      </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8330,13 +8330,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8403,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="AH49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="1">
         <v>0</v>
@@ -8471,14 +8471,16 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2802</v>
+      </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
         <v>84</v>
@@ -8490,7 +8492,7 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -8590,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR50" s="1">
         <v>0</v>
@@ -8631,19 +8633,17 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="1">
-        <v>68602</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -8652,13 +8652,13 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="AH51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,36 +87,36 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
     <t>tetracaine</t>
   </si>
   <si>
     <t>NPP</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>clonazepam</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,33 +159,33 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>6740-88-1</t>
   </si>
   <si>
@@ -201,12 +201,12 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>1462260-87-2</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>1622-61-3</t>
   </si>
   <si>
@@ -222,24 +222,24 @@
     <t>G45CU3Z186</t>
   </si>
   <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
@@ -255,12 +255,12 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>5PE9FDE8GB</t>
   </si>
   <si>
@@ -285,15 +285,15 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
@@ -309,15 +309,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>10.48</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>10.48</t>
-  </si>
-  <si>
-    <t>5.02</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -342,10 +342,10 @@
     <t>10.47</t>
   </si>
   <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>7.51</t>
-  </si>
-  <si>
-    <t>7.59</t>
   </si>
   <si>
     <t>12.54</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -867,15 +867,17 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>88890</v>
+      </c>
       <c r="D3" t="s">
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -887,10 +889,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -957,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="1">
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1011,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -1028,16 +1030,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1125,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1173,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>66924</v>
+        <v>3676</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1211,10 +1213,10 @@
         <v>92</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1326,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="1">
         <v>0</v>
@@ -1358,10 +1360,10 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1520,10 +1522,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1675,14 +1677,12 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>3676</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -1694,7 +1694,7 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="1">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -2006,10 +2006,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2168,10 +2168,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2330,10 +2330,10 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2483,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2666,13 +2666,13 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>12107</v>
@@ -2819,7 +2819,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2828,7 +2828,7 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2969,19 +2969,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -2990,13 +2990,13 @@
         <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3302,10 +3302,10 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -3476,7 +3476,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -3638,7 +3638,7 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3779,19 +3779,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -3800,13 +3800,13 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3840,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="1">
         <v>0</v>
@@ -3941,19 +3941,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>86</v>
@@ -3962,13 +3962,13 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="1">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4286,7 +4286,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="1">
         <v>0</v>
@@ -4436,10 +4436,10 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5096,13 +5096,13 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5124,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="1">
         <v>0</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5258,13 +5258,13 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5399,19 +5399,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5420,7 +5420,7 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5439,10 +5439,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="1">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5744,7 +5744,7 @@
         <v>45721</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5897,7 +5897,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1">
         <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6218,10 +6218,10 @@
         <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6371,19 +6371,17 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1">
-        <v>88890</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6392,13 +6390,13 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6471,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -6519,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="1">
         <v>0</v>
@@ -6542,10 +6540,10 @@
         <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -6695,17 +6693,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C39" s="1">
+        <v>88890</v>
+      </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6717,10 +6717,10 @@
         <v>90</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA39" s="1">
         <v>0</v>
@@ -6864,10 +6864,10 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -7017,19 +7017,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
         <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
         <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7038,7 +7038,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7179,19 +7179,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7200,13 +7200,13 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="AW42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42" s="1">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="1">
         <v>0</v>
@@ -7341,17 +7341,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5707</v>
+      </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7360,13 +7362,13 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7385,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
         <v>0</v>
@@ -7439,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7501,14 +7503,16 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <v>68602</v>
+      </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
@@ -7520,7 +7524,7 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -7661,19 +7665,19 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1">
         <v>91725431</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7682,7 +7686,7 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7823,16 +7827,16 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1">
-        <v>3676</v>
+        <v>2802</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
         <v>84</v>
@@ -7844,7 +7848,7 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
@@ -7944,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR46" s="1">
         <v>0</v>
@@ -7962,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="AW46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="1">
         <v>0</v>
@@ -7985,19 +7989,17 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5707</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s">
         <v>86</v>
@@ -8006,13 +8008,13 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -8031,10 +8033,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -8085,10 +8087,10 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -8147,19 +8149,17 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3345</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8168,13 +8168,13 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -8187,10 +8187,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -8247,10 +8247,10 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8309,19 +8309,17 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="1">
-        <v>68602</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8330,13 +8328,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8403,10 +8401,10 @@
         <v>0</v>
       </c>
       <c r="AH49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49" s="1">
         <v>0</v>
@@ -8471,19 +8469,19 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1">
-        <v>2802</v>
+        <v>3345</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8492,13 +8490,13 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8511,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="P50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -8571,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -8592,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="1">
         <v>0</v>
@@ -8635,15 +8633,17 @@
       <c r="B51" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1">
+        <v>88890</v>
+      </c>
       <c r="D51" t="s">
         <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -8652,7 +8652,7 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -8725,16 +8725,16 @@
         <v>0</v>
       </c>
       <c r="AH51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,39 +87,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>tetracaine</t>
+  </si>
+  <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>clonazepam</t>
-  </si>
-  <si>
-    <t>tetracaine</t>
-  </si>
-  <si>
-    <t>NPP</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,36 +159,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -201,48 +201,48 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
+    <t>1622-61-3</t>
+  </si>
+  <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
-    <t>1622-61-3</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
+    <t>5PE9FDE8GB</t>
+  </si>
+  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
-    <t>5PE9FDE8GB</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,21 +285,21 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
     <t>9.26</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>10.45</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -333,22 +333,22 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>2.38</t>
+  </si>
+  <si>
     <t>7.21</t>
   </si>
   <si>
-    <t>2.38</t>
-  </si>
-  <si>
     <t>10.47</t>
   </si>
   <si>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>12.54</t>
+  </si>
+  <si>
     <t>7.59</t>
-  </si>
-  <si>
-    <t>7.51</t>
-  </si>
-  <si>
-    <t>12.54</t>
   </si>
   <si>
     <t>primary</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +889,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -1029,17 +1029,15 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
-        <v>66924</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1048,13 +1046,13 @@
         <v>45762</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1121,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="1">
         <v>0</v>
@@ -1192,16 +1190,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>3676</v>
+        <v>10836</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1210,13 +1208,13 @@
         <v>45762</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1244,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -1328,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="1">
         <v>0</v>
@@ -1360,10 +1358,10 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1372,7 +1370,7 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1516,16 +1514,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1534,7 +1532,7 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1568,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
@@ -1677,15 +1675,17 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>88890</v>
+      </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -1694,13 +1694,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="1">
         <v>0</v>
@@ -1835,19 +1835,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -1997,19 +1997,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2159,19 +2159,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2321,19 +2321,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2483,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2504,13 +2504,13 @@
         <v>45723</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2666,13 +2666,13 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2969,19 +2969,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3293,19 +3293,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -3476,7 +3476,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3779,19 +3779,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -3800,13 +3800,13 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3840,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="1">
         <v>0</v>
@@ -3941,19 +3941,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
         <v>86</v>
@@ -3962,13 +3962,13 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4286,7 +4286,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="1">
         <v>0</v>
@@ -4436,10 +4436,10 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5096,13 +5096,13 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5124,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="1">
         <v>0</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5258,13 +5258,13 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30" s="1">
         <v>0</v>
@@ -5408,10 +5408,10 @@
         <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5420,7 +5420,7 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5561,19 +5561,19 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5649,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>45721</v>
       </c>
       <c r="I33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5885,19 +5885,19 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -5973,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="1">
         <v>0</v>
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="1">
         <v>0</v>
@@ -6209,19 +6209,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="1">
         <v>0</v>
@@ -6371,17 +6371,19 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3345</v>
+      </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6390,13 +6392,13 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6409,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -6469,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -6531,19 +6533,17 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3345</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -6552,13 +6552,13 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6571,10 +6571,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6631,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -6693,19 +6693,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1">
         <v>88890</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6714,7 +6714,7 @@
         <v>45761</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -6864,10 +6864,10 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -7017,19 +7017,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1">
         <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7038,7 +7038,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7179,19 +7179,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>3676</v>
+        <v>91725431</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7200,13 +7200,13 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="AW42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="1">
         <v>0</v>
@@ -7341,19 +7341,17 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5707</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7362,7 +7360,7 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7387,10 +7385,10 @@
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
         <v>0</v>
@@ -7435,16 +7433,16 @@
         <v>0</v>
       </c>
       <c r="AH43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7503,19 +7501,19 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1">
-        <v>68602</v>
+        <v>3345</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
         <v>86</v>
@@ -7527,10 +7525,10 @@
         <v>92</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7543,10 +7541,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -7603,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -7667,17 +7665,15 @@
       <c r="B45" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="1">
-        <v>91725431</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7686,13 +7682,13 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7833,10 +7829,10 @@
         <v>2802</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
         <v>84</v>
@@ -7848,7 +7844,7 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
@@ -7993,10 +7989,10 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
         <v>84</v>
@@ -8008,7 +8004,7 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -8149,17 +8145,19 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C48" s="1">
+        <v>88890</v>
+      </c>
       <c r="D48" t="s">
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8168,13 +8166,13 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -8247,10 +8245,10 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8295,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA48" s="1">
         <v>0</v>
@@ -8309,17 +8307,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C49" s="1">
+        <v>68602</v>
+      </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8328,13 +8328,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8401,10 +8401,10 @@
         <v>0</v>
       </c>
       <c r="AH49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="1">
         <v>0</v>
@@ -8469,19 +8469,19 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8490,7 +8490,7 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8509,16 +8509,16 @@
         <v>0</v>
       </c>
       <c r="P50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -8643,7 +8643,7 @@
         <v>67</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -8655,10 +8655,10 @@
         <v>90</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -8731,10 +8731,10 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51" s="1">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -90,27 +90,27 @@
     <t>lidocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>NPP</t>
+  </si>
+  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>tetracaine</t>
   </si>
   <si>
     <t>clonazepam</t>
   </si>
   <si>
-    <t>NPP</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -162,21 +162,21 @@
     <t>137-58-6</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
@@ -204,12 +204,12 @@
     <t>1462260-87-2</t>
   </si>
   <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>1622-61-3</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
@@ -219,18 +219,18 @@
     <t>98PI200987</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
@@ -258,12 +258,12 @@
     <t>3D9E9KK5K5</t>
   </si>
   <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>5PE9FDE8GB</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -288,18 +288,18 @@
     <t>.</t>
   </si>
   <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>4.39</t>
   </si>
   <si>
+    <t>4.75</t>
+  </si>
+  <si>
     <t>10.45</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -309,15 +309,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>10.48</t>
   </si>
   <si>
-    <t>5.02</t>
-  </si>
-  <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -333,19 +333,19 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>7.21</t>
+  </si>
+  <si>
     <t>2.38</t>
   </si>
   <si>
-    <t>7.21</t>
-  </si>
-  <si>
     <t>10.47</t>
   </si>
   <si>
+    <t>12.54</t>
+  </si>
+  <si>
     <t>7.51</t>
-  </si>
-  <si>
-    <t>12.54</t>
   </si>
   <si>
     <t>7.59</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -1029,15 +1029,17 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>88890</v>
+      </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1046,13 +1048,13 @@
         <v>45762</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1119,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1173,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1208,7 +1210,7 @@
         <v>45762</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1352,16 +1354,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1370,7 +1372,7 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1389,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1449,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1514,16 +1516,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>66924</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1532,7 +1534,7 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1551,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1611,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1675,17 +1677,15 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>88890</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -1694,13 +1694,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="1">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -2006,10 +2006,10 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2168,10 +2168,10 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2330,10 +2330,10 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2483,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2504,13 +2504,13 @@
         <v>45723</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2666,7 +2666,7 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2828,13 +2828,13 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2969,19 +2969,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="1">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3302,10 +3302,10 @@
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3455,19 +3455,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -3476,13 +3476,13 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
@@ -3617,16 +3617,16 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="1">
         <v>0</v>
@@ -3779,19 +3779,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -3800,13 +3800,13 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3840,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>88890</v>
       </c>
       <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4427,19 +4427,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5099,10 +5099,10 @@
         <v>90</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5115,19 +5115,19 @@
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1">
         <v>88890</v>
       </c>
       <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5399,19 +5399,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5423,10 +5423,10 @@
         <v>90</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5439,19 +5439,19 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5561,19 +5561,19 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5649,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="1">
         <v>0</v>
@@ -5885,19 +5885,19 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -5973,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
         <v>0</v>
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="1">
         <v>0</v>
@@ -6209,19 +6209,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="1">
         <v>0</v>
@@ -6371,19 +6371,19 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1">
         <v>3345</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6537,10 +6537,10 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
         <v>84</v>
@@ -6693,19 +6693,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
         <v>88890</v>
       </c>
       <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
         <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6714,7 +6714,7 @@
         <v>45761</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -6855,19 +6855,19 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -6876,7 +6876,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6895,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40" s="1">
         <v>0</v>
@@ -7017,19 +7017,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
         <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7038,7 +7038,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="1">
         <v>0</v>
@@ -7179,19 +7179,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1">
-        <v>91725431</v>
+        <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7200,7 +7200,7 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA42" s="1">
         <v>0</v>
@@ -7341,17 +7341,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3345</v>
+      </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7360,7 +7362,7 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7379,10 +7381,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -7433,16 +7435,16 @@
         <v>0</v>
       </c>
       <c r="AH43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7501,19 +7503,17 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3345</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
         <v>86</v>
@@ -7522,13 +7522,13 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7541,10 +7541,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -7601,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -7663,17 +7663,17 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7682,13 +7682,13 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7755,10 +7755,10 @@
         <v>0</v>
       </c>
       <c r="AH45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45" s="1">
         <v>0</v>
@@ -7823,19 +7823,19 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1">
-        <v>2802</v>
+        <v>91725431</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7844,13 +7844,13 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="1">
         <v>0</v>
@@ -7985,14 +7985,16 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C47" s="1">
+        <v>68602</v>
+      </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>84</v>
@@ -8145,19 +8147,17 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" t="s">
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8166,13 +8166,13 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -8245,10 +8245,10 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="1">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1">
-        <v>68602</v>
+        <v>3676</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F49" t="s">
         <v>84</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AW49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49" s="1">
         <v>0</v>
@@ -8469,19 +8469,19 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1">
-        <v>5707</v>
+        <v>2802</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8490,13 +8490,13 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR50" s="1">
         <v>0</v>
@@ -8631,19 +8631,19 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1">
-        <v>3676</v>
+        <v>5707</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -8652,13 +8652,13 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -8677,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -8731,10 +8731,10 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,36 +87,36 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
     <t>NPP</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
     <t>medetomidine</t>
   </si>
   <si>
     <t>tetracaine</t>
   </si>
   <si>
-    <t>clonazepam</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,33 +159,33 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>43021-26-7</t>
   </si>
   <si>
@@ -201,45 +201,45 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>1622-61-3</t>
+  </si>
+  <si>
     <t>1462260-87-2</t>
   </si>
   <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>1622-61-3</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>5PE9FDE8GB</t>
+  </si>
+  <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>5PE9FDE8GB</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,21 +285,21 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>10.45</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -309,12 +309,12 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>5.02</t>
-  </si>
-  <si>
     <t>10.48</t>
   </si>
   <si>
@@ -333,19 +333,19 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>2.38</t>
+  </si>
+  <si>
     <t>7.21</t>
   </si>
   <si>
-    <t>2.38</t>
-  </si>
-  <si>
     <t>10.47</t>
   </si>
   <si>
+    <t>7.51</t>
+  </si>
+  <si>
     <t>12.54</t>
-  </si>
-  <si>
-    <t>7.51</t>
   </si>
   <si>
     <t>7.59</t>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3676</v>
+        <v>10836</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +889,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -1525,7 +1525,7 @@
         <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1537,10 +1537,10 @@
         <v>94</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1835,16 +1835,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -1997,16 +1997,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
@@ -2159,16 +2159,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -2321,16 +2321,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
@@ -2483,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2504,13 +2504,13 @@
         <v>45723</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>12107</v>
@@ -2666,7 +2666,7 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2807,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2828,13 +2828,13 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2907,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2969,16 +2969,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
@@ -3131,16 +3131,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -3293,16 +3293,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -3455,19 +3455,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -3476,13 +3476,13 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -3617,19 +3617,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -3638,13 +3638,13 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>104904</v>
+        <v>3821</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -3800,7 +3800,7 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="1">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4265,16 +4265,16 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
         <v>53</v>
@@ -4427,16 +4427,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -5075,16 +5075,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
         <v>53</v>
@@ -5096,7 +5096,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="1">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -5258,7 +5258,7 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="1">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -5561,16 +5561,16 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
         <v>53</v>
@@ -5649,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>45721</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5885,16 +5885,16 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
@@ -5973,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="1">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="1">
         <v>0</v>
@@ -6209,16 +6209,16 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="1">
         <v>0</v>
@@ -6371,16 +6371,16 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -6392,7 +6392,7 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA37" s="1">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D39" t="s">
         <v>49</v>
@@ -6714,7 +6714,7 @@
         <v>45761</v>
       </c>
       <c r="I39" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -6733,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="1">
         <v>0</v>
@@ -6855,16 +6855,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
         <v>53</v>
@@ -6876,7 +6876,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7017,16 +7017,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
@@ -7179,19 +7179,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>88890</v>
+        <v>2802</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7200,13 +7200,13 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42" s="1">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="1">
         <v>0</v>
@@ -7341,16 +7341,16 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
         <v>53</v>
@@ -7362,7 +7362,7 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7381,10 +7381,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA43" s="1">
         <v>0</v>
@@ -7503,17 +7503,19 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>91725431</v>
+      </c>
       <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
         <v>53</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="s">
         <v>86</v>
@@ -7522,13 +7524,13 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7682,7 +7684,7 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7823,19 +7825,17 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="1">
-        <v>91725431</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7844,13 +7844,13 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7985,16 +7985,16 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1">
         <v>68602</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
         <v>84</v>
@@ -8006,7 +8006,7 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" t="s">
@@ -8166,7 +8166,7 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -8307,19 +8307,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8328,13 +8328,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8347,10 +8347,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -8407,10 +8407,10 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AW49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="1">
         <v>0</v>
@@ -8469,19 +8469,19 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1">
-        <v>2802</v>
+        <v>5707</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8490,13 +8490,13 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="1">
         <v>0</v>
@@ -8631,19 +8631,19 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C51" s="1">
-        <v>5707</v>
+        <v>3676</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -8652,13 +8652,13 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -8677,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -8731,10 +8731,10 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,36 +87,36 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
     <t>clonazepam</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
     <t>NPP</t>
   </si>
   <si>
+    <t>tetracaine</t>
+  </si>
+  <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>tetracaine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,33 +159,33 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>43021-26-7</t>
   </si>
   <si>
@@ -201,12 +201,12 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
     <t>1622-61-3</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
     <t>86347-14-0</t>
   </si>
   <si>
@@ -216,30 +216,30 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
@@ -255,12 +255,12 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
     <t>5PE9FDE8GB</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
@@ -285,21 +285,21 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>10.45</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -309,15 +309,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>10.48</t>
+  </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>5.02</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>10.48</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -345,10 +345,10 @@
     <t>7.51</t>
   </si>
   <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>12.54</t>
-  </si>
-  <si>
-    <t>7.59</t>
   </si>
   <si>
     <t>primary</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -1039,7 +1039,7 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1051,10 +1051,10 @@
         <v>91</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1127,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="AW4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="1">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -1201,7 +1201,7 @@
         <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -1363,7 +1363,7 @@
         <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
@@ -1515,14 +1515,12 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1">
-        <v>3676</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>84</v>
@@ -1534,7 +1532,7 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1607,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="1">
         <v>0</v>
@@ -1652,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -1677,15 +1675,17 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>10836</v>
+      </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -1697,10 +1697,10 @@
         <v>94</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
@@ -1835,19 +1835,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -1997,19 +1997,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2159,19 +2159,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2321,19 +2321,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2489,10 +2489,10 @@
         <v>156346345</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2504,7 +2504,7 @@
         <v>45723</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -2807,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2969,19 +2969,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="1">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3293,19 +3293,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3455,19 +3455,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -3476,13 +3476,13 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -3617,19 +3617,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -3638,13 +3638,13 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="1">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -3800,7 +3800,7 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="1">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4427,19 +4427,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5096,7 +5096,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1">
         <v>3345</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5258,7 +5258,7 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5744,7 +5744,7 @@
         <v>45721</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5885,19 +5885,19 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>3821</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA35" s="1">
         <v>0</v>
@@ -6209,19 +6209,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="1">
         <v>0</v>
@@ -6371,19 +6371,19 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1">
         <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6392,7 +6392,7 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -6533,17 +6533,19 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3345</v>
+      </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -6552,13 +6554,13 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6571,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6631,10 +6633,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>0</v>
@@ -6693,19 +6695,17 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3345</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6714,13 +6714,13 @@
         <v>45761</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6733,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6855,19 +6855,19 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -6876,7 +6876,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7017,19 +7017,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7182,7 +7182,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>2802</v>
+        <v>91725431</v>
       </c>
       <c r="D42" t="s">
         <v>62</v>
@@ -7191,7 +7191,7 @@
         <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7200,13 +7200,13 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="1">
         <v>0</v>
@@ -7341,19 +7341,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7362,7 +7362,7 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7387,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
         <v>0</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="1">
         <v>0</v>
@@ -7503,19 +7503,19 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
-        <v>91725431</v>
+        <v>3345</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
         <v>86</v>
@@ -7524,7 +7524,7 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7543,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -7603,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -7665,17 +7665,17 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7684,7 +7684,7 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7825,17 +7825,19 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C46" s="1">
+        <v>88890</v>
+      </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7844,13 +7846,13 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7923,10 +7925,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7971,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46" s="1">
         <v>0</v>
@@ -7985,16 +7987,16 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1">
-        <v>68602</v>
+        <v>2802</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>84</v>
@@ -8006,7 +8008,7 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -8106,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47" s="1">
         <v>0</v>
@@ -8147,14 +8149,16 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3676</v>
+      </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F48" t="s">
         <v>84</v>
@@ -8166,7 +8170,7 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -8284,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48" s="1">
         <v>0</v>
@@ -8307,19 +8311,17 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3345</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8331,10 +8333,10 @@
         <v>91</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8347,10 +8349,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -8407,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -8469,19 +8471,17 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5707</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8490,13 +8490,13 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
         <v>0</v>
@@ -8631,16 +8631,16 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1">
-        <v>3676</v>
+        <v>68602</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
         <v>84</v>
@@ -8652,7 +8652,7 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,30 +87,30 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>clonazepam</t>
   </si>
   <si>
-    <t>NPP</t>
-  </si>
-  <si>
     <t>tetracaine</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,21 +159,21 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>537-46-2</t>
   </si>
   <si>
@@ -201,33 +201,33 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>1462260-87-2</t>
   </si>
   <si>
     <t>1622-61-3</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>5PE9FDE8GB</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,18 +285,18 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>10.45</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
@@ -309,15 +309,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>10.48</t>
   </si>
   <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>5.02</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -342,13 +342,13 @@
     <t>10.47</t>
   </si>
   <si>
+    <t>12.54</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>7.51</t>
-  </si>
-  <si>
-    <t>7.59</t>
-  </si>
-  <si>
-    <t>12.54</t>
   </si>
   <si>
     <t>primary</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -1029,14 +1029,12 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
-        <v>3676</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>84</v>
@@ -1121,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="1">
         <v>0</v>
@@ -1166,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="AW4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="1">
         <v>0</v>
@@ -1192,16 +1190,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1289,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1337,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1354,16 +1352,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1372,13 +1370,13 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1451,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1490,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="1">
         <v>0</v>
@@ -1499,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
@@ -1515,15 +1513,17 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>3345</v>
+      </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1532,13 +1532,13 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1605,16 +1605,16 @@
         <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="1">
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -1847,7 +1847,7 @@
         <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -2009,7 +2009,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2171,7 +2171,7 @@
         <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2333,7 +2333,7 @@
         <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2486,16 +2486,16 @@
         <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>156346345</v>
+        <v>12107</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2504,13 +2504,13 @@
         <v>45723</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2666,7 +2666,7 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2807,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2828,7 +2828,7 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2972,16 +2972,16 @@
         <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -2990,13 +2990,13 @@
         <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3143,7 +3143,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3305,7 +3305,7 @@
         <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3455,19 +3455,19 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -3476,13 +3476,13 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
@@ -3617,16 +3617,16 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="1">
         <v>0</v>
@@ -3779,16 +3779,16 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>84</v>
@@ -3941,19 +3941,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
         <v>86</v>
@@ -3962,13 +3962,13 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
         <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4286,7 +4286,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="1">
         <v>0</v>
@@ -4427,19 +4427,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5261,10 +5261,10 @@
         <v>91</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5399,19 +5399,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5423,10 +5423,10 @@
         <v>91</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5439,19 +5439,19 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5573,7 +5573,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5897,7 +5897,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1">
         <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6209,19 +6209,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
         <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6371,19 +6371,19 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
         <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6392,7 +6392,7 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -6533,19 +6533,19 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C38" s="1">
         <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -6699,10 +6699,10 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
         <v>84</v>
@@ -6855,19 +6855,19 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -6876,7 +6876,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7017,19 +7017,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7179,19 +7179,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1">
-        <v>91725431</v>
+        <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7200,7 +7200,7 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA42" s="1">
         <v>0</v>
@@ -7341,19 +7341,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7362,13 +7362,13 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7387,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
         <v>0</v>
@@ -7441,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7503,19 +7503,19 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
         <v>86</v>
@@ -7524,13 +7524,13 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7543,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -7603,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44" s="1">
         <v>0</v>
@@ -7665,17 +7665,17 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7684,13 +7684,13 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7757,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="AH45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="1">
         <v>0</v>
@@ -7825,19 +7825,17 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="1">
-        <v>88890</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7846,7 +7844,7 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -7919,16 +7917,16 @@
         <v>0</v>
       </c>
       <c r="AH46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
         <v>0</v>
@@ -7973,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="1">
         <v>0</v>
@@ -7987,19 +7985,19 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1">
-        <v>2802</v>
+        <v>5707</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>86</v>
@@ -8008,13 +8006,13 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -8033,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -8087,10 +8085,10 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -8108,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="1">
         <v>0</v>
@@ -8149,19 +8147,19 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1">
-        <v>3676</v>
+        <v>91725431</v>
       </c>
       <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
         <v>49</v>
-      </c>
-      <c r="E48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" t="s">
-        <v>84</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8170,13 +8168,13 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -8288,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="1">
         <v>0</v>
@@ -8311,17 +8309,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3345</v>
+      </c>
       <c r="D49" t="s">
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8330,13 +8330,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8349,10 +8349,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -8409,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -8473,12 +8473,14 @@
       <c r="B50" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1">
+        <v>2802</v>
+      </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
         <v>84</v>
@@ -8590,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR50" s="1">
         <v>0</v>
@@ -8633,14 +8635,12 @@
       <c r="B51" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="1">
-        <v>68602</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
         <v>84</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,39 +87,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
+    <t>tetracaine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>NPP</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>clonazepam</t>
-  </si>
-  <si>
-    <t>tetracaine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,36 +159,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -201,48 +201,48 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>1622-61-3</t>
+  </si>
+  <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
-    <t>1622-61-3</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>5PE9FDE8GB</t>
+  </si>
+  <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
-    <t>5PE9FDE8GB</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,21 +285,21 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>4.75</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>10.45</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -309,15 +309,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>10.48</t>
+  </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>5.02</t>
   </si>
   <si>
-    <t>10.48</t>
-  </si>
-  <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -342,13 +342,13 @@
     <t>10.47</t>
   </si>
   <si>
+    <t>7.59</t>
+  </si>
+  <si>
+    <t>7.51</t>
+  </si>
+  <si>
     <t>12.54</t>
-  </si>
-  <si>
-    <t>7.59</t>
-  </si>
-  <si>
-    <t>7.51</t>
   </si>
   <si>
     <t>primary</t>
@@ -715,7 +715,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -868,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>66924</v>
+        <v>3676</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +889,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1029,15 +1029,17 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>3345</v>
+      </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1049,10 +1051,10 @@
         <v>91</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1065,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1119,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1242,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -1287,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1335,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1352,16 +1354,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1370,13 +1372,13 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1449,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1488,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="1">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
@@ -1514,16 +1516,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1532,7 +1534,7 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1551,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1611,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -1675,17 +1677,15 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>10836</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -1694,13 +1694,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
@@ -1835,19 +1835,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -1997,19 +1997,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2159,19 +2159,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2321,19 +2321,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2483,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="1">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -2807,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2907,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         <v>156346345</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>84</v>
@@ -2990,7 +2990,7 @@
         <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3293,19 +3293,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -3476,7 +3476,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
@@ -3617,19 +3617,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -3638,13 +3638,13 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3779,16 +3779,16 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
         <v>84</v>
@@ -3800,7 +3800,7 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3941,19 +3941,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
         <v>86</v>
@@ -3962,13 +3962,13 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="1">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
         <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4124,7 +4124,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
@@ -4265,19 +4265,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4286,7 +4286,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="1">
         <v>0</v>
@@ -4427,19 +4427,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4448,7 +4448,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4763,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4925,7 +4925,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5075,19 +5075,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
         <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5096,7 +5096,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="1">
         <v>0</v>
@@ -5237,19 +5237,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5258,13 +5258,13 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30" s="1">
         <v>0</v>
@@ -5399,19 +5399,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5420,13 +5420,13 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5439,19 +5439,19 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5573,7 +5573,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5723,19 +5723,19 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>86</v>
@@ -5744,13 +5744,13 @@
         <v>45721</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33" s="1">
         <v>0</v>
@@ -5885,19 +5885,19 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -5906,13 +5906,13 @@
         <v>45721</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -5973,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
         <v>0</v>
@@ -6047,19 +6047,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6068,7 +6068,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="1">
         <v>0</v>
@@ -6209,19 +6209,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
         <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6230,7 +6230,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6249,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="1">
         <v>0</v>
@@ -6371,19 +6371,17 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="1">
-        <v>88890</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6392,13 +6390,13 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6471,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -6519,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="1">
         <v>0</v>
@@ -6533,19 +6531,19 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
         <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -6554,7 +6552,7 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -6573,10 +6571,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6681,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA38" s="1">
         <v>0</v>
@@ -6695,17 +6693,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3345</v>
+      </c>
       <c r="D39" t="s">
         <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6714,13 +6714,13 @@
         <v>45761</v>
       </c>
       <c r="I39" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6733,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6855,19 +6855,19 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -6876,7 +6876,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6895,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="1">
         <v>0</v>
@@ -7017,19 +7017,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
         <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7038,7 +7038,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA41" s="1">
         <v>0</v>
@@ -7179,19 +7179,19 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1">
         <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7200,7 +7200,7 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7341,19 +7341,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1">
-        <v>68602</v>
+        <v>3345</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7365,10 +7365,10 @@
         <v>91</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7381,10 +7381,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -7441,10 +7441,10 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7503,16 +7503,14 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3676</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
@@ -7524,7 +7522,7 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -7642,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="1">
         <v>0</v>
@@ -7665,17 +7663,19 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5707</v>
+      </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7684,13 +7684,13 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7709,10 +7709,10 @@
         <v>0</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="1">
         <v>0</v>
@@ -7763,10 +7763,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="1">
         <v>0</v>
@@ -7825,17 +7825,19 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2802</v>
+      </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7844,13 +7846,13 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7917,10 +7919,10 @@
         <v>0</v>
       </c>
       <c r="AH46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="1">
         <v>0</v>
@@ -7944,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR46" s="1">
         <v>0</v>
@@ -7985,19 +7987,17 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5707</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s">
         <v>86</v>
@@ -8006,13 +8006,13 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -8031,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -8085,10 +8085,10 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1">
         <v>91725431</v>
@@ -8159,7 +8159,7 @@
         <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8168,7 +8168,7 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8309,19 +8309,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8330,13 +8330,13 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8349,10 +8349,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -8409,10 +8409,10 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="AW49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49" s="1">
         <v>0</v>
@@ -8471,10 +8471,10 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1">
-        <v>2802</v>
+        <v>68602</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
@@ -8492,7 +8492,7 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="1">
         <v>0</v>
@@ -8633,17 +8633,17 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -8652,13 +8652,13 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="AH51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="404" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="405" uniqueCount="157">
   <si>
     <t>sampleid</t>
   </si>
@@ -87,39 +87,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>ketamine</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>tetracaine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
     <t>NPP</t>
   </si>
   <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>clonazepam</t>
   </si>
   <si>
-    <t>tetracaine</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,36 +159,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -201,48 +201,48 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>1622-61-3</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>unii</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>5PE9FDE8GB</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>abundance</t>
   </si>
   <si>
@@ -285,21 +285,21 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>10.45</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -309,12 +309,12 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>10.48</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>5.02</t>
   </si>
   <si>
@@ -342,15 +342,15 @@
     <t>10.47</t>
   </si>
   <si>
+    <t>12.54</t>
+  </si>
+  <si>
+    <t>7.51</t>
+  </si>
+  <si>
     <t>7.59</t>
   </si>
   <si>
-    <t>7.51</t>
-  </si>
-  <si>
-    <t>12.54</t>
-  </si>
-  <si>
     <t>primary</t>
   </si>
   <si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>confirmatory</t>
+  </si>
+  <si>
+    <t>revert</t>
   </si>
   <si>
     <t>lab_fentanyl</t>
@@ -528,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB51"/>
+  <dimension ref="A1:BC51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,6 +700,9 @@
       <c r="BB1" t="s">
         <v>155</v>
       </c>
+      <c r="BC1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -742,9 +748,7 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1">
         <v>0</v>
       </c>
@@ -764,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1">
         <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
         <v>0</v>
@@ -857,6 +861,9 @@
         <v>0</v>
       </c>
       <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -868,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -877,7 +884,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -889,10 +896,10 @@
         <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -904,14 +911,12 @@
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -968,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1004,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1019,6 +1024,9 @@
         <v>0</v>
       </c>
       <c r="BB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1030,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -1066,11 +1074,9 @@
       <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1127,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1181,6 +1187,9 @@
         <v>0</v>
       </c>
       <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1192,7 +1201,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -1228,9 +1237,7 @@
       <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
@@ -1244,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -1292,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1340,9 +1347,12 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1354,7 +1364,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -1363,7 +1373,7 @@
         <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1375,10 +1385,10 @@
         <v>93</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1390,9 +1400,7 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1">
         <v>0</v>
       </c>
@@ -1451,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -1493,18 +1501,21 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
       </c>
       <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1516,7 +1527,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -1552,9 +1563,7 @@
       <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
@@ -1571,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -1667,6 +1676,9 @@
         <v>0</v>
       </c>
       <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1694,7 +1706,7 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1712,9 +1724,7 @@
       <c r="O8" s="1">
         <v>0</v>
       </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
@@ -1767,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
@@ -1827,6 +1837,9 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1835,16 +1848,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -1874,9 +1887,7 @@
       <c r="O9" s="1">
         <v>0</v>
       </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
@@ -1890,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
         <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
@@ -1989,6 +2000,9 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1997,16 +2011,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
@@ -2036,9 +2050,7 @@
       <c r="O10" s="1">
         <v>0</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1">
         <v>0</v>
       </c>
@@ -2052,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
         <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -2151,6 +2163,9 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2159,16 +2174,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -2198,9 +2213,7 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
@@ -2214,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
@@ -2313,6 +2326,9 @@
         <v>0</v>
       </c>
       <c r="BB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2321,16 +2337,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
@@ -2360,9 +2376,7 @@
       <c r="O12" s="1">
         <v>0</v>
       </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1">
         <v>0</v>
       </c>
@@ -2376,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
         <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
@@ -2475,6 +2489,9 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2483,19 +2500,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2504,13 +2521,13 @@
         <v>45723</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2522,11 +2539,9 @@
       <c r="O13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2583,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -2634,9 +2649,12 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2645,16 +2663,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
@@ -2666,7 +2684,7 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2684,9 +2702,7 @@
       <c r="O14" s="1">
         <v>0</v>
       </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1">
         <v>0</v>
       </c>
@@ -2745,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1">
         <v>1</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2793,12 +2809,15 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2807,16 +2826,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
         <v>53</v>
@@ -2828,7 +2847,7 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2846,14 +2865,12 @@
       <c r="O15" s="1">
         <v>0</v>
       </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -2910,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -2955,12 +2972,15 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="1">
         <v>0</v>
       </c>
       <c r="BB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2972,16 +2992,16 @@
         <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>156346345</v>
+        <v>12107</v>
       </c>
       <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -2990,13 +3010,13 @@
         <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3008,9 +3028,7 @@
       <c r="O16" s="1">
         <v>0</v>
       </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1">
         <v>0</v>
       </c>
@@ -3117,12 +3135,15 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3131,16 +3152,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -3170,9 +3191,7 @@
       <c r="O17" s="1">
         <v>0</v>
       </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1">
         <v>0</v>
       </c>
@@ -3186,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
         <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1">
         <v>0</v>
@@ -3285,6 +3304,9 @@
         <v>0</v>
       </c>
       <c r="BB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3293,16 +3315,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -3332,9 +3354,7 @@
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1">
         <v>0</v>
       </c>
@@ -3348,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1">
         <v>0</v>
@@ -3447,6 +3467,9 @@
         <v>0</v>
       </c>
       <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3458,7 +3481,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -3476,7 +3499,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3494,9 +3517,7 @@
       <c r="O19" s="1">
         <v>0</v>
       </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1">
         <v>0</v>
       </c>
@@ -3609,6 +3630,9 @@
         <v>0</v>
       </c>
       <c r="BB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3617,19 +3641,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -3638,13 +3662,13 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3656,9 +3680,7 @@
       <c r="O20" s="1">
         <v>0</v>
       </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1">
         <v>0</v>
       </c>
@@ -3678,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -3708,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -3771,6 +3793,9 @@
         <v>0</v>
       </c>
       <c r="BB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3779,19 +3804,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -3800,13 +3825,13 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3818,9 +3843,7 @@
       <c r="O21" s="1">
         <v>0</v>
       </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1">
         <v>0</v>
       </c>
@@ -3843,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
@@ -3933,6 +3956,9 @@
         <v>0</v>
       </c>
       <c r="BB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3944,7 +3970,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D22" t="s">
         <v>57</v>
@@ -3962,7 +3988,7 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3980,9 +4006,7 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
@@ -4029,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="1">
         <v>0</v>
@@ -4095,6 +4119,9 @@
         <v>0</v>
       </c>
       <c r="BB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4103,16 +4130,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
@@ -4124,7 +4151,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4142,14 +4169,12 @@
       <c r="O23" s="1">
         <v>0</v>
       </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
+      <c r="P23" s="1"/>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -4203,13 +4228,13 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1">
         <v>1</v>
       </c>
       <c r="AL23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -4251,12 +4276,15 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
       </c>
       <c r="BB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4265,16 +4293,16 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>53</v>
@@ -4286,7 +4314,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4304,11 +4332,9 @@
       <c r="O24" s="1">
         <v>0</v>
       </c>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -4365,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="1">
         <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4416,9 +4442,12 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4427,16 +4456,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
@@ -4448,7 +4477,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4466,14 +4495,12 @@
       <c r="O25" s="1">
         <v>0</v>
       </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
+      <c r="P25" s="1"/>
       <c r="Q25" s="1">
         <v>1</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -4527,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="1">
         <v>1</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4581,6 +4608,9 @@
         <v>0</v>
       </c>
       <c r="BB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4628,9 +4658,7 @@
       <c r="O26" s="1">
         <v>0</v>
       </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
+      <c r="P26" s="1"/>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
@@ -4743,6 +4771,9 @@
         <v>0</v>
       </c>
       <c r="BB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4790,9 +4821,7 @@
       <c r="O27" s="1">
         <v>0</v>
       </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
+      <c r="P27" s="1"/>
       <c r="Q27" s="1">
         <v>0</v>
       </c>
@@ -4905,6 +4934,9 @@
         <v>0</v>
       </c>
       <c r="BB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4952,9 +4984,7 @@
       <c r="O28" s="1">
         <v>0</v>
       </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1">
         <v>0</v>
       </c>
@@ -5067,6 +5097,9 @@
         <v>0</v>
       </c>
       <c r="BB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5075,16 +5108,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
         <v>53</v>
@@ -5096,7 +5129,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5114,11 +5147,9 @@
       <c r="O29" s="1">
         <v>0</v>
       </c>
-      <c r="P29" s="1">
-        <v>1</v>
-      </c>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -5175,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
       </c>
       <c r="AL29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5226,9 +5257,12 @@
         <v>0</v>
       </c>
       <c r="BA29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5237,19 +5271,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5258,13 +5292,13 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5276,9 +5310,7 @@
       <c r="O30" s="1">
         <v>0</v>
       </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
+      <c r="P30" s="1"/>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
@@ -5289,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="1">
         <v>0</v>
@@ -5337,13 +5369,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5385,12 +5417,15 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="1">
         <v>0</v>
       </c>
       <c r="BB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5399,19 +5434,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5420,13 +5455,13 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5438,20 +5473,18 @@
       <c r="O31" s="1">
         <v>0</v>
       </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -5505,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="AL31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5553,6 +5586,9 @@
         <v>0</v>
       </c>
       <c r="BB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5600,9 +5636,7 @@
       <c r="O32" s="1">
         <v>0</v>
       </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
+      <c r="P32" s="1"/>
       <c r="Q32" s="1">
         <v>0</v>
       </c>
@@ -5715,6 +5749,9 @@
         <v>0</v>
       </c>
       <c r="BB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5723,16 +5760,16 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>3821</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
@@ -5762,9 +5799,7 @@
       <c r="O33" s="1">
         <v>0</v>
       </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
+      <c r="P33" s="1"/>
       <c r="Q33" s="1">
         <v>0</v>
       </c>
@@ -5811,13 +5846,13 @@
         <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1">
         <v>1</v>
       </c>
       <c r="AH33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" s="1">
         <v>0</v>
@@ -5877,6 +5912,9 @@
         <v>0</v>
       </c>
       <c r="BB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5906,7 +5944,7 @@
         <v>45721</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -5924,9 +5962,7 @@
       <c r="O34" s="1">
         <v>0</v>
       </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
+      <c r="P34" s="1"/>
       <c r="Q34" s="1">
         <v>0</v>
       </c>
@@ -6039,6 +6075,9 @@
         <v>0</v>
       </c>
       <c r="BB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6047,16 +6086,16 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>53</v>
@@ -6068,7 +6107,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6086,11 +6125,9 @@
       <c r="O35" s="1">
         <v>0</v>
       </c>
-      <c r="P35" s="1">
-        <v>1</v>
-      </c>
+      <c r="P35" s="1"/>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6147,13 +6184,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="1">
         <v>1</v>
       </c>
       <c r="AL35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6198,9 +6235,12 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6209,16 +6249,16 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -6230,7 +6270,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6248,14 +6288,12 @@
       <c r="O36" s="1">
         <v>0</v>
       </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
+      <c r="P36" s="1"/>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -6309,13 +6347,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="1">
         <v>1</v>
       </c>
       <c r="AL36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6357,12 +6395,15 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="1">
         <v>0</v>
       </c>
       <c r="BB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6371,17 +6412,19 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3345</v>
+      </c>
       <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
         <v>53</v>
-      </c>
-      <c r="E37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" t="s">
-        <v>84</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6390,13 +6433,13 @@
         <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6408,14 +6451,12 @@
       <c r="O37" s="1">
         <v>0</v>
       </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
+      <c r="P37" s="1"/>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="1">
         <v>0</v>
@@ -6472,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6523,6 +6564,9 @@
         <v>0</v>
       </c>
       <c r="BB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6531,16 +6575,16 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1">
         <v>88890</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
         <v>53</v>
@@ -6552,7 +6596,7 @@
         <v>45761</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -6570,9 +6614,7 @@
       <c r="O38" s="1">
         <v>0</v>
       </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
+      <c r="P38" s="1"/>
       <c r="Q38" s="1">
         <v>0</v>
       </c>
@@ -6631,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="1">
         <v>1</v>
       </c>
       <c r="AL38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -6679,12 +6721,15 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6693,19 +6738,17 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3345</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6714,13 +6757,13 @@
         <v>45761</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6732,11 +6775,9 @@
       <c r="O39" s="1">
         <v>0</v>
       </c>
-      <c r="P39" s="1">
-        <v>1</v>
-      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6793,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>0</v>
@@ -6847,6 +6888,9 @@
         <v>0</v>
       </c>
       <c r="BB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6855,16 +6899,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
         <v>53</v>
@@ -6876,7 +6920,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6894,11 +6938,9 @@
       <c r="O40" s="1">
         <v>0</v>
       </c>
-      <c r="P40" s="1">
-        <v>1</v>
-      </c>
+      <c r="P40" s="1"/>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -6955,13 +6997,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="1">
         <v>1</v>
       </c>
       <c r="AL40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7006,9 +7048,12 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7017,16 +7062,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
@@ -7038,7 +7083,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7056,14 +7101,12 @@
       <c r="O41" s="1">
         <v>0</v>
       </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -7117,13 +7160,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="1">
         <v>1</v>
       </c>
       <c r="AL41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7165,12 +7208,15 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="1">
         <v>0</v>
       </c>
       <c r="BB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7179,19 +7225,17 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="1">
-        <v>88890</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
         <v>86</v>
@@ -7203,10 +7247,10 @@
         <v>93</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7218,9 +7262,7 @@
       <c r="O42" s="1">
         <v>0</v>
       </c>
-      <c r="P42" s="1">
-        <v>0</v>
-      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="1">
         <v>0</v>
       </c>
@@ -7279,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
         <v>0</v>
@@ -7327,12 +7369,15 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="1">
         <v>0</v>
       </c>
       <c r="BB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7341,16 +7386,14 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3345</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
         <v>53</v>
@@ -7362,7 +7405,7 @@
         <v>45762</v>
       </c>
       <c r="I43" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7380,11 +7423,9 @@
       <c r="O43" s="1">
         <v>0</v>
       </c>
-      <c r="P43" s="1">
-        <v>1</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
         <v>0</v>
@@ -7438,13 +7479,13 @@
         <v>0</v>
       </c>
       <c r="AI43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="1">
         <v>1</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
         <v>0</v>
@@ -7495,6 +7536,9 @@
         <v>0</v>
       </c>
       <c r="BB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7503,17 +7547,19 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3345</v>
+      </c>
       <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
         <v>53</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="s">
         <v>86</v>
@@ -7525,10 +7571,10 @@
         <v>90</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7540,14 +7586,12 @@
       <c r="O44" s="1">
         <v>0</v>
       </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -7604,10 +7648,10 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -7655,6 +7699,9 @@
         <v>0</v>
       </c>
       <c r="BB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7663,16 +7710,16 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>5707</v>
+        <v>91725431</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
         <v>53</v>
@@ -7684,7 +7731,7 @@
         <v>45762</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7702,17 +7749,15 @@
       <c r="O45" s="1">
         <v>0</v>
       </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="1">
         <v>0</v>
       </c>
       <c r="R45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="1">
         <v>0</v>
@@ -7763,10 +7808,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="1">
         <v>0</v>
@@ -7817,6 +7862,9 @@
         <v>0</v>
       </c>
       <c r="BB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7825,16 +7873,14 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2802</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
         <v>84</v>
@@ -7846,7 +7892,7 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
@@ -7864,9 +7910,7 @@
       <c r="O46" s="1">
         <v>0</v>
       </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="1">
         <v>0</v>
       </c>
@@ -7946,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="1">
         <v>0</v>
@@ -7979,6 +8023,9 @@
         <v>0</v>
       </c>
       <c r="BB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7987,14 +8034,16 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>68602</v>
+      </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>84</v>
@@ -8006,7 +8055,7 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -8024,9 +8073,7 @@
       <c r="O47" s="1">
         <v>0</v>
       </c>
-      <c r="P47" s="1">
-        <v>0</v>
-      </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="1">
         <v>0</v>
       </c>
@@ -8139,6 +8186,9 @@
         <v>0</v>
       </c>
       <c r="BB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8147,19 +8197,19 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1">
-        <v>91725431</v>
+        <v>3676</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
         <v>86</v>
@@ -8168,13 +8218,13 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
@@ -8186,9 +8236,7 @@
       <c r="O48" s="1">
         <v>0</v>
       </c>
-      <c r="P48" s="1">
-        <v>0</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="1">
         <v>0</v>
       </c>
@@ -8289,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY48" s="1">
         <v>0</v>
@@ -8301,6 +8349,9 @@
         <v>0</v>
       </c>
       <c r="BB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8309,16 +8360,16 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1">
-        <v>3676</v>
+        <v>2802</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
         <v>84</v>
@@ -8330,7 +8381,7 @@
         <v>45762</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
@@ -8348,9 +8399,7 @@
       <c r="O49" s="1">
         <v>0</v>
       </c>
-      <c r="P49" s="1">
-        <v>0</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="1">
         <v>0</v>
       </c>
@@ -8433,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AR49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS49" s="1">
         <v>0</v>
@@ -8448,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="AW49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="1">
         <v>0</v>
@@ -8463,6 +8512,9 @@
         <v>0</v>
       </c>
       <c r="BB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8471,19 +8523,19 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C50" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8492,13 +8544,13 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8510,9 +8562,7 @@
       <c r="O50" s="1">
         <v>0</v>
       </c>
-      <c r="P50" s="1">
-        <v>0</v>
-      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="1">
         <v>0</v>
       </c>
@@ -8574,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -8622,9 +8672,12 @@
         <v>0</v>
       </c>
       <c r="BA50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC50" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8633,14 +8686,16 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5707</v>
+      </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s">
         <v>53</v>
@@ -8670,9 +8725,7 @@
       <c r="O51" s="1">
         <v>0</v>
       </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="1">
         <v>0</v>
       </c>
@@ -8680,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="S51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="1">
         <v>0</v>
@@ -8725,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="AH51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="1">
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -8785,6 +8838,9 @@
         <v>0</v>
       </c>
       <c r="BB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="1">
         <v>0</v>
       </c>
     </row>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -87,28 +87,31 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>ecgonine methylester (EME)</t>
@@ -117,9 +120,6 @@
     <t>ketamine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
@@ -135,21 +135,21 @@
     <t>erythritol</t>
   </si>
   <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
     <t>tetracaine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>NPP</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>clonazepam</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,36 +159,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -201,12 +201,12 @@
     <t>67-71-0</t>
   </si>
   <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>1462260-87-2</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>1622-61-3</t>
   </si>
   <si>
@@ -216,33 +216,33 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -255,12 +255,12 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>5PE9FDE8GB</t>
   </si>
   <si>
@@ -285,21 +285,21 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>10.45</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
@@ -309,15 +309,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>10.48</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>10.48</t>
-  </si>
-  <si>
-    <t>5.02</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -342,13 +342,13 @@
     <t>10.47</t>
   </si>
   <si>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>12.54</t>
-  </si>
-  <si>
-    <t>7.51</t>
-  </si>
-  <si>
-    <t>7.59</t>
   </si>
   <si>
     <t>primary</t>
@@ -721,7 +721,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -875,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -884,7 +884,7 @@
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -913,10 +913,10 @@
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>86</v>
@@ -1200,17 +1200,15 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
-        <v>88890</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
         <v>86</v>
@@ -1222,10 +1220,10 @@
         <v>92</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1293,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1347,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1364,16 +1362,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1385,10 +1383,10 @@
         <v>93</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1462,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1501,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1510,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1527,16 +1525,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>10836</v>
+        <v>3676</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>86</v>
@@ -1545,13 +1543,13 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1580,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -1664,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1689,15 +1687,17 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>3345</v>
+      </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
@@ -1706,13 +1706,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1726,10 +1726,10 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -1848,19 +1848,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -2011,19 +2011,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
         <v>86</v>
@@ -2174,19 +2174,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>10836</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -2337,19 +2337,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>10836</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>86</v>
@@ -2500,19 +2500,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>86</v>
@@ -2521,13 +2521,13 @@
         <v>45723</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2541,10 +2541,10 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2663,19 +2663,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -2684,7 +2684,7 @@
         <v>45723</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2826,19 +2826,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -2847,7 +2847,7 @@
         <v>45723</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2867,10 +2867,10 @@
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2992,16 +2992,16 @@
         <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -3010,13 +3010,13 @@
         <v>45723</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3152,19 +3152,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>10836</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>86</v>
@@ -3315,19 +3315,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -3481,7 +3481,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -3499,7 +3499,7 @@
         <v>45721</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -3662,7 +3662,7 @@
         <v>45721</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="1">
         <v>0</v>
@@ -3804,19 +3804,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
         <v>86</v>
@@ -3825,13 +3825,13 @@
         <v>45721</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -3967,19 +3967,19 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
         <v>86</v>
@@ -3988,13 +3988,13 @@
         <v>45721</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="1">
         <v>0</v>
@@ -4130,19 +4130,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
         <v>86</v>
@@ -4151,7 +4151,7 @@
         <v>45761</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4171,10 +4171,10 @@
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="1">
         <v>0</v>
@@ -4293,19 +4293,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
         <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>86</v>
@@ -4314,7 +4314,7 @@
         <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4334,10 +4334,10 @@
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4456,19 +4456,19 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>86</v>
@@ -4477,7 +4477,7 @@
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
         <v>86</v>
@@ -4794,7 +4794,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
         <v>86</v>
@@ -4957,7 +4957,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
         <v>86</v>
@@ -5108,19 +5108,19 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
         <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
         <v>86</v>
@@ -5129,7 +5129,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5271,19 +5271,19 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
         <v>86</v>
@@ -5292,13 +5292,13 @@
         <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5312,19 +5312,19 @@
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="1">
         <v>0</v>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>1</v>
@@ -5434,19 +5434,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
         <v>86</v>
@@ -5455,13 +5455,13 @@
         <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5475,19 +5475,19 @@
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="1">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <v>1</v>
@@ -5597,19 +5597,19 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
         <v>86</v>
@@ -5618,13 +5618,13 @@
         <v>45721</v>
       </c>
       <c r="I32" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5760,19 +5760,19 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
         <v>86</v>
@@ -5781,7 +5781,7 @@
         <v>45721</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5849,10 +5849,10 @@
         <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="1">
         <v>0</v>
@@ -5923,19 +5923,19 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
@@ -5944,13 +5944,13 @@
         <v>45721</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6012,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" s="1">
         <v>0</v>
@@ -6086,19 +6086,19 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
         <v>50</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>53</v>
       </c>
       <c r="G35" t="s">
         <v>86</v>
@@ -6107,7 +6107,7 @@
         <v>45761</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6127,10 +6127,10 @@
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="1">
         <v>0</v>
@@ -6249,19 +6249,19 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
         <v>86</v>
@@ -6270,7 +6270,7 @@
         <v>45761</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6290,10 +6290,10 @@
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="1">
         <v>0</v>
@@ -6412,19 +6412,19 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
         <v>3345</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
         <v>86</v>
@@ -6575,19 +6575,17 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="1">
-        <v>88890</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" t="s">
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
         <v>86</v>
@@ -6599,10 +6597,10 @@
         <v>92</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6676,10 +6674,10 @@
         <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -6724,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="1">
         <v>0</v>
@@ -6738,17 +6736,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C39" s="1">
+        <v>88890</v>
+      </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
@@ -6760,10 +6760,10 @@
         <v>93</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6837,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB39" s="1">
         <v>0</v>
@@ -6899,19 +6899,19 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
         <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
         <v>86</v>
@@ -6920,7 +6920,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7062,19 +7062,19 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -7227,12 +7227,14 @@
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1">
+        <v>68602</v>
+      </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
         <v>84</v>
@@ -7244,7 +7246,7 @@
         <v>45762</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -7386,17 +7388,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1">
+        <v>91725431</v>
+      </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
         <v>86</v>
@@ -7479,10 +7483,10 @@
         <v>0</v>
       </c>
       <c r="AI43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="1">
         <v>0</v>
@@ -7547,19 +7551,17 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3345</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
         <v>86</v>
@@ -7568,13 +7570,13 @@
         <v>45762</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7588,10 +7590,10 @@
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -7648,10 +7650,10 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -7710,19 +7712,19 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>91725431</v>
+        <v>5707</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
         <v>86</v>
@@ -7757,10 +7759,10 @@
         <v>0</v>
       </c>
       <c r="S45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="1">
         <v>0</v>
@@ -7811,10 +7813,10 @@
         <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -7873,17 +7875,17 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
         <v>86</v>
@@ -7892,13 +7894,13 @@
         <v>45762</v>
       </c>
       <c r="I46" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -7966,10 +7968,10 @@
         <v>0</v>
       </c>
       <c r="AI46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46" s="1">
         <v>0</v>
@@ -8034,16 +8036,16 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
-        <v>68602</v>
+        <v>3676</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
         <v>84</v>
@@ -8055,7 +8057,7 @@
         <v>45762</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -8174,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8197,16 +8199,16 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1">
-        <v>3676</v>
+        <v>2802</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
         <v>84</v>
@@ -8218,7 +8220,7 @@
         <v>45762</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -8319,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="AR48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS48" s="1">
         <v>0</v>
@@ -8337,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="1">
         <v>0</v>
@@ -8360,19 +8362,19 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1">
-        <v>2802</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
         <v>86</v>
@@ -8384,10 +8386,10 @@
         <v>93</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
@@ -8461,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -8482,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="AR49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="1">
         <v>0</v>
@@ -8509,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="1">
         <v>0</v>
@@ -8523,19 +8525,19 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C50" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s">
         <v>50</v>
-      </c>
-      <c r="E50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" t="s">
-        <v>53</v>
       </c>
       <c r="G50" t="s">
         <v>86</v>
@@ -8544,7 +8546,7 @@
         <v>45762</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8564,10 +8566,10 @@
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="1">
         <v>0</v>
@@ -8672,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="BA50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="1">
         <v>0</v>
@@ -8686,19 +8688,17 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="1">
-        <v>5707</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
         <v>86</v>
@@ -8707,13 +8707,13 @@
         <v>45762</v>
       </c>
       <c r="I51" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -8733,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="S51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="1">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="405" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="643" uniqueCount="184">
   <si>
     <t>sampleid</t>
   </si>
@@ -30,9 +30,15 @@
     <t>900121</t>
   </si>
   <si>
+    <t>900135</t>
+  </si>
+  <si>
     <t>900138</t>
   </si>
   <si>
+    <t>900143</t>
+  </si>
+  <si>
     <t>900146</t>
   </si>
   <si>
@@ -42,15 +48,24 @@
     <t>900151</t>
   </si>
   <si>
+    <t>900154</t>
+  </si>
+  <si>
     <t>900165</t>
   </si>
   <si>
+    <t>900174</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
     <t>900185</t>
   </si>
   <si>
+    <t>900198</t>
+  </si>
+  <si>
     <t>900200</t>
   </si>
   <si>
@@ -60,6 +75,9 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900227</t>
+  </si>
+  <si>
     <t>900231</t>
   </si>
   <si>
@@ -69,6 +87,12 @@
     <t>900245</t>
   </si>
   <si>
+    <t>900246</t>
+  </si>
+  <si>
+    <t>900263</t>
+  </si>
+  <si>
     <t>900264</t>
   </si>
   <si>
@@ -87,30 +111,48 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>erythritol</t>
+  </si>
+  <si>
+    <t>ethyl-4-ANPP</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
@@ -120,24 +162,15 @@
     <t>ketamine</t>
   </si>
   <si>
+    <t>tetracaine</t>
+  </si>
+  <si>
     <t>MDA</t>
   </si>
   <si>
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>erythritol</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
@@ -147,9 +180,6 @@
     <t>clonazepam</t>
   </si>
   <si>
-    <t>tetracaine</t>
-  </si>
-  <si>
     <t>pubchemcid</t>
   </si>
   <si>
@@ -159,22 +189,34 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>103-90-2</t>
   </si>
   <si>
     <t>620-71-3</t>
@@ -195,15 +237,6 @@
     <t>61-50-7</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>1462260-87-2</t>
   </si>
   <si>
@@ -216,19 +249,31 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
     <t>98PI200987</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
@@ -249,15 +294,6 @@
     <t>WUB601BHAA</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
@@ -285,45 +321,84 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>10.45</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
     <t>4.52</t>
   </si>
   <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>6.41</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>4.47</t>
+  </si>
+  <si>
     <t>4.31</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>10.48</t>
   </si>
   <si>
     <t>5.02</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
     <t>10.46</t>
   </si>
   <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>10.44</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>8.39</t>
+  </si>
+  <si>
     <t>5.62</t>
   </si>
   <si>
@@ -333,22 +408,28 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>7.21</t>
+  </si>
+  <si>
     <t>2.38</t>
   </si>
   <si>
-    <t>7.21</t>
+    <t>10.42</t>
+  </si>
+  <si>
+    <t>7.5</t>
   </si>
   <si>
     <t>10.47</t>
   </si>
   <si>
+    <t>12.54</t>
+  </si>
+  <si>
     <t>7.51</t>
   </si>
   <si>
     <t>7.59</t>
-  </si>
-  <si>
-    <t>12.54</t>
   </si>
   <si>
     <t>primary</t>
@@ -531,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC51"/>
+  <dimension ref="A1:BC85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -542,166 +623,166 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="Q1" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="R1" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="S1" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="T1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="U1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="V1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="W1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="X1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="Y1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="Z1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AA1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AB1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="AC1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AD1" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AE1" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AF1" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AG1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="AH1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="AI1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="AJ1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="AK1" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="AL1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="AM1" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="AN1" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AO1" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="AP1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AQ1" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="AR1" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AS1" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="AT1" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="AU1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="AV1" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AW1" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="AX1" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="AY1" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="AZ1" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="BA1" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="BB1" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="BC1" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
@@ -709,28 +790,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>446220</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2">
         <v>45721</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -872,28 +953,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2">
         <v>45762</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -928,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -973,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1021,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1035,28 +1116,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>66924</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2">
         <v>45762</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1198,32 +1279,34 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3345</v>
+      </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2">
         <v>45762</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1237,10 +1320,10 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1291,16 +1374,16 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1359,34 +1442,32 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1">
-        <v>88890</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2">
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1454,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1508,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1522,34 +1603,34 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>3676</v>
+        <v>10836</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2">
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1578,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -1662,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1685,34 +1766,34 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2">
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1726,10 +1807,10 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1786,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -1825,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
@@ -1848,28 +1929,28 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2">
         <v>45761</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -2011,28 +2092,28 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2">
         <v>45761</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -2174,28 +2255,28 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H11" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2205,10 +2286,10 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -2230,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
@@ -2334,44 +2415,44 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
-        <v>10836</v>
+        <v>68602</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H12" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
@@ -2393,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
@@ -2497,63 +2578,63 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H13" s="2">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -2601,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2660,31 +2741,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
-        <v>12107</v>
+        <v>1983</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H14" s="2">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2694,10 +2775,10 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
@@ -2812,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2823,31 +2904,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2857,20 +2938,20 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -2975,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -2986,44 +3067,44 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
-        <v>156346345</v>
+        <v>3676</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
@@ -3129,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3138,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -3149,44 +3230,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1">
-        <v>10836</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H17" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
@@ -3208,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1">
         <v>0</v>
@@ -3256,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3301,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3312,31 +3393,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H18" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3346,10 +3427,10 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -3475,31 +3556,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3509,10 +3590,10 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
@@ -3543,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
@@ -3638,31 +3719,29 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1">
-        <v>104904</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3672,10 +3751,10 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
@@ -3736,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="1">
         <v>0</v>
@@ -3801,41 +3880,41 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1">
-        <v>3821</v>
+        <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H21" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
@@ -3860,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="1">
         <v>0</v>
@@ -3893,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="1">
         <v>0</v>
@@ -3964,31 +4043,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H22" s="2">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -3998,20 +4077,20 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -4029,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>0</v>
@@ -4068,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4127,31 +4206,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
         <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H23" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4161,10 +4240,10 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" s="1">
         <v>0</v>
@@ -4290,31 +4369,29 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H24" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4324,20 +4401,20 @@
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -4394,10 +4471,10 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4453,31 +4530,31 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H25" s="2">
         <v>45761</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4497,10 +4574,10 @@
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -4512,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -4557,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4616,44 +4693,44 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
-        <v>1614</v>
+        <v>156346345</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H26" s="2">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" s="1">
         <v>0</v>
@@ -4768,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4779,31 +4856,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
-        <v>6089</v>
+        <v>88890</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H27" s="2">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -4813,10 +4890,10 @@
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27" s="1">
         <v>0</v>
@@ -4883,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27" s="1">
         <v>0</v>
@@ -4931,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -4942,31 +5019,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
-        <v>1614</v>
+        <v>3345</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H28" s="2">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -4976,20 +5053,20 @@
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -5046,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5105,31 +5182,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H29" s="2">
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5139,10 +5216,10 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1">
         <v>3</v>
-      </c>
-      <c r="N29" s="1">
-        <v>2</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
@@ -5209,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5268,31 +5345,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H30" s="2">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5302,20 +5379,20 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -5327,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
@@ -5372,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5431,44 +5508,44 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
         <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H31" s="2">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
         <v>3</v>
       </c>
       <c r="N31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
@@ -5484,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="1">
         <v>0</v>
@@ -5535,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
         <v>1</v>
@@ -5583,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5594,54 +5671,54 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>6089</v>
+        <v>3345</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H32" s="2">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
         <v>3</v>
       </c>
       <c r="N32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -5698,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5757,31 +5834,29 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1">
-        <v>6213</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" t="s">
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H33" s="2">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5794,7 +5869,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
@@ -5920,28 +5995,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
-        <v>3821</v>
+        <v>10836</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H34" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I34" t="s">
         <v>107</v>
@@ -5954,10 +6029,10 @@
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
@@ -5979,10 +6054,10 @@
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="1">
         <v>0</v>
@@ -6012,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="1">
         <v>0</v>
@@ -6083,31 +6158,31 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H35" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6117,20 +6192,20 @@
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
@@ -6142,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="1">
         <v>0</v>
@@ -6187,10 +6262,10 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6246,44 +6321,44 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>119478</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H36" s="2">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
@@ -6350,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6398,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="1">
         <v>0</v>
@@ -6409,54 +6484,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
-        <v>3345</v>
+        <v>104904</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H37" s="2">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1">
         <v>0</v>
@@ -6513,10 +6588,10 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6572,42 +6647,44 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C38" s="1">
+        <v>446220</v>
+      </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H38" s="2">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O38" s="1">
         <v>0</v>
@@ -6635,10 +6712,10 @@
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="1">
         <v>0</v>
@@ -6733,44 +6810,44 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>88890</v>
+        <v>3821</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H39" s="2">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" s="1">
         <v>0</v>
@@ -6825,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39" s="1">
         <v>0</v>
@@ -6837,10 +6914,10 @@
         <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -6885,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="1">
         <v>0</v>
@@ -6896,31 +6973,31 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H40" s="2">
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7059,31 +7136,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H41" s="2">
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7222,41 +7299,41 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1">
-        <v>68602</v>
+        <v>10836</v>
       </c>
       <c r="D42" t="s">
         <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H42" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N42" s="1">
         <v>5</v>
@@ -7281,10 +7358,10 @@
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="1">
         <v>0</v>
@@ -7385,31 +7462,31 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1">
-        <v>91725431</v>
+        <v>3676</v>
       </c>
       <c r="D43" t="s">
         <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H43" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7419,7 +7496,7 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N43" s="1">
         <v>5</v>
@@ -7528,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="AX43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY43" s="1">
         <v>0</v>
@@ -7548,29 +7625,31 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C44" s="1">
+        <v>88890</v>
+      </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H44" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -7580,7 +7659,7 @@
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N44" s="1">
         <v>5</v>
@@ -7653,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -7698,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB44" s="1">
         <v>0</v>
@@ -7709,31 +7788,31 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H45" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7743,7 +7822,7 @@
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N45" s="1">
         <v>5</v>
@@ -7753,16 +7832,16 @@
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="1">
         <v>0</v>
@@ -7872,29 +7951,31 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6213</v>
+      </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H46" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I46" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -7904,7 +7985,7 @@
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N46" s="1">
         <v>5</v>
@@ -7968,10 +8049,10 @@
         <v>0</v>
       </c>
       <c r="AI46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="1">
         <v>0</v>
@@ -8033,41 +8114,39 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3676</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H47" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N47" s="1">
         <v>5</v>
@@ -8176,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8196,54 +8275,54 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1">
-        <v>2802</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H48" s="2">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N48" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1">
         <v>0</v>
@@ -8300,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -8321,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="AR48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="1">
         <v>0</v>
@@ -8359,31 +8438,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>1614</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H49" s="2">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -8393,10 +8472,10 @@
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N49" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O49" s="1">
         <v>0</v>
@@ -8463,10 +8542,10 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -8511,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="1">
         <v>0</v>
@@ -8522,31 +8601,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1">
-        <v>3345</v>
+        <v>6089</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H50" s="2">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="I50" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8556,20 +8635,20 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N50" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1">
         <v>0</v>
@@ -8626,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -8685,52 +8764,54 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3345</v>
+      </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H51" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N51" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="1">
         <v>0</v>
@@ -8787,10 +8868,10 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -8841,6 +8922,5534 @@
         <v>0</v>
       </c>
       <c r="BC51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1">
+        <v>3</v>
+      </c>
+      <c r="N52" s="1">
+        <v>3</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I53" t="s">
+        <v>115</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1">
+        <v>3</v>
+      </c>
+      <c r="N53" s="1">
+        <v>3</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1614</v>
+      </c>
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5707</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="2">
+        <v>45723</v>
+      </c>
+      <c r="I55" t="s">
+        <v>105</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1">
+        <v>3</v>
+      </c>
+      <c r="N55" s="1">
+        <v>2</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1</v>
+      </c>
+      <c r="U55" s="1">
+        <v>1</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="2">
+        <v>45723</v>
+      </c>
+      <c r="I56" t="s">
+        <v>105</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1">
+        <v>3</v>
+      </c>
+      <c r="N56" s="1">
+        <v>2</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" s="2">
+        <v>45723</v>
+      </c>
+      <c r="I57" t="s">
+        <v>105</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1">
+        <v>3</v>
+      </c>
+      <c r="N57" s="1">
+        <v>2</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA57" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB57" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6089</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I58" t="s">
+        <v>105</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1">
+        <v>3</v>
+      </c>
+      <c r="N58" s="1">
+        <v>2</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3821</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" t="s">
+        <v>98</v>
+      </c>
+      <c r="H59" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I59" t="s">
+        <v>131</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1">
+        <v>3</v>
+      </c>
+      <c r="N59" s="1">
+        <v>2</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6213</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="2">
+        <v>45721</v>
+      </c>
+      <c r="I60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1">
+        <v>3</v>
+      </c>
+      <c r="N60" s="1">
+        <v>2</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I61" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1">
+        <v>3</v>
+      </c>
+      <c r="N61" s="1">
+        <v>3</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1">
+        <v>1</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I62" t="s">
+        <v>114</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1">
+        <v>3</v>
+      </c>
+      <c r="N62" s="1">
+        <v>3</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I63" t="s">
+        <v>108</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1">
+        <v>3</v>
+      </c>
+      <c r="N63" s="1">
+        <v>3</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="1">
+        <v>12107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1">
+        <v>5</v>
+      </c>
+      <c r="N64" s="1">
+        <v>2</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>91725431</v>
+      </c>
+      <c r="D65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" t="s">
+        <v>98</v>
+      </c>
+      <c r="H65" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I65" t="s">
+        <v>134</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1">
+        <v>5</v>
+      </c>
+      <c r="N65" s="1">
+        <v>2</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I66" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1">
+        <v>5</v>
+      </c>
+      <c r="N66" s="1">
+        <v>2</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="1">
+        <v>66924</v>
+      </c>
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I67" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1">
+        <v>5</v>
+      </c>
+      <c r="N67" s="1">
+        <v>2</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="2">
+        <v>45797</v>
+      </c>
+      <c r="I68" t="s">
+        <v>135</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1">
+        <v>5</v>
+      </c>
+      <c r="N68" s="1">
+        <v>2</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1">
+        <v>1</v>
+      </c>
+      <c r="R68" s="1">
+        <v>1</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1">
+        <v>2</v>
+      </c>
+      <c r="N69" s="1">
+        <v>2</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D70" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" t="s">
+        <v>98</v>
+      </c>
+      <c r="H70" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I70" t="s">
+        <v>135</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1">
+        <v>2</v>
+      </c>
+      <c r="N70" s="1">
+        <v>2</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1">
+        <v>1</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1">
+        <v>3</v>
+      </c>
+      <c r="N71" s="1">
+        <v>2</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" t="s">
+        <v>98</v>
+      </c>
+      <c r="H72" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1">
+        <v>3</v>
+      </c>
+      <c r="N72" s="1">
+        <v>2</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" t="s">
+        <v>98</v>
+      </c>
+      <c r="H73" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I73" t="s">
+        <v>123</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1">
+        <v>3</v>
+      </c>
+      <c r="N73" s="1">
+        <v>2</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1">
+        <v>1</v>
+      </c>
+      <c r="R73" s="1">
+        <v>1</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ73" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA73" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
+      <c r="H74" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1">
+        <v>2</v>
+      </c>
+      <c r="N74" s="1">
+        <v>2</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0</v>
+      </c>
+      <c r="X74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ74" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I75" t="s">
+        <v>123</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1">
+        <v>2</v>
+      </c>
+      <c r="N75" s="1">
+        <v>2</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1">
+        <v>1</v>
+      </c>
+      <c r="R75" s="1">
+        <v>1</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
+      <c r="H76" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I76" t="s">
+        <v>136</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1">
+        <v>10</v>
+      </c>
+      <c r="N76" s="1">
+        <v>5</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1">
+        <v>0</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1">
+        <v>10</v>
+      </c>
+      <c r="N77" s="1">
+        <v>5</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1">
+        <v>1</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
+        <v>0</v>
+      </c>
+      <c r="V77" s="1">
+        <v>0</v>
+      </c>
+      <c r="W77" s="1">
+        <v>0</v>
+      </c>
+      <c r="X77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK77" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL77" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ77" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA77" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB77" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="1">
+        <v>91725431</v>
+      </c>
+      <c r="D78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" t="s">
+        <v>98</v>
+      </c>
+      <c r="H78" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I78" t="s">
+        <v>137</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1">
+        <v>10</v>
+      </c>
+      <c r="N78" s="1">
+        <v>5</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0</v>
+      </c>
+      <c r="U78" s="1">
+        <v>0</v>
+      </c>
+      <c r="V78" s="1">
+        <v>0</v>
+      </c>
+      <c r="W78" s="1">
+        <v>0</v>
+      </c>
+      <c r="X78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79" t="s">
+        <v>98</v>
+      </c>
+      <c r="H79" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1">
+        <v>10</v>
+      </c>
+      <c r="N79" s="1">
+        <v>5</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0</v>
+      </c>
+      <c r="U79" s="1">
+        <v>0</v>
+      </c>
+      <c r="V79" s="1">
+        <v>0</v>
+      </c>
+      <c r="W79" s="1">
+        <v>0</v>
+      </c>
+      <c r="X79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ79" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA79" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB79" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3676</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1">
+        <v>10</v>
+      </c>
+      <c r="N80" s="1">
+        <v>5</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="T80" s="1">
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0</v>
+      </c>
+      <c r="W80" s="1">
+        <v>0</v>
+      </c>
+      <c r="X80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX80" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ80" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA80" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB80" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5707</v>
+      </c>
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H81" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I81" t="s">
+        <v>138</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1">
+        <v>10</v>
+      </c>
+      <c r="N81" s="1">
+        <v>5</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0</v>
+      </c>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>1</v>
+      </c>
+      <c r="T81" s="1">
+        <v>1</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0</v>
+      </c>
+      <c r="X81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ81" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA81" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB81" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="1">
+        <v>68602</v>
+      </c>
+      <c r="D82" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" t="s">
+        <v>96</v>
+      </c>
+      <c r="G82" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1">
+        <v>10</v>
+      </c>
+      <c r="N82" s="1">
+        <v>5</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0</v>
+      </c>
+      <c r="V82" s="1">
+        <v>0</v>
+      </c>
+      <c r="W82" s="1">
+        <v>0</v>
+      </c>
+      <c r="X82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA82" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB82" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2802</v>
+      </c>
+      <c r="D83" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" t="s">
+        <v>94</v>
+      </c>
+      <c r="F83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" t="s">
+        <v>98</v>
+      </c>
+      <c r="H83" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1">
+        <v>10</v>
+      </c>
+      <c r="N83" s="1">
+        <v>5</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83" s="1">
+        <v>0</v>
+      </c>
+      <c r="U83" s="1">
+        <v>0</v>
+      </c>
+      <c r="V83" s="1">
+        <v>0</v>
+      </c>
+      <c r="W83" s="1">
+        <v>0</v>
+      </c>
+      <c r="X83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ83" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA83" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB83" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I84" t="s">
+        <v>102</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1">
+        <v>10</v>
+      </c>
+      <c r="N84" s="1">
+        <v>5</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0</v>
+      </c>
+      <c r="U84" s="1">
+        <v>0</v>
+      </c>
+      <c r="V84" s="1">
+        <v>0</v>
+      </c>
+      <c r="W84" s="1">
+        <v>0</v>
+      </c>
+      <c r="X84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL84" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ84" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA84" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB84" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" t="s">
+        <v>98</v>
+      </c>
+      <c r="H85" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I85" t="s">
+        <v>105</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1">
+        <v>10</v>
+      </c>
+      <c r="N85" s="1">
+        <v>5</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0</v>
+      </c>
+      <c r="U85" s="1">
+        <v>0</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1">
+        <v>0</v>
+      </c>
+      <c r="X85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ85" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA85" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB85" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC85" s="1">
         <v>0</v>
       </c>
     </row>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -111,46 +111,49 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>lidocaine</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>lidocaine</t>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>erythritol</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
@@ -159,9 +162,6 @@
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>tetracaine</t>
   </si>
   <si>
@@ -189,48 +189,48 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t/>
+    <t>137-58-6</t>
   </si>
   <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>137-58-6</t>
+    <t>103-90-2</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>103-90-2</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -252,42 +252,42 @@
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>98PI200987</t>
   </si>
   <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>98PI200987</t>
+    <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>362O9ITL9D</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -321,18 +321,18 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>9.26</t>
   </si>
   <si>
+    <t>10.45</t>
+  </si>
+  <si>
     <t>4.75</t>
   </si>
   <si>
-    <t>10.45</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
@@ -342,21 +342,21 @@
     <t>4.52</t>
   </si>
   <si>
+    <t>6.41</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
     <t>2.42</t>
   </si>
   <si>
-    <t>6.41</t>
-  </si>
-  <si>
-    <t>10.43</t>
-  </si>
-  <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
     <t>9.24</t>
   </si>
   <si>
@@ -387,18 +387,18 @@
     <t>10.46</t>
   </si>
   <si>
+    <t>8.39</t>
+  </si>
+  <si>
+    <t>10.44</t>
+  </si>
+  <si>
     <t>4.38</t>
   </si>
   <si>
-    <t>10.44</t>
-  </si>
-  <si>
     <t>2.41</t>
   </si>
   <si>
-    <t>8.39</t>
-  </si>
-  <si>
     <t>5.62</t>
   </si>
   <si>
@@ -417,16 +417,16 @@
     <t>10.42</t>
   </si>
   <si>
+    <t>10.47</t>
+  </si>
+  <si>
     <t>7.5</t>
   </si>
   <si>
-    <t>10.47</t>
+    <t>7.51</t>
   </si>
   <si>
     <t>12.54</t>
-  </si>
-  <si>
-    <t>7.51</t>
   </si>
   <si>
     <t>7.59</t>
@@ -802,7 +802,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -955,17 +955,15 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1">
-        <v>88890</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -977,10 +975,10 @@
         <v>102</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1048,16 +1046,16 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="1">
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1102,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1119,16 +1117,16 @@
         <v>33</v>
       </c>
       <c r="C4" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -1217,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1265,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1288,10 +1286,10 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
@@ -1444,15 +1442,17 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>66924</v>
+      </c>
       <c r="D6" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -1464,10 +1464,10 @@
         <v>105</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>10836</v>
+        <v>3676</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
@@ -1615,7 +1615,7 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1624,13 +1624,13 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1659,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>3676</v>
+        <v>10836</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -1778,7 +1778,7 @@
         <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -1787,13 +1787,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -2092,19 +2092,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -2258,7 +2258,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="1">
-        <v>6213</v>
+        <v>1983</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -2267,7 +2267,7 @@
         <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
         <v>98</v>
@@ -2418,16 +2418,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
-        <v>68602</v>
+        <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -2439,7 +2439,7 @@
         <v>45797</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -2581,16 +2581,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>96</v>
@@ -2602,7 +2602,7 @@
         <v>45797</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2631,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2744,19 +2744,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>1983</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -2765,13 +2765,13 @@
         <v>45797</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -2928,7 +2928,7 @@
         <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -3070,19 +3070,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1">
-        <v>3676</v>
+        <v>68602</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -3091,13 +3091,13 @@
         <v>45797</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3233,16 +3233,14 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1">
-        <v>165365057</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
         <v>96</v>
@@ -3254,7 +3252,7 @@
         <v>45797</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3328,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="1">
         <v>0</v>
@@ -3337,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3382,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3396,19 +3394,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -3417,7 +3415,7 @@
         <v>45797</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -3559,19 +3557,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
-        <v>446220</v>
+        <v>3676</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -3580,13 +3578,13 @@
         <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3624,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
@@ -3699,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="1">
         <v>0</v>
@@ -3722,17 +3720,19 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6213</v>
+      </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -3741,13 +3741,13 @@
         <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>0</v>
@@ -3883,19 +3883,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -4046,19 +4046,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -4067,7 +4067,7 @@
         <v>45797</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4087,10 +4087,10 @@
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4209,19 +4209,17 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -4230,7 +4228,7 @@
         <v>45797</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4310,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -4358,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="1">
         <v>0</v>
@@ -4372,17 +4370,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3345</v>
+      </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -4391,7 +4391,7 @@
         <v>45797</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4411,10 +4411,10 @@
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -4471,10 +4471,10 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4533,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>10836</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -4696,19 +4696,19 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -4717,13 +4717,13 @@
         <v>45723</v>
       </c>
       <c r="I26" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4859,19 +4859,19 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
         <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -4880,7 +4880,7 @@
         <v>45723</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -4900,10 +4900,10 @@
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5022,19 +5022,19 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -5043,7 +5043,7 @@
         <v>45723</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5063,10 +5063,10 @@
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -5123,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28" s="1">
         <v>0</v>
@@ -5188,16 +5188,16 @@
         <v>45</v>
       </c>
       <c r="C29" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
         <v>98</v>
@@ -5206,13 +5206,13 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5348,19 +5348,19 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>10836</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -5511,19 +5511,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <v>88890</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
         <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5683,10 +5683,10 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -5695,7 +5695,7 @@
         <v>45797</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5841,13 +5841,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -5998,19 +5998,19 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>10836</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -6161,19 +6161,19 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>10836</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -6327,7 +6327,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -6345,7 +6345,7 @@
         <v>45721</v>
       </c>
       <c r="I36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="1">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>47</v>
       </c>
       <c r="C37" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -6508,7 +6508,7 @@
         <v>45721</v>
       </c>
       <c r="I37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -6650,19 +6650,19 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
         <v>98</v>
@@ -6671,13 +6671,13 @@
         <v>45721</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6712,10 +6712,10 @@
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="1">
         <v>0</v>
@@ -6813,19 +6813,19 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
         <v>98</v>
@@ -6834,13 +6834,13 @@
         <v>45721</v>
       </c>
       <c r="I39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6875,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="1">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="1">
         <v>0</v>
@@ -6976,19 +6976,19 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="s">
         <v>58</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
       </c>
       <c r="G40" t="s">
         <v>98</v>
@@ -6997,7 +6997,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7017,10 +7017,10 @@
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7139,19 +7139,19 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
         <v>98</v>
@@ -7160,7 +7160,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7180,10 +7180,10 @@
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7302,19 +7302,19 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
         <v>98</v>
@@ -7323,13 +7323,13 @@
         <v>45797</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7358,10 +7358,10 @@
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42" s="1">
         <v>0</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB42" s="1">
         <v>0</v>
@@ -7465,19 +7465,17 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3676</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
         <v>98</v>
@@ -7486,7 +7484,7 @@
         <v>45797</v>
       </c>
       <c r="I43" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7605,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="AX43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="1">
         <v>0</v>
@@ -7628,19 +7626,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
         <v>58</v>
-      </c>
-      <c r="E44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" t="s">
-        <v>96</v>
       </c>
       <c r="G44" t="s">
         <v>98</v>
@@ -7649,13 +7647,13 @@
         <v>45797</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7669,10 +7667,10 @@
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -7729,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
         <v>1</v>
@@ -7777,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="1">
         <v>0</v>
@@ -7791,19 +7789,19 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
         <v>98</v>
@@ -7812,7 +7810,7 @@
         <v>45797</v>
       </c>
       <c r="I45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7832,10 +7830,10 @@
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1">
         <v>0</v>
@@ -7847,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="1">
         <v>0</v>
@@ -7892,10 +7890,10 @@
         <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -7954,19 +7952,19 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1">
         <v>6213</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
         <v>98</v>
@@ -7975,7 +7973,7 @@
         <v>45797</v>
       </c>
       <c r="I46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8117,17 +8115,19 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3676</v>
+      </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -8136,7 +8136,7 @@
         <v>45797</v>
       </c>
       <c r="I47" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8287,10 +8287,10 @@
         <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
         <v>98</v>
@@ -8453,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -8616,7 +8616,7 @@
         <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -8767,19 +8767,17 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
         <v>98</v>
@@ -8788,7 +8786,7 @@
         <v>45797</v>
       </c>
       <c r="I51" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -8808,10 +8806,10 @@
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1">
         <v>0</v>
@@ -8868,10 +8866,10 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -8930,19 +8928,19 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s">
         <v>58</v>
-      </c>
-      <c r="E52" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" t="s">
-        <v>61</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -8951,7 +8949,7 @@
         <v>45797</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -8971,10 +8969,10 @@
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="1">
         <v>0</v>
@@ -9079,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="1">
         <v>0</v>
@@ -9093,17 +9091,19 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C53" s="1">
+        <v>88890</v>
+      </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
         <v>98</v>
@@ -9112,7 +9112,7 @@
         <v>45797</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9192,10 +9192,10 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB53" s="1">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G54" t="s">
         <v>98</v>
@@ -9417,19 +9417,19 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C55" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G55" t="s">
         <v>98</v>
@@ -9438,13 +9438,13 @@
         <v>45723</v>
       </c>
       <c r="I55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9458,19 +9458,19 @@
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="1">
         <v>0</v>
       </c>
       <c r="T55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>1</v>
@@ -9580,19 +9580,19 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G56" t="s">
         <v>98</v>
@@ -9601,13 +9601,13 @@
         <v>45723</v>
       </c>
       <c r="I56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9621,19 +9621,19 @@
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>1</v>
@@ -9743,19 +9743,19 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1">
         <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
         <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G57" t="s">
         <v>98</v>
@@ -9764,7 +9764,7 @@
         <v>45723</v>
       </c>
       <c r="I57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -9927,7 +9927,7 @@
         <v>45721</v>
       </c>
       <c r="I58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -10069,19 +10069,19 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1">
         <v>3821</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -10232,19 +10232,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C60" s="1">
         <v>6213</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
         <v>98</v>
@@ -10404,10 +10404,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
@@ -10558,19 +10558,17 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" t="s">
         <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G62" t="s">
         <v>98</v>
@@ -10579,7 +10577,7 @@
         <v>45797</v>
       </c>
       <c r="I62" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10659,10 +10657,10 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10707,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="1">
         <v>0</v>
@@ -10721,17 +10719,19 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C63" s="1">
+        <v>88890</v>
+      </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G63" t="s">
         <v>98</v>
@@ -10740,7 +10740,7 @@
         <v>45797</v>
       </c>
       <c r="I63" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB63" s="1">
         <v>0</v>
@@ -10882,19 +10882,19 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C64" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G64" t="s">
         <v>98</v>
@@ -10903,13 +10903,13 @@
         <v>45797</v>
       </c>
       <c r="I64" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -10923,10 +10923,10 @@
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="1">
         <v>0</v>
@@ -11045,19 +11045,19 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C65" s="1">
-        <v>91725431</v>
+        <v>12107</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
         <v>98</v>
@@ -11066,13 +11066,13 @@
         <v>45797</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11208,14 +11208,16 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C66" s="1">
+        <v>66924</v>
+      </c>
       <c r="D66" t="s">
         <v>61</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
         <v>96</v>
@@ -11227,7 +11229,7 @@
         <v>45797</v>
       </c>
       <c r="I66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -11369,19 +11371,19 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C67" s="1">
-        <v>66924</v>
+        <v>91725431</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -11390,13 +11392,13 @@
         <v>45797</v>
       </c>
       <c r="I67" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -11532,19 +11534,17 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="1">
-        <v>3345</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
         <v>98</v>
@@ -11553,13 +11553,13 @@
         <v>45797</v>
       </c>
       <c r="I68" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -11573,10 +11573,10 @@
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1">
         <v>0</v>
@@ -11633,10 +11633,10 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11695,19 +11695,19 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1">
         <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
         <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G69" t="s">
         <v>98</v>
@@ -11716,7 +11716,7 @@
         <v>45761</v>
       </c>
       <c r="I69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -11867,10 +11867,10 @@
         <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
         <v>98</v>
@@ -11879,7 +11879,7 @@
         <v>45761</v>
       </c>
       <c r="I70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -12021,17 +12021,19 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3345</v>
+      </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G71" t="s">
         <v>98</v>
@@ -12040,13 +12042,13 @@
         <v>45761</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -12060,10 +12062,10 @@
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="1">
         <v>0</v>
@@ -12120,10 +12122,10 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM71" s="1">
         <v>0</v>
@@ -12182,19 +12184,17 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="D72" t="s">
         <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
         <v>98</v>
@@ -12206,10 +12206,10 @@
         <v>102</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12283,10 +12283,10 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="BA72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB72" s="1">
         <v>0</v>
@@ -12345,19 +12345,19 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G73" t="s">
         <v>98</v>
@@ -12366,7 +12366,7 @@
         <v>45761</v>
       </c>
       <c r="I73" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -12386,10 +12386,10 @@
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="BA73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB73" s="1">
         <v>0</v>
@@ -12508,19 +12508,19 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C74" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
         <v>58</v>
-      </c>
-      <c r="E74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" t="s">
-        <v>61</v>
       </c>
       <c r="G74" t="s">
         <v>98</v>
@@ -12529,7 +12529,7 @@
         <v>45761</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -12549,10 +12549,10 @@
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="1">
         <v>0</v>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="BA74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="1">
         <v>0</v>
@@ -12671,19 +12671,19 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C75" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
@@ -12692,7 +12692,7 @@
         <v>45761</v>
       </c>
       <c r="I75" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -12712,10 +12712,10 @@
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="1">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="BA75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB75" s="1">
         <v>0</v>
@@ -12834,17 +12834,17 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
@@ -12853,13 +12853,13 @@
         <v>45762</v>
       </c>
       <c r="I76" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -12927,10 +12927,10 @@
         <v>0</v>
       </c>
       <c r="AI76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
@@ -12995,19 +12995,19 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C77" s="1">
-        <v>3345</v>
+        <v>2802</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G77" t="s">
         <v>98</v>
@@ -13016,13 +13016,13 @@
         <v>45762</v>
       </c>
       <c r="I77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -13036,10 +13036,10 @@
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" s="1">
         <v>0</v>
@@ -13096,10 +13096,10 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="AR77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS77" s="1">
         <v>0</v>
@@ -13170,7 +13170,7 @@
         <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G78" t="s">
         <v>98</v>
@@ -13179,7 +13179,7 @@
         <v>45762</v>
       </c>
       <c r="I78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -13321,17 +13321,17 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G79" t="s">
         <v>98</v>
@@ -13340,13 +13340,13 @@
         <v>45762</v>
       </c>
       <c r="I79" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="J79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13414,10 +13414,10 @@
         <v>0</v>
       </c>
       <c r="AI79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK79" s="1">
         <v>0</v>
@@ -13482,16 +13482,16 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C80" s="1">
-        <v>3676</v>
+        <v>68602</v>
       </c>
       <c r="D80" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F80" t="s">
         <v>96</v>
@@ -13503,7 +13503,7 @@
         <v>45762</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13622,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="AX80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY80" s="1">
         <v>0</v>
@@ -13645,19 +13645,19 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C81" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G81" t="s">
         <v>98</v>
@@ -13666,7 +13666,7 @@
         <v>45762</v>
       </c>
       <c r="I81" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
@@ -13686,16 +13686,16 @@
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81" s="1">
         <v>0</v>
@@ -13808,16 +13808,16 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C82" s="1">
-        <v>68602</v>
+        <v>3676</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F82" t="s">
         <v>96</v>
@@ -13829,7 +13829,7 @@
         <v>45762</v>
       </c>
       <c r="I82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="AX82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY82" s="1">
         <v>0</v>
@@ -13971,16 +13971,14 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2802</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C83" s="1"/>
       <c r="D83" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="F83" t="s">
         <v>96</v>
@@ -13992,7 +13990,7 @@
         <v>45762</v>
       </c>
       <c r="I83" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
@@ -14093,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="AR83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS83" s="1">
         <v>0</v>
@@ -14134,19 +14132,19 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C84" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" t="s">
         <v>58</v>
-      </c>
-      <c r="E84" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" t="s">
-        <v>61</v>
       </c>
       <c r="G84" t="s">
         <v>98</v>
@@ -14155,7 +14153,7 @@
         <v>45762</v>
       </c>
       <c r="I84" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -14181,10 +14179,10 @@
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" s="1">
         <v>0</v>
@@ -14283,7 +14281,7 @@
         <v>0</v>
       </c>
       <c r="BA84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB84" s="1">
         <v>0</v>
@@ -14297,17 +14295,19 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C85" s="1">
+        <v>88890</v>
+      </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="G85" t="s">
         <v>98</v>
@@ -14316,13 +14316,13 @@
         <v>45762</v>
       </c>
       <c r="I85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14396,10 +14396,10 @@
         <v>0</v>
       </c>
       <c r="AK85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="BA85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB85" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -111,39 +111,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
     <t>erythritol</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
@@ -171,12 +171,12 @@
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
+    <t>NPP</t>
+  </si>
+  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>NPP</t>
-  </si>
-  <si>
     <t>clonazepam</t>
   </si>
   <si>
@@ -189,45 +189,45 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
     <t>537-46-2</t>
   </si>
   <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>103-90-2</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>9/1/7143</t>
   </si>
   <si>
@@ -249,42 +249,42 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>362O9ITL9D</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
@@ -321,6 +321,9 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>4.75</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -330,9 +333,6 @@
     <t>10.45</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
@@ -342,21 +342,21 @@
     <t>4.52</t>
   </si>
   <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
     <t>6.41</t>
   </si>
   <si>
-    <t>10.43</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
     <t>9.24</t>
   </si>
   <si>
@@ -366,15 +366,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>10.48</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>10.48</t>
-  </si>
-  <si>
-    <t>5.02</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -387,18 +387,18 @@
     <t>10.46</t>
   </si>
   <si>
+    <t>10.44</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
     <t>8.39</t>
   </si>
   <si>
-    <t>10.44</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
     <t>5.62</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>2.38</t>
+  </si>
+  <si>
     <t>7.21</t>
   </si>
   <si>
-    <t>2.38</t>
-  </si>
-  <si>
     <t>10.42</t>
   </si>
   <si>
@@ -423,10 +423,10 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>12.54</t>
+  </si>
+  <si>
     <t>7.51</t>
-  </si>
-  <si>
-    <t>12.54</t>
   </si>
   <si>
     <t>7.59</t>
@@ -802,7 +802,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -955,15 +955,17 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>66924</v>
+      </c>
       <c r="D3" t="s">
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -975,10 +977,10 @@
         <v>102</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1046,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>0</v>
@@ -1117,16 +1119,16 @@
         <v>33</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -1138,10 +1140,10 @@
         <v>103</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1215,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1254,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1280,16 +1282,16 @@
         <v>34</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
@@ -1318,10 +1320,10 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1426,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1442,17 +1444,15 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1">
-        <v>66924</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -1461,13 +1461,13 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="1">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
@@ -1615,7 +1615,7 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1624,13 +1624,13 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1644,10 +1644,10 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -1941,7 +1941,7 @@
         <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -2104,7 +2104,7 @@
         <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -2258,7 +2258,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="1">
-        <v>1983</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -2267,7 +2267,7 @@
         <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
         <v>98</v>
@@ -2276,13 +2276,13 @@
         <v>45797</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2305,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
-        <v>446220</v>
+        <v>6213</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
@@ -2439,13 +2439,13 @@
         <v>45797</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -2581,19 +2581,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -2602,13 +2602,13 @@
         <v>45797</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2622,10 +2622,10 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2744,19 +2744,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -2765,13 +2765,13 @@
         <v>45797</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2907,19 +2907,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>68602</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -2928,13 +2928,13 @@
         <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2948,10 +2948,10 @@
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3070,19 +3070,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
-        <v>68602</v>
+        <v>3676</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -3091,13 +3091,13 @@
         <v>45797</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3233,17 +3233,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1983</v>
+      </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
         <v>98</v>
@@ -3252,13 +3254,13 @@
         <v>45797</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>0</v>
@@ -3394,19 +3396,17 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10836</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -3415,13 +3415,13 @@
         <v>45797</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3450,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="1">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1">
-        <v>3676</v>
+        <v>165365057</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -3578,13 +3578,13 @@
         <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3720,19 +3720,19 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -3741,13 +3741,13 @@
         <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -4046,19 +4046,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -4213,13 +4213,13 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -4370,19 +4370,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
         <v>3345</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -4545,7 +4545,7 @@
         <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -4696,19 +4696,19 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4859,19 +4859,19 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -5022,19 +5022,19 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -5123,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5191,10 +5191,10 @@
         <v>156346345</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
         <v>96</v>
@@ -5206,7 +5206,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -5360,7 +5360,7 @@
         <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -5511,19 +5511,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <v>88890</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5674,19 +5674,17 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -5695,7 +5693,7 @@
         <v>45797</v>
       </c>
       <c r="I32" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5715,10 +5713,10 @@
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -5775,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5837,17 +5835,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3345</v>
+      </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -5856,7 +5856,7 @@
         <v>45797</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5876,10 +5876,10 @@
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -5936,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -6173,7 +6173,7 @@
         <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -6327,7 +6327,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -6345,7 +6345,7 @@
         <v>45721</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="1">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>47</v>
       </c>
       <c r="C37" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -6508,7 +6508,7 @@
         <v>45721</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37" s="1">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>45721</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
         <v>98</v>
@@ -6976,19 +6976,19 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
         <v>98</v>
@@ -7139,19 +7139,19 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1">
         <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
         <v>98</v>
@@ -7160,7 +7160,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7302,19 +7302,19 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
         <v>98</v>
@@ -7323,13 +7323,13 @@
         <v>45797</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7343,10 +7343,10 @@
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1">
         <v>0</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>1</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="1">
         <v>0</v>
@@ -7465,17 +7465,19 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6213</v>
+      </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
         <v>98</v>
@@ -7484,7 +7486,7 @@
         <v>45797</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7626,19 +7628,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
         <v>98</v>
@@ -7647,7 +7649,7 @@
         <v>45797</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7667,10 +7669,10 @@
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -7682,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
@@ -7727,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -7789,19 +7791,19 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G45" t="s">
         <v>98</v>
@@ -7810,13 +7812,13 @@
         <v>45797</v>
       </c>
       <c r="I45" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7845,10 +7847,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="1">
         <v>0</v>
@@ -7893,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -7938,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB45" s="1">
         <v>0</v>
@@ -7952,19 +7954,17 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="1">
-        <v>6213</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
         <v>98</v>
@@ -8115,19 +8115,19 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1">
         <v>3676</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -8278,19 +8278,19 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
         <v>98</v>
@@ -8299,7 +8299,7 @@
         <v>45761</v>
       </c>
       <c r="I48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -8616,7 +8616,7 @@
         <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -8767,17 +8767,19 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C51" s="1">
+        <v>88890</v>
+      </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
         <v>98</v>
@@ -8786,7 +8788,7 @@
         <v>45797</v>
       </c>
       <c r="I51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -8866,10 +8868,10 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -8914,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="1">
         <v>0</v>
@@ -8928,19 +8930,17 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -8949,7 +8949,7 @@
         <v>45797</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -8969,10 +8969,10 @@
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1">
         <v>0</v>
@@ -9029,10 +9029,10 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -9091,19 +9091,19 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
         <v>98</v>
@@ -9112,7 +9112,7 @@
         <v>45797</v>
       </c>
       <c r="I53" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9132,10 +9132,10 @@
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="1">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB53" s="1">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
         <v>98</v>
@@ -9420,16 +9420,16 @@
         <v>34</v>
       </c>
       <c r="C55" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
         <v>98</v>
@@ -9438,7 +9438,7 @@
         <v>45723</v>
       </c>
       <c r="I55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -9458,10 +9458,10 @@
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB55" s="1">
         <v>0</v>
@@ -9580,19 +9580,19 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C56" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G56" t="s">
         <v>98</v>
@@ -9601,13 +9601,13 @@
         <v>45723</v>
       </c>
       <c r="I56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9621,19 +9621,19 @@
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>1</v>
@@ -9743,19 +9743,19 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
         <v>98</v>
@@ -9764,13 +9764,13 @@
         <v>45723</v>
       </c>
       <c r="I57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -9793,10 +9793,10 @@
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="1">
         <v>0</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>1</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="1">
         <v>0</v>
@@ -9927,7 +9927,7 @@
         <v>45721</v>
       </c>
       <c r="I58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -10069,19 +10069,19 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -10158,10 +10158,10 @@
         <v>0</v>
       </c>
       <c r="AG59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="1">
         <v>0</v>
@@ -10232,19 +10232,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
         <v>98</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="AG60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="1">
         <v>0</v>
@@ -10395,19 +10395,19 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C61" s="1">
         <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
@@ -10562,13 +10562,13 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
         <v>98</v>
@@ -10719,19 +10719,19 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1">
         <v>88890</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
         <v>98</v>
@@ -10882,19 +10882,19 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1">
-        <v>3345</v>
+        <v>66924</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
         <v>98</v>
@@ -10903,13 +10903,13 @@
         <v>45797</v>
       </c>
       <c r="I64" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -10923,10 +10923,10 @@
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11045,19 +11045,19 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C65" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
         <v>98</v>
@@ -11066,13 +11066,13 @@
         <v>45797</v>
       </c>
       <c r="I65" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11086,10 +11086,10 @@
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="1">
         <v>0</v>
@@ -11146,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11208,16 +11208,14 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="1">
-        <v>66924</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C66" s="1"/>
       <c r="D66" t="s">
         <v>61</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F66" t="s">
         <v>96</v>
@@ -11229,7 +11227,7 @@
         <v>45797</v>
       </c>
       <c r="I66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -11371,7 +11369,7 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1">
         <v>91725431</v>
@@ -11383,7 +11381,7 @@
         <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -11534,14 +11532,16 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C68" s="1">
+        <v>12107</v>
+      </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s">
         <v>96</v>
@@ -11553,7 +11553,7 @@
         <v>45797</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB68" s="1">
         <v>0</v>
@@ -11695,19 +11695,19 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C69" s="1">
         <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
         <v>98</v>
@@ -11716,7 +11716,7 @@
         <v>45761</v>
       </c>
       <c r="I69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -11858,19 +11858,19 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1">
         <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G70" t="s">
         <v>98</v>
@@ -12021,19 +12021,19 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C71" s="1">
         <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G71" t="s">
         <v>98</v>
@@ -12184,17 +12184,19 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C72" s="1">
+        <v>88890</v>
+      </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G72" t="s">
         <v>98</v>
@@ -12203,13 +12205,13 @@
         <v>45761</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12283,10 +12285,10 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12331,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="BA72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB72" s="1">
         <v>0</v>
@@ -12345,19 +12347,17 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
         <v>98</v>
@@ -12369,10 +12369,10 @@
         <v>103</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12446,10 +12446,10 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="BA73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="1">
         <v>0</v>
@@ -12511,16 +12511,16 @@
         <v>34</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D74" t="s">
         <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G74" t="s">
         <v>98</v>
@@ -12529,7 +12529,7 @@
         <v>45761</v>
       </c>
       <c r="I74" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -12549,10 +12549,10 @@
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="1">
         <v>0</v>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="BA74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB74" s="1">
         <v>0</v>
@@ -12671,19 +12671,19 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C75" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D75" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
@@ -12692,7 +12692,7 @@
         <v>45761</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -12712,10 +12712,10 @@
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="BA75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="1">
         <v>0</v>
@@ -12834,17 +12834,19 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3345</v>
+      </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
@@ -12853,13 +12855,13 @@
         <v>45762</v>
       </c>
       <c r="I76" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -12873,10 +12875,10 @@
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" s="1">
         <v>0</v>
@@ -12933,10 +12935,10 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -12995,19 +12997,17 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2802</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C77" s="1"/>
       <c r="D77" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E77" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G77" t="s">
         <v>98</v>
@@ -13016,13 +13016,13 @@
         <v>45762</v>
       </c>
       <c r="I77" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -13090,10 +13090,10 @@
         <v>0</v>
       </c>
       <c r="AI77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="AR77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS77" s="1">
         <v>0</v>
@@ -13158,19 +13158,19 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C78" s="1">
-        <v>91725431</v>
+        <v>2802</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G78" t="s">
         <v>98</v>
@@ -13179,13 +13179,13 @@
         <v>45762</v>
       </c>
       <c r="I78" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="AR78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS78" s="1">
         <v>0</v>
@@ -13321,17 +13321,17 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G79" t="s">
         <v>98</v>
@@ -13340,13 +13340,13 @@
         <v>45762</v>
       </c>
       <c r="I79" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="J79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13414,10 +13414,10 @@
         <v>0</v>
       </c>
       <c r="AI79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK79" s="1">
         <v>0</v>
@@ -13482,7 +13482,7 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" s="1">
         <v>68602</v>
@@ -13503,7 +13503,7 @@
         <v>45762</v>
       </c>
       <c r="I80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13645,19 +13645,19 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81" t="s">
         <v>79</v>
       </c>
       <c r="F81" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G81" t="s">
         <v>98</v>
@@ -13666,13 +13666,13 @@
         <v>45762</v>
       </c>
       <c r="I81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -13686,10 +13686,10 @@
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1">
         <v>0</v>
@@ -13746,10 +13746,10 @@
         <v>0</v>
       </c>
       <c r="AK81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -13785,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="AX81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY81" s="1">
         <v>0</v>
@@ -13808,19 +13808,19 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C82" s="1">
-        <v>3676</v>
+        <v>91725431</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G82" t="s">
         <v>98</v>
@@ -13829,13 +13829,13 @@
         <v>45762</v>
       </c>
       <c r="I82" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="AX82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY82" s="1">
         <v>0</v>
@@ -13971,14 +13971,14 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
         <v>96</v>
@@ -13990,7 +13990,7 @@
         <v>45762</v>
       </c>
       <c r="I83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
@@ -14132,19 +14132,19 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C84" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D84" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E84" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G84" t="s">
         <v>98</v>
@@ -14153,7 +14153,7 @@
         <v>45762</v>
       </c>
       <c r="I84" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -14179,10 +14179,10 @@
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84" s="1">
         <v>0</v>
@@ -14281,7 +14281,7 @@
         <v>0</v>
       </c>
       <c r="BA84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB84" s="1">
         <v>0</v>
@@ -14295,19 +14295,19 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C85" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D85" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E85" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G85" t="s">
         <v>98</v>
@@ -14316,7 +14316,7 @@
         <v>45762</v>
       </c>
       <c r="I85" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -14342,10 +14342,10 @@
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" s="1">
         <v>0</v>
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="BA85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB85" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -111,57 +111,57 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>lidocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>erythritol</t>
   </si>
   <si>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>tetracaine</t>
   </si>
   <si>
@@ -189,48 +189,48 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
     <t>137-58-6</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
+    <t>103-90-2</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>103-90-2</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -249,45 +249,45 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
     <t>98PI200987</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
+    <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>362O9ITL9D</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -321,57 +321,57 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>4.39</t>
+  </si>
+  <si>
     <t>4.75</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>10.45</t>
+  </si>
+  <si>
     <t>9.26</t>
   </si>
   <si>
-    <t>10.45</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
     <t>4.52</t>
   </si>
   <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>6.41</t>
+  </si>
+  <si>
     <t>2.42</t>
   </si>
   <si>
-    <t>10.43</t>
+    <t>7.18</t>
   </si>
   <si>
     <t>4.44</t>
   </si>
   <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>6.41</t>
+    <t>4.47</t>
   </si>
   <si>
     <t>9.24</t>
   </si>
   <si>
-    <t>4.47</t>
-  </si>
-  <si>
     <t>4.31</t>
   </si>
   <si>
+    <t>10.48</t>
+  </si>
+  <si>
     <t>5.02</t>
   </si>
   <si>
-    <t>10.48</t>
-  </si>
-  <si>
     <t>9.27</t>
   </si>
   <si>
@@ -387,18 +387,18 @@
     <t>10.46</t>
   </si>
   <si>
+    <t>8.39</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
     <t>10.44</t>
   </si>
   <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>8.39</t>
-  </si>
-  <si>
     <t>5.62</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>7.21</t>
+  </si>
+  <si>
     <t>2.38</t>
   </si>
   <si>
-    <t>7.21</t>
-  </si>
-  <si>
     <t>10.42</t>
   </si>
   <si>
@@ -423,13 +423,13 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>12.54</t>
   </si>
   <si>
     <t>7.51</t>
-  </si>
-  <si>
-    <t>7.59</t>
   </si>
   <si>
     <t>primary</t>
@@ -802,7 +802,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -956,7 +956,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -965,7 +965,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1">
-        <v>3676</v>
+        <v>66924</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -1128,7 +1128,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -1140,10 +1140,10 @@
         <v>103</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -1291,7 +1291,7 @@
         <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
@@ -1303,10 +1303,10 @@
         <v>104</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1444,15 +1444,17 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>3345</v>
+      </c>
       <c r="D6" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -1461,13 +1463,13 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1481,10 +1483,10 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1535,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1606,16 +1608,16 @@
         <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1624,7 +1626,7 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1644,10 +1646,10 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1768,17 +1770,15 @@
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1">
-        <v>10836</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -1787,13 +1787,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -2092,19 +2092,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -2255,16 +2255,14 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5707</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -2276,7 +2274,7 @@
         <v>45797</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2305,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
@@ -2350,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="1">
         <v>0</v>
@@ -2359,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2418,19 +2416,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
-        <v>6213</v>
+        <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
@@ -2439,13 +2437,13 @@
         <v>45797</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2483,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -2581,19 +2579,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -2602,7 +2600,7 @@
         <v>45797</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2744,19 +2742,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
-        <v>10836</v>
+        <v>1983</v>
       </c>
       <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -2765,7 +2763,7 @@
         <v>45797</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2800,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
         <v>0</v>
@@ -2907,19 +2905,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
-        <v>68602</v>
+        <v>6213</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -2928,13 +2926,13 @@
         <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -3070,19 +3068,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>3676</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -3233,19 +3231,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
-        <v>1983</v>
+        <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
         <v>98</v>
@@ -3254,13 +3252,13 @@
         <v>45797</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3283,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
@@ -3337,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3396,14 +3394,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>68602</v>
+      </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -3415,7 +3415,7 @@
         <v>45797</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -3578,13 +3578,13 @@
         <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3613,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
         <v>96</v>
@@ -3741,7 +3741,7 @@
         <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3883,19 +3883,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>10836</v>
       </c>
       <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -4046,19 +4046,17 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -4147,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4195,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4209,17 +4207,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3345</v>
+      </c>
       <c r="D23" t="s">
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -4228,7 +4228,7 @@
         <v>45797</v>
       </c>
       <c r="I23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4248,10 +4248,10 @@
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -4373,16 +4373,16 @@
         <v>36</v>
       </c>
       <c r="C24" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -4391,7 +4391,7 @@
         <v>45797</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4411,10 +4411,10 @@
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4533,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>10836</v>
       </c>
       <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -4699,16 +4699,16 @@
         <v>44</v>
       </c>
       <c r="C26" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -4717,13 +4717,13 @@
         <v>45723</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4859,19 +4859,19 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
         <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -4880,7 +4880,7 @@
         <v>45723</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -5022,19 +5022,19 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -5043,7 +5043,7 @@
         <v>45723</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5123,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5185,19 +5185,19 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
         <v>98</v>
@@ -5206,13 +5206,13 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5348,19 +5348,19 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <v>10836</v>
       </c>
       <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
         <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>61</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -5511,19 +5511,17 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5532,7 +5530,7 @@
         <v>45797</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5612,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5660,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5674,17 +5672,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>88890</v>
+      </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -5693,7 +5693,7 @@
         <v>45797</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5773,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5835,19 +5835,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>3345</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -5856,7 +5856,7 @@
         <v>45797</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5998,19 +5998,19 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>10836</v>
       </c>
       <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>61</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -6161,19 +6161,19 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <v>10836</v>
       </c>
       <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" t="s">
-        <v>61</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -6327,7 +6327,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
@@ -6345,7 +6345,7 @@
         <v>45721</v>
       </c>
       <c r="I36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="1">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>47</v>
       </c>
       <c r="C37" s="1">
-        <v>3821</v>
+        <v>104904</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
@@ -6508,7 +6508,7 @@
         <v>45721</v>
       </c>
       <c r="I37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="1">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>48</v>
       </c>
       <c r="C38" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -6671,7 +6671,7 @@
         <v>45721</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6825,7 +6825,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
         <v>98</v>
@@ -6979,16 +6979,16 @@
         <v>36</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
         <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
         <v>98</v>
@@ -6997,7 +6997,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7017,10 +7017,10 @@
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7139,19 +7139,19 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
         <v>98</v>
@@ -7160,7 +7160,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7180,10 +7180,10 @@
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7302,19 +7302,17 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3345</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
         <v>98</v>
@@ -7343,10 +7341,10 @@
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
         <v>0</v>
@@ -7403,10 +7401,10 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="1">
         <v>0</v>
@@ -7465,19 +7463,19 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
         <v>98</v>
@@ -7486,13 +7484,13 @@
         <v>45797</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7569,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -7614,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="BA43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB43" s="1">
         <v>0</v>
@@ -7628,19 +7626,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
-        <v>10836</v>
+        <v>3676</v>
       </c>
       <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" t="s">
-        <v>61</v>
       </c>
       <c r="G44" t="s">
         <v>98</v>
@@ -7649,7 +7647,7 @@
         <v>45797</v>
       </c>
       <c r="I44" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7684,10 +7682,10 @@
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
@@ -7768,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="AX44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY44" s="1">
         <v>0</v>
@@ -7791,19 +7789,19 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
         <v>98</v>
@@ -7812,13 +7810,13 @@
         <v>45797</v>
       </c>
       <c r="I45" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7847,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="1">
         <v>0</v>
@@ -7895,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -7940,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="1">
         <v>0</v>
@@ -7954,17 +7952,19 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6213</v>
+      </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
         <v>98</v>
@@ -7973,7 +7973,7 @@
         <v>45797</v>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8115,19 +8115,19 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -8136,7 +8136,7 @@
         <v>45797</v>
       </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8156,10 +8156,10 @@
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="1">
         <v>0</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8278,19 +8278,19 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
         <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
         <v>98</v>
@@ -8453,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -8616,7 +8616,7 @@
         <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -8767,19 +8767,17 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
         <v>98</v>
@@ -8868,10 +8866,10 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -8916,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="1">
         <v>0</v>
@@ -8930,17 +8928,19 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C52" s="1">
+        <v>88890</v>
+      </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -9029,10 +9029,10 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB52" s="1">
         <v>0</v>
@@ -9091,19 +9091,19 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1">
         <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
         <v>81</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
         <v>98</v>
@@ -9112,7 +9112,7 @@
         <v>45797</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9266,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
         <v>98</v>
@@ -9417,19 +9417,19 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G55" t="s">
         <v>98</v>
@@ -9438,13 +9438,13 @@
         <v>45723</v>
       </c>
       <c r="I55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9467,10 +9467,10 @@
         <v>0</v>
       </c>
       <c r="T55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
         <v>1</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="1">
         <v>0</v>
@@ -9580,19 +9580,19 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1">
         <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
         <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
         <v>98</v>
@@ -9601,7 +9601,7 @@
         <v>45723</v>
       </c>
       <c r="I56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -9743,19 +9743,19 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C57" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
         <v>98</v>
@@ -9764,13 +9764,13 @@
         <v>45723</v>
       </c>
       <c r="I57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -9793,10 +9793,10 @@
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="1">
         <v>0</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>1</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57" s="1">
         <v>0</v>
@@ -9906,19 +9906,19 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1">
-        <v>6089</v>
+        <v>3821</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
         <v>98</v>
@@ -9927,13 +9927,13 @@
         <v>45721</v>
       </c>
       <c r="I58" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -9995,10 +9995,10 @@
         <v>0</v>
       </c>
       <c r="AG58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="1">
         <v>0</v>
@@ -10081,7 +10081,7 @@
         <v>84</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -10090,7 +10090,7 @@
         <v>45721</v>
       </c>
       <c r="I59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10232,19 +10232,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C60" s="1">
-        <v>3821</v>
+        <v>6089</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
         <v>98</v>
@@ -10253,13 +10253,13 @@
         <v>45721</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="AG60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="1">
         <v>0</v>
@@ -10395,19 +10395,19 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="1">
         <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
         <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
@@ -10558,17 +10558,19 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C62" s="1">
+        <v>88890</v>
+      </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
         <v>98</v>
@@ -10577,7 +10579,7 @@
         <v>45797</v>
       </c>
       <c r="I62" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10657,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10705,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB62" s="1">
         <v>0</v>
@@ -10719,19 +10721,17 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C63" s="1"/>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
         <v>98</v>
@@ -10740,7 +10740,7 @@
         <v>45797</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="1">
         <v>0</v>
@@ -10882,16 +10882,14 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="1">
-        <v>66924</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C64" s="1"/>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
         <v>96</v>
@@ -10903,7 +10901,7 @@
         <v>45797</v>
       </c>
       <c r="I64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
@@ -11045,19 +11043,19 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" s="1">
         <v>3345</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
         <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
         <v>98</v>
@@ -11208,14 +11206,16 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C66" s="1">
+        <v>12107</v>
+      </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s">
         <v>96</v>
@@ -11227,7 +11227,7 @@
         <v>45797</v>
       </c>
       <c r="I66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB66" s="1">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -11532,16 +11532,16 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C68" s="1">
-        <v>12107</v>
+        <v>66924</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s">
         <v>96</v>
@@ -11553,7 +11553,7 @@
         <v>45797</v>
       </c>
       <c r="I68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="1">
         <v>0</v>
@@ -11695,19 +11695,19 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C69" s="1">
         <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G69" t="s">
         <v>98</v>
@@ -11716,7 +11716,7 @@
         <v>45761</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -11858,19 +11858,19 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1">
         <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
         <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G70" t="s">
         <v>98</v>
@@ -12021,19 +12021,19 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1">
         <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
         <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G71" t="s">
         <v>98</v>
@@ -12184,19 +12184,19 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C72" s="1">
         <v>88890</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G72" t="s">
         <v>98</v>
@@ -12205,7 +12205,7 @@
         <v>45761</v>
       </c>
       <c r="I72" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -12351,10 +12351,10 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F73" t="s">
         <v>96</v>
@@ -12366,7 +12366,7 @@
         <v>45761</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -12508,19 +12508,19 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C74" s="1">
         <v>88890</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G74" t="s">
         <v>98</v>
@@ -12529,7 +12529,7 @@
         <v>45761</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -12671,19 +12671,19 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1">
         <v>3345</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
         <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
@@ -12834,19 +12834,19 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D76" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
@@ -12855,7 +12855,7 @@
         <v>45762</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -12875,16 +12875,16 @@
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="1">
         <v>0</v>
@@ -12997,17 +12997,19 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C77" s="1">
+        <v>68602</v>
+      </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G77" t="s">
         <v>98</v>
@@ -13016,13 +13018,13 @@
         <v>45762</v>
       </c>
       <c r="I77" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -13090,10 +13092,10 @@
         <v>0</v>
       </c>
       <c r="AI77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
@@ -13158,19 +13160,17 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2802</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C78" s="1"/>
       <c r="D78" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G78" t="s">
         <v>98</v>
@@ -13179,13 +13179,13 @@
         <v>45762</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13253,10 +13253,10 @@
         <v>0</v>
       </c>
       <c r="AI78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK78" s="1">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="AR78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS78" s="1">
         <v>0</v>
@@ -13321,17 +13321,19 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C79" s="1">
+        <v>91725431</v>
+      </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G79" t="s">
         <v>98</v>
@@ -13340,13 +13342,13 @@
         <v>45762</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="J79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13482,16 +13484,14 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="1">
-        <v>68602</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C80" s="1"/>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F80" t="s">
         <v>96</v>
@@ -13503,7 +13503,7 @@
         <v>45762</v>
       </c>
       <c r="I80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13645,16 +13645,14 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="1">
-        <v>3676</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C81" s="1"/>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E81" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F81" t="s">
         <v>96</v>
@@ -13666,7 +13664,7 @@
         <v>45762</v>
       </c>
       <c r="I81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
@@ -13785,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="AX81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY81" s="1">
         <v>0</v>
@@ -13808,19 +13806,19 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C82" s="1">
-        <v>91725431</v>
+        <v>3676</v>
       </c>
       <c r="D82" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G82" t="s">
         <v>98</v>
@@ -13829,13 +13827,13 @@
         <v>45762</v>
       </c>
       <c r="I82" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="J82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -13948,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="AX82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY82" s="1">
         <v>0</v>
@@ -13971,17 +13969,19 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C83" s="1">
+        <v>88890</v>
+      </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G83" t="s">
         <v>98</v>
@@ -13990,13 +13990,13 @@
         <v>45762</v>
       </c>
       <c r="I83" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1">
@@ -14070,10 +14070,10 @@
         <v>0</v>
       </c>
       <c r="AK83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -14118,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="BA83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB83" s="1">
         <v>0</v>
@@ -14132,19 +14132,19 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C84" s="1">
-        <v>88890</v>
+        <v>2802</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G84" t="s">
         <v>98</v>
@@ -14156,10 +14156,10 @@
         <v>104</v>
       </c>
       <c r="J84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -14233,10 +14233,10 @@
         <v>0</v>
       </c>
       <c r="AK84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="AR84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS84" s="1">
         <v>0</v>
@@ -14281,7 +14281,7 @@
         <v>0</v>
       </c>
       <c r="BA84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB84" s="1">
         <v>0</v>
@@ -14295,19 +14295,19 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C85" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F85" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G85" t="s">
         <v>98</v>
@@ -14316,7 +14316,7 @@
         <v>45762</v>
       </c>
       <c r="I85" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -14336,16 +14336,16 @@
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -111,39 +111,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>erythritol</t>
   </si>
   <si>
@@ -153,15 +153,15 @@
     <t>N-phenylpropanamide</t>
   </si>
   <si>
+    <t>ecgonine methylester (EME)</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>tetracaine</t>
   </si>
   <si>
@@ -171,12 +171,12 @@
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
     <t>NPP</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
     <t>clonazepam</t>
   </si>
   <si>
@@ -189,48 +189,48 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>103-90-2</t>
   </si>
   <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -249,45 +249,45 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -321,60 +321,60 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>10.45</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
     <t>4.52</t>
   </si>
   <si>
+    <t>7.18</t>
+  </si>
+  <si>
     <t>10.43</t>
   </si>
   <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
     <t>6.41</t>
   </si>
   <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>4.44</t>
+    <t>9.24</t>
   </si>
   <si>
     <t>4.47</t>
   </si>
   <si>
-    <t>9.24</t>
-  </si>
-  <si>
     <t>4.31</t>
   </si>
   <si>
     <t>10.48</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>5.02</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -387,18 +387,18 @@
     <t>10.46</t>
   </si>
   <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>10.44</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
     <t>8.39</t>
   </si>
   <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>10.44</t>
-  </si>
-  <si>
     <t>5.62</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>2.38</t>
+  </si>
+  <si>
     <t>7.21</t>
   </si>
   <si>
-    <t>2.38</t>
-  </si>
-  <si>
     <t>10.42</t>
   </si>
   <si>
@@ -423,13 +423,13 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>12.54</t>
+  </si>
+  <si>
     <t>7.59</t>
-  </si>
-  <si>
-    <t>12.54</t>
-  </si>
-  <si>
-    <t>7.51</t>
   </si>
   <si>
     <t>primary</t>
@@ -802,7 +802,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -956,7 +956,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -965,7 +965,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -1281,14 +1281,12 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1">
-        <v>3676</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>96</v>
@@ -1374,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
@@ -1419,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1445,16 +1443,16 @@
         <v>35</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -1463,13 +1461,13 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1483,10 +1481,10 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1543,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1582,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1608,16 +1606,16 @@
         <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1626,7 +1624,7 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1646,10 +1644,10 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1754,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1770,15 +1768,17 @@
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>10836</v>
+      </c>
       <c r="D8" t="s">
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -1787,13 +1787,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -2092,19 +2092,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -2255,14 +2255,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>446220</v>
+      </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -2348,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>0</v>
@@ -2416,19 +2418,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>446220</v>
+        <v>3676</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
@@ -2437,13 +2439,13 @@
         <v>45797</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2481,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -2556,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="1">
         <v>0</v>
@@ -2579,19 +2581,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -2600,13 +2602,13 @@
         <v>45797</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2620,10 +2622,10 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -2680,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2742,19 +2744,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
-        <v>1983</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -2783,10 +2785,10 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2905,19 +2907,17 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1">
-        <v>6213</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -2926,13 +2926,13 @@
         <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="1">
         <v>0</v>
@@ -3068,19 +3068,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
-        <v>3676</v>
+        <v>10836</v>
       </c>
       <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
         <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -3089,7 +3089,7 @@
         <v>45797</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -3124,10 +3124,10 @@
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
         <v>96</v>
@@ -3394,19 +3394,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1">
-        <v>68602</v>
+        <v>6213</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -3415,13 +3415,13 @@
         <v>45797</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3557,19 +3557,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
-        <v>10836</v>
+        <v>68602</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -3578,13 +3578,13 @@
         <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3613,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -3723,16 +3723,16 @@
         <v>42</v>
       </c>
       <c r="C20" s="1">
-        <v>165365057</v>
+        <v>1983</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -3741,13 +3741,13 @@
         <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3883,19 +3883,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -4046,17 +4046,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3345</v>
+      </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -4065,7 +4067,7 @@
         <v>45797</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4085,10 +4087,10 @@
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -4145,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4207,19 +4209,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -4228,7 +4230,7 @@
         <v>45797</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4248,10 +4250,10 @@
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -4356,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="1">
         <v>0</v>
@@ -4370,19 +4372,17 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -4471,10 +4471,10 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4533,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>10836</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -4696,19 +4696,19 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -4717,13 +4717,13 @@
         <v>45723</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4737,10 +4737,10 @@
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4859,19 +4859,19 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -4880,7 +4880,7 @@
         <v>45723</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -4900,10 +4900,10 @@
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5022,19 +5022,19 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
-        <v>12107</v>
+        <v>156346345</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -5043,13 +5043,13 @@
         <v>45723</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -5185,19 +5185,19 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
         <v>98</v>
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5348,19 +5348,19 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>10836</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -5511,17 +5511,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C31" s="1">
+        <v>88890</v>
+      </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5530,7 +5532,7 @@
         <v>45797</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5610,10 +5612,10 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5658,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5672,19 +5674,17 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -5693,7 +5693,7 @@
         <v>45797</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5773,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5835,19 +5835,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <v>3345</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
         <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -5856,7 +5856,7 @@
         <v>45797</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5998,19 +5998,19 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>10836</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -6161,19 +6161,19 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>10836</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -6324,19 +6324,19 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
         <v>98</v>
@@ -6345,13 +6345,13 @@
         <v>45721</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6386,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="1">
         <v>0</v>
@@ -6487,16 +6487,16 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1">
         <v>104904</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
@@ -6650,16 +6650,16 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1">
         <v>119478</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
@@ -6813,19 +6813,19 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G39" t="s">
         <v>98</v>
@@ -6834,13 +6834,13 @@
         <v>45721</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6875,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="1">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39" s="1">
         <v>0</v>
@@ -6976,19 +6976,19 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
         <v>98</v>
@@ -6997,7 +6997,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7139,19 +7139,19 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
         <v>98</v>
@@ -7302,17 +7302,19 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10836</v>
+      </c>
       <c r="D42" t="s">
         <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
         <v>98</v>
@@ -7356,10 +7358,10 @@
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="1">
         <v>0</v>
@@ -7466,16 +7468,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D43" t="s">
         <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
         <v>98</v>
@@ -7484,13 +7486,13 @@
         <v>45797</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7504,10 +7506,10 @@
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
@@ -7564,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
         <v>1</v>
@@ -7612,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="BA43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB43" s="1">
         <v>0</v>
@@ -7626,19 +7628,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>3676</v>
+        <v>6213</v>
       </c>
       <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>60</v>
-      </c>
-      <c r="E44" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" t="s">
-        <v>63</v>
       </c>
       <c r="G44" t="s">
         <v>98</v>
@@ -7647,7 +7649,7 @@
         <v>45797</v>
       </c>
       <c r="I44" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7766,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="AX44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY44" s="1">
         <v>0</v>
@@ -7789,19 +7791,19 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1">
-        <v>10836</v>
+        <v>3676</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
         <v>98</v>
@@ -7810,7 +7812,7 @@
         <v>45797</v>
       </c>
       <c r="I45" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7845,10 +7847,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="1">
         <v>0</v>
@@ -7929,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY45" s="1">
         <v>0</v>
@@ -7952,19 +7954,19 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G46" t="s">
         <v>98</v>
@@ -7973,13 +7975,13 @@
         <v>45797</v>
       </c>
       <c r="I46" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -8056,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8101,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8115,19 +8117,17 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3345</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -8156,10 +8156,10 @@
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1">
         <v>0</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -8278,19 +8278,19 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
         <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
         <v>98</v>
@@ -8453,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -8616,7 +8616,7 @@
         <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -8767,17 +8767,19 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C51" s="1">
+        <v>88890</v>
+      </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
         <v>98</v>
@@ -8866,10 +8868,10 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -8914,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="1">
         <v>0</v>
@@ -8928,19 +8930,17 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -9029,10 +9029,10 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="1">
         <v>0</v>
@@ -9091,19 +9091,19 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1">
         <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
         <v>81</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
         <v>98</v>
@@ -9112,7 +9112,7 @@
         <v>45797</v>
       </c>
       <c r="I53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9266,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
         <v>98</v>
@@ -9417,16 +9417,16 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1">
         <v>5707</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F55" t="s">
         <v>96</v>
@@ -9580,19 +9580,19 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G56" t="s">
         <v>98</v>
@@ -9621,10 +9621,10 @@
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB56" s="1">
         <v>0</v>
@@ -9746,16 +9746,16 @@
         <v>36</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
         <v>98</v>
@@ -9784,10 +9784,10 @@
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="1">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="1">
         <v>0</v>
@@ -9906,19 +9906,19 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
         <v>98</v>
@@ -9995,10 +9995,10 @@
         <v>0</v>
       </c>
       <c r="AG58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="1">
         <v>0</v>
@@ -10069,19 +10069,19 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C59" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -10158,10 +10158,10 @@
         <v>0</v>
       </c>
       <c r="AG59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="1">
         <v>0</v>
@@ -10395,19 +10395,19 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C61" s="1">
         <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E61" t="s">
         <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
@@ -10558,19 +10558,17 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>98</v>
@@ -10579,7 +10577,7 @@
         <v>45797</v>
       </c>
       <c r="I62" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10659,10 +10657,10 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10707,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="1">
         <v>0</v>
@@ -10721,17 +10719,19 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C63" s="1">
+        <v>88890</v>
+      </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G63" t="s">
         <v>98</v>
@@ -10740,7 +10740,7 @@
         <v>45797</v>
       </c>
       <c r="I63" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB63" s="1">
         <v>0</v>
@@ -10882,17 +10882,19 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3345</v>
+      </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G64" t="s">
         <v>98</v>
@@ -10901,13 +10903,13 @@
         <v>45797</v>
       </c>
       <c r="I64" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -10921,10 +10923,10 @@
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1">
         <v>0</v>
@@ -10981,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11043,19 +11045,19 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C65" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
         <v>98</v>
@@ -11064,13 +11066,13 @@
         <v>45797</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11084,10 +11086,10 @@
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1">
         <v>0</v>
@@ -11144,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11192,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11206,16 +11208,16 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1">
-        <v>12107</v>
+        <v>66924</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
         <v>96</v>
@@ -11355,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="1">
         <v>0</v>
@@ -11369,7 +11371,7 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="1">
         <v>91725431</v>
@@ -11381,7 +11383,7 @@
         <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -11532,16 +11534,14 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="1">
-        <v>66924</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F68" t="s">
         <v>96</v>
@@ -11695,19 +11695,19 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1">
         <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G69" t="s">
         <v>98</v>
@@ -11716,7 +11716,7 @@
         <v>45761</v>
       </c>
       <c r="I69" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -11858,19 +11858,19 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1">
         <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
         <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
         <v>98</v>
@@ -12021,19 +12021,19 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71" s="1">
         <v>3345</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E71" t="s">
         <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
         <v>98</v>
@@ -12184,19 +12184,17 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="D72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
         <v>98</v>
@@ -12205,13 +12203,13 @@
         <v>45761</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12285,10 +12283,10 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12333,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="BA72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB72" s="1">
         <v>0</v>
@@ -12347,17 +12345,19 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C73" s="1">
+        <v>88890</v>
+      </c>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G73" t="s">
         <v>98</v>
@@ -12366,13 +12366,13 @@
         <v>45761</v>
       </c>
       <c r="I73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12446,10 +12446,10 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="BA73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB73" s="1">
         <v>0</v>
@@ -12511,16 +12511,16 @@
         <v>36</v>
       </c>
       <c r="C74" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
         <v>62</v>
       </c>
       <c r="E74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G74" t="s">
         <v>98</v>
@@ -12529,7 +12529,7 @@
         <v>45761</v>
       </c>
       <c r="I74" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -12549,10 +12549,10 @@
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="1">
         <v>0</v>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="BA74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="1">
         <v>0</v>
@@ -12671,19 +12671,19 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C75" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
@@ -12692,7 +12692,7 @@
         <v>45761</v>
       </c>
       <c r="I75" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -12712,10 +12712,10 @@
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="1">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="BA75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB75" s="1">
         <v>0</v>
@@ -12834,19 +12834,19 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C76" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
@@ -12855,7 +12855,7 @@
         <v>45762</v>
       </c>
       <c r="I76" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -12881,10 +12881,10 @@
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76" s="1">
         <v>0</v>
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="BA76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB76" s="1">
         <v>0</v>
@@ -13003,10 +13003,10 @@
         <v>68602</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s">
         <v>96</v>
@@ -13160,17 +13160,17 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G78" t="s">
         <v>98</v>
@@ -13179,13 +13179,13 @@
         <v>45762</v>
       </c>
       <c r="I78" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13253,10 +13253,10 @@
         <v>0</v>
       </c>
       <c r="AI78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK78" s="1">
         <v>0</v>
@@ -13321,7 +13321,7 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C79" s="1">
         <v>91725431</v>
@@ -13333,7 +13333,7 @@
         <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G79" t="s">
         <v>98</v>
@@ -13342,7 +13342,7 @@
         <v>45762</v>
       </c>
       <c r="I79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -13484,14 +13484,14 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F80" t="s">
         <v>96</v>
@@ -13645,14 +13645,16 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2802</v>
+      </c>
       <c r="D81" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E81" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F81" t="s">
         <v>96</v>
@@ -13765,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="AR81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS81" s="1">
         <v>0</v>
@@ -13808,17 +13810,15 @@
       <c r="B82" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="1">
-        <v>3676</v>
-      </c>
+      <c r="C82" s="1"/>
       <c r="D82" t="s">
         <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G82" t="s">
         <v>98</v>
@@ -13827,13 +13827,13 @@
         <v>45762</v>
       </c>
       <c r="I82" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -13901,10 +13901,10 @@
         <v>0</v>
       </c>
       <c r="AI82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK82" s="1">
         <v>0</v>
@@ -13946,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="AX82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY82" s="1">
         <v>0</v>
@@ -13969,19 +13969,19 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C83" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G83" t="s">
         <v>98</v>
@@ -13990,7 +13990,7 @@
         <v>45762</v>
       </c>
       <c r="I83" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14016,10 +14016,10 @@
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" s="1">
         <v>0</v>
@@ -14118,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="BA83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB83" s="1">
         <v>0</v>
@@ -14132,16 +14132,16 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1">
-        <v>2802</v>
+        <v>3676</v>
       </c>
       <c r="D84" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F84" t="s">
         <v>96</v>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="AR84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS84" s="1">
         <v>0</v>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="AX84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY84" s="1">
         <v>0</v>
@@ -14295,19 +14295,19 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C85" s="1">
         <v>3345</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E85" t="s">
         <v>81</v>
       </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G85" t="s">
         <v>98</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -111,36 +111,36 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>acetaminophen</t>
   </si>
   <si>
@@ -156,12 +156,12 @@
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>tetracaine</t>
   </si>
   <si>
@@ -189,24 +189,24 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>537-46-2</t>
-  </si>
-  <si>
     <t>7361-61-7</t>
   </si>
   <si>
@@ -225,12 +225,12 @@
     <t>9/1/7143</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>4764-17-4</t>
   </si>
   <si>
@@ -249,21 +249,21 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
-  </si>
-  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
@@ -282,12 +282,12 @@
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>XJZ28FJ27W</t>
   </si>
   <si>
@@ -321,42 +321,42 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
     <t>9.26</t>
   </si>
   <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>10.45</t>
   </si>
   <si>
-    <t>4.39</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
     <t>4.52</t>
   </si>
   <si>
+    <t>2.42</t>
+  </si>
+  <si>
     <t>7.18</t>
   </si>
   <si>
     <t>10.43</t>
   </si>
   <si>
+    <t>6.41</t>
+  </si>
+  <si>
     <t>4.44</t>
   </si>
   <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>6.41</t>
-  </si>
-  <si>
     <t>9.24</t>
   </si>
   <si>
@@ -387,15 +387,15 @@
     <t>10.46</t>
   </si>
   <si>
+    <t>2.41</t>
+  </si>
+  <si>
     <t>4.38</t>
   </si>
   <si>
     <t>10.44</t>
   </si>
   <si>
-    <t>2.41</t>
-  </si>
-  <si>
     <t>8.39</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>7.21</t>
+  </si>
+  <si>
     <t>2.38</t>
   </si>
   <si>
-    <t>7.21</t>
-  </si>
-  <si>
     <t>10.42</t>
   </si>
   <si>
@@ -423,13 +423,13 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>7.59</t>
+  </si>
+  <si>
     <t>7.51</t>
   </si>
   <si>
     <t>12.54</t>
-  </si>
-  <si>
-    <t>7.59</t>
   </si>
   <si>
     <t>primary</t>
@@ -802,7 +802,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -956,7 +956,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -965,7 +965,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1118,17 +1118,15 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1">
-        <v>66924</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -1140,10 +1138,10 @@
         <v>103</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1211,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="1">
         <v>0</v>
@@ -1281,15 +1279,17 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>10836</v>
+      </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
@@ -1301,10 +1301,10 @@
         <v>104</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
@@ -1615,7 +1615,7 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1644,10 +1644,10 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -1778,7 +1778,7 @@
         <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -1807,10 +1807,10 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -2092,19 +2092,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -2276,7 +2276,7 @@
         <v>45797</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
-        <v>3676</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
@@ -2439,13 +2439,13 @@
         <v>45797</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>0</v>
@@ -2581,19 +2581,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
-        <v>165365057</v>
+        <v>6213</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -2602,13 +2602,13 @@
         <v>45797</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2744,19 +2744,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>68602</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -2765,13 +2765,13 @@
         <v>45797</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2785,10 +2785,10 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2907,14 +2907,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>96</v>
@@ -2926,7 +2928,7 @@
         <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -3000,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>0</v>
@@ -3009,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3054,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3068,19 +3070,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
-        <v>10836</v>
+        <v>3676</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -3089,7 +3091,7 @@
         <v>45797</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -3124,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3231,19 +3233,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
         <v>98</v>
@@ -3252,13 +3254,13 @@
         <v>45797</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3272,19 +3274,19 @@
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -3394,19 +3396,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1">
-        <v>6213</v>
+        <v>1983</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -3557,19 +3559,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
-        <v>68602</v>
+        <v>10836</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -3578,13 +3580,13 @@
         <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3613,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -3720,19 +3722,17 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1983</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -3741,13 +3741,13 @@
         <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="1">
         <v>0</v>
@@ -3883,19 +3883,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
         <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -4049,7 +4049,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D22" t="s">
         <v>62</v>
@@ -4058,7 +4058,7 @@
         <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -4067,7 +4067,7 @@
         <v>45797</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4087,10 +4087,10 @@
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4209,19 +4209,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -4230,7 +4230,7 @@
         <v>45797</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4250,10 +4250,10 @@
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="1">
         <v>0</v>
@@ -4376,13 +4376,13 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -4533,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <v>10836</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -4696,19 +4696,19 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1">
         <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -4859,19 +4859,19 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <v>88890</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -5028,10 +5028,10 @@
         <v>156346345</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>96</v>
@@ -5043,7 +5043,7 @@
         <v>45723</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
         <v>98</v>
@@ -5348,19 +5348,19 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
         <v>10836</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -5511,19 +5511,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <v>88890</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5674,17 +5674,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3345</v>
+      </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -5693,7 +5695,7 @@
         <v>45797</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5713,10 +5715,10 @@
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -5773,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5835,19 +5837,17 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -5856,7 +5856,7 @@
         <v>45797</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5876,10 +5876,10 @@
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -5936,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -5998,19 +5998,19 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>10836</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -6161,19 +6161,19 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <v>10836</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -6324,19 +6324,19 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>98</v>
@@ -6345,13 +6345,13 @@
         <v>45721</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6386,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -6487,19 +6487,19 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
         <v>98</v>
@@ -6508,13 +6508,13 @@
         <v>45721</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6549,10 +6549,10 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D38" t="s">
         <v>70</v>
@@ -6671,7 +6671,7 @@
         <v>45721</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38" s="1">
         <v>0</v>
@@ -6816,7 +6816,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D39" t="s">
         <v>71</v>
@@ -6834,7 +6834,7 @@
         <v>45721</v>
       </c>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="1">
         <v>0</v>
@@ -6976,19 +6976,19 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1">
         <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
         <v>98</v>
@@ -6997,7 +6997,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7139,19 +7139,19 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
         <v>98</v>
@@ -7302,19 +7302,19 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
         <v>98</v>
@@ -7323,13 +7323,13 @@
         <v>45797</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7358,10 +7358,10 @@
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42" s="1">
         <v>0</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB42" s="1">
         <v>0</v>
@@ -7465,19 +7465,19 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1">
-        <v>3345</v>
+        <v>6213</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
         <v>98</v>
@@ -7486,7 +7486,7 @@
         <v>45797</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7506,10 +7506,10 @@
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
@@ -7566,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -7628,19 +7628,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
         <v>98</v>
@@ -7649,7 +7649,7 @@
         <v>45797</v>
       </c>
       <c r="I44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7684,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
@@ -7791,19 +7791,19 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
         <v>98</v>
@@ -7812,7 +7812,7 @@
         <v>45797</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7832,10 +7832,10 @@
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="1">
         <v>0</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="1">
         <v>0</v>
@@ -7954,19 +7954,19 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
         <v>98</v>
@@ -7975,13 +7975,13 @@
         <v>45797</v>
       </c>
       <c r="I46" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8121,13 +8121,13 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -8278,19 +8278,19 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G48" t="s">
         <v>98</v>
@@ -8299,7 +8299,7 @@
         <v>45761</v>
       </c>
       <c r="I48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -8616,7 +8616,7 @@
         <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -8767,19 +8767,19 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
         <v>98</v>
@@ -8788,7 +8788,7 @@
         <v>45797</v>
       </c>
       <c r="I51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -8808,10 +8808,10 @@
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="1">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="1">
         <v>0</v>
@@ -8930,17 +8930,19 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C52" s="1">
+        <v>88890</v>
+      </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -8949,7 +8951,7 @@
         <v>45797</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -9029,10 +9031,10 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -9077,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB52" s="1">
         <v>0</v>
@@ -9091,19 +9093,17 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G53" t="s">
         <v>98</v>
@@ -9112,7 +9112,7 @@
         <v>45797</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9132,10 +9132,10 @@
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1">
         <v>0</v>
@@ -9192,10 +9192,10 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G54" t="s">
         <v>98</v>
@@ -9417,19 +9417,19 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C55" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G55" t="s">
         <v>98</v>
@@ -9438,13 +9438,13 @@
         <v>45723</v>
       </c>
       <c r="I55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9458,19 +9458,19 @@
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="1">
         <v>0</v>
       </c>
       <c r="T55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" s="1">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
         <v>1</v>
@@ -9580,19 +9580,19 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C56" s="1">
         <v>88890</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G56" t="s">
         <v>98</v>
@@ -9601,7 +9601,7 @@
         <v>45723</v>
       </c>
       <c r="I56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -9743,19 +9743,19 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
         <v>98</v>
@@ -9764,13 +9764,13 @@
         <v>45723</v>
       </c>
       <c r="I57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -9784,19 +9784,19 @@
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1">
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="1">
         <v>0</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>1</v>
@@ -9906,19 +9906,19 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C58" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s">
         <v>98</v>
@@ -9927,13 +9927,13 @@
         <v>45721</v>
       </c>
       <c r="I58" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10069,19 +10069,19 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1">
         <v>3821</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -10090,7 +10090,7 @@
         <v>45721</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10232,19 +10232,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G60" t="s">
         <v>98</v>
@@ -10253,13 +10253,13 @@
         <v>45721</v>
       </c>
       <c r="I60" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10395,19 +10395,17 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
@@ -10416,7 +10414,7 @@
         <v>45797</v>
       </c>
       <c r="I61" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -10436,10 +10434,10 @@
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1">
         <v>0</v>
@@ -10496,10 +10494,10 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10558,17 +10556,19 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3345</v>
+      </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G62" t="s">
         <v>98</v>
@@ -10577,7 +10577,7 @@
         <v>45797</v>
       </c>
       <c r="I62" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10597,10 +10597,10 @@
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="1">
         <v>0</v>
@@ -10657,10 +10657,10 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10719,19 +10719,19 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C63" s="1">
         <v>88890</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G63" t="s">
         <v>98</v>
@@ -10882,19 +10882,19 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1">
         <v>3345</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G64" t="s">
         <v>98</v>
@@ -11045,19 +11045,19 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C65" s="1">
-        <v>12107</v>
+        <v>91725431</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G65" t="s">
         <v>98</v>
@@ -11066,13 +11066,13 @@
         <v>45797</v>
       </c>
       <c r="I65" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11208,16 +11208,16 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" s="1">
         <v>66924</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s">
         <v>96</v>
@@ -11229,7 +11229,7 @@
         <v>45797</v>
       </c>
       <c r="I66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -11371,19 +11371,19 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C67" s="1">
-        <v>91725431</v>
+        <v>12107</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -11392,13 +11392,13 @@
         <v>45797</v>
       </c>
       <c r="I67" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -11520,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB67" s="1">
         <v>0</v>
@@ -11538,10 +11538,10 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s">
         <v>96</v>
@@ -11553,7 +11553,7 @@
         <v>45797</v>
       </c>
       <c r="I68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11695,19 +11695,19 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C69" s="1">
         <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G69" t="s">
         <v>98</v>
@@ -11716,7 +11716,7 @@
         <v>45761</v>
       </c>
       <c r="I69" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -11858,19 +11858,19 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" s="1">
         <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G70" t="s">
         <v>98</v>
@@ -12024,7 +12024,7 @@
         <v>36</v>
       </c>
       <c r="C71" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D71" t="s">
         <v>62</v>
@@ -12033,7 +12033,7 @@
         <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G71" t="s">
         <v>98</v>
@@ -12042,7 +12042,7 @@
         <v>45761</v>
       </c>
       <c r="I71" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -12062,10 +12062,10 @@
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1">
         <v>0</v>
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="BA71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB71" s="1">
         <v>0</v>
@@ -12188,10 +12188,10 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
         <v>96</v>
@@ -12203,7 +12203,7 @@
         <v>45761</v>
       </c>
       <c r="I72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -12345,19 +12345,19 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C73" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G73" t="s">
         <v>98</v>
@@ -12366,7 +12366,7 @@
         <v>45761</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -12386,10 +12386,10 @@
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="1">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="BA73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="1">
         <v>0</v>
@@ -12508,19 +12508,19 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" s="1">
         <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G74" t="s">
         <v>98</v>
@@ -12671,19 +12671,19 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C75" s="1">
         <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
@@ -12692,7 +12692,7 @@
         <v>45761</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -12834,19 +12834,19 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
@@ -12855,7 +12855,7 @@
         <v>45762</v>
       </c>
       <c r="I76" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -12875,10 +12875,10 @@
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" s="1">
         <v>0</v>
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="BA76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB76" s="1">
         <v>0</v>
@@ -12997,16 +12997,14 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="1">
-        <v>68602</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C77" s="1"/>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F77" t="s">
         <v>96</v>
@@ -13018,7 +13016,7 @@
         <v>45762</v>
       </c>
       <c r="I77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -13160,17 +13158,19 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5707</v>
+      </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E78" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
         <v>98</v>
@@ -13179,13 +13179,13 @@
         <v>45762</v>
       </c>
       <c r="I78" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13205,10 +13205,10 @@
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="1">
         <v>0</v>
@@ -13259,10 +13259,10 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -13321,19 +13321,19 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C79" s="1">
-        <v>91725431</v>
+        <v>88890</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E79" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G79" t="s">
         <v>98</v>
@@ -13342,7 +13342,7 @@
         <v>45762</v>
       </c>
       <c r="I79" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -13422,10 +13422,10 @@
         <v>0</v>
       </c>
       <c r="AK79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13470,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="BA79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB79" s="1">
         <v>0</v>
@@ -13484,14 +13484,16 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2802</v>
+      </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E80" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F80" t="s">
         <v>96</v>
@@ -13503,7 +13505,7 @@
         <v>45762</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13604,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="AR80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS80" s="1">
         <v>0</v>
@@ -13645,19 +13647,19 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C81" s="1">
-        <v>2802</v>
+        <v>91725431</v>
       </c>
       <c r="D81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G81" t="s">
         <v>98</v>
@@ -13666,13 +13668,13 @@
         <v>45762</v>
       </c>
       <c r="I81" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="J81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -13767,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="AR81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS81" s="1">
         <v>0</v>
@@ -13808,17 +13810,17 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G82" t="s">
         <v>98</v>
@@ -13827,7 +13829,7 @@
         <v>45762</v>
       </c>
       <c r="I82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -13969,19 +13971,17 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83" s="1">
-        <v>5707</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C83" s="1"/>
       <c r="D83" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E83" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G83" t="s">
         <v>98</v>
@@ -13990,13 +13990,13 @@
         <v>45762</v>
       </c>
       <c r="I83" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="J83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1">
@@ -14016,10 +14016,10 @@
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="1">
         <v>0</v>
@@ -14070,10 +14070,10 @@
         <v>0</v>
       </c>
       <c r="AK83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -14132,16 +14132,16 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C84" s="1">
-        <v>3676</v>
+        <v>68602</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F84" t="s">
         <v>96</v>
@@ -14153,7 +14153,7 @@
         <v>45762</v>
       </c>
       <c r="I84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="AX84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="1">
         <v>0</v>
@@ -14295,19 +14295,19 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G85" t="s">
         <v>98</v>
@@ -14316,13 +14316,13 @@
         <v>45762</v>
       </c>
       <c r="I85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14336,10 +14336,10 @@
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85" s="1">
         <v>0</v>
@@ -14396,10 +14396,10 @@
         <v>0</v>
       </c>
       <c r="AK85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
       <c r="AX85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY85" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -111,39 +111,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
     <t>erythritol</t>
   </si>
   <si>
@@ -189,22 +189,28 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>103-90-2</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>7361-61-7</t>
@@ -213,12 +219,6 @@
     <t>67-71-0</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>103-90-2</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
@@ -249,19 +249,25 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
@@ -270,12 +276,6 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>362O9ITL9D</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
@@ -321,60 +321,60 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>4.75</t>
   </si>
   <si>
-    <t>.</t>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>9.26</t>
   </si>
   <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>10.45</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
     <t>4.52</t>
   </si>
   <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>6.41</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
     <t>2.42</t>
   </si>
   <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>10.43</t>
-  </si>
-  <si>
-    <t>6.41</t>
-  </si>
-  <si>
-    <t>4.44</t>
+    <t>4.47</t>
   </si>
   <si>
     <t>9.24</t>
   </si>
   <si>
-    <t>4.47</t>
-  </si>
-  <si>
     <t>4.31</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>10.48</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
-    <t>5.02</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -387,18 +387,18 @@
     <t>10.46</t>
   </si>
   <si>
+    <t>8.39</t>
+  </si>
+  <si>
     <t>2.41</t>
   </si>
   <si>
+    <t>10.44</t>
+  </si>
+  <si>
     <t>4.38</t>
   </si>
   <si>
-    <t>10.44</t>
-  </si>
-  <si>
-    <t>8.39</t>
-  </si>
-  <si>
     <t>5.62</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>2.38</t>
+  </si>
+  <si>
     <t>7.21</t>
   </si>
   <si>
-    <t>2.38</t>
-  </si>
-  <si>
     <t>10.42</t>
   </si>
   <si>
@@ -423,10 +423,10 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>7.51</t>
+  </si>
+  <si>
     <t>7.59</t>
-  </si>
-  <si>
-    <t>7.51</t>
   </si>
   <si>
     <t>12.54</t>
@@ -802,7 +802,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -956,7 +956,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>66924</v>
+        <v>3676</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -965,7 +965,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -977,10 +977,10 @@
         <v>102</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1118,15 +1118,17 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>66924</v>
+      </c>
       <c r="D4" t="s">
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -1138,10 +1140,10 @@
         <v>103</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1209,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>0</v>
@@ -1279,17 +1281,15 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1">
-        <v>10836</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
@@ -1298,13 +1298,13 @@
         <v>45762</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -1452,7 +1452,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -1461,13 +1461,13 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1481,10 +1481,10 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1541,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1769,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -1778,7 +1778,7 @@
         <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -1807,10 +1807,10 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -2092,19 +2092,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -2255,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>446220</v>
+        <v>3676</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
         <v>98</v>
@@ -2276,13 +2276,13 @@
         <v>45797</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -2439,7 +2439,7 @@
         <v>45797</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2581,19 +2581,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
-        <v>6213</v>
+        <v>1983</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -2602,7 +2602,7 @@
         <v>45797</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2744,16 +2744,14 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1">
-        <v>68602</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
@@ -2765,7 +2763,7 @@
         <v>45797</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2839,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="1">
         <v>0</v>
@@ -2907,16 +2905,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
-        <v>165365057</v>
+        <v>68602</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>96</v>
@@ -2928,7 +2926,7 @@
         <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -3011,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3056,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3070,19 +3068,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
-        <v>3676</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -3091,13 +3089,13 @@
         <v>45797</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3120,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -3174,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -3210,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3233,19 +3231,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>3345</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
         <v>98</v>
@@ -3396,19 +3394,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
-        <v>1983</v>
+        <v>10836</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -3452,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1">
         <v>0</v>
@@ -3559,19 +3557,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
-        <v>10836</v>
+        <v>165365057</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -3580,13 +3578,13 @@
         <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3615,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -3663,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3708,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3722,17 +3720,19 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6213</v>
+      </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -3741,13 +3741,13 @@
         <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>0</v>
@@ -3883,19 +3883,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>10836</v>
       </c>
       <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
         <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -4046,19 +4046,17 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -4147,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4195,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4209,19 +4207,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <v>3345</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -4372,17 +4370,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <v>88890</v>
+      </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -4471,10 +4471,10 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4533,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>10836</v>
       </c>
       <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
         <v>60</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -4696,19 +4696,19 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -4717,13 +4717,13 @@
         <v>45723</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4737,10 +4737,10 @@
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -4880,7 +4880,7 @@
         <v>45723</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -5022,19 +5022,19 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
-        <v>156346345</v>
+        <v>12107</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -5043,13 +5043,13 @@
         <v>45723</v>
       </c>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -5185,19 +5185,19 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
         <v>98</v>
@@ -5226,10 +5226,10 @@
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="BA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="1">
         <v>0</v>
@@ -5348,19 +5348,19 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>10836</v>
       </c>
       <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
         <v>60</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -5523,7 +5523,7 @@
         <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5532,7 +5532,7 @@
         <v>45797</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5674,19 +5674,17 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -5695,7 +5693,7 @@
         <v>45797</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5715,10 +5713,10 @@
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -5775,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5837,17 +5835,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3345</v>
+      </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -5856,7 +5856,7 @@
         <v>45797</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5876,10 +5876,10 @@
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -5936,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -5998,19 +5998,19 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>10836</v>
       </c>
       <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
         <v>60</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="s">
-        <v>59</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -6161,19 +6161,19 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>10836</v>
       </c>
       <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
         <v>60</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" t="s">
-        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -6324,19 +6324,19 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
         <v>98</v>
@@ -6345,13 +6345,13 @@
         <v>45721</v>
       </c>
       <c r="I36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6386,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -6487,19 +6487,19 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>104904</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>98</v>
@@ -6508,13 +6508,13 @@
         <v>45721</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6549,10 +6549,10 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>45721</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>45721</v>
       </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -6988,7 +6988,7 @@
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
         <v>98</v>
@@ -7139,19 +7139,19 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
         <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
         <v>98</v>
@@ -7302,19 +7302,17 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="1">
-        <v>88890</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
         <v>98</v>
@@ -7323,13 +7321,13 @@
         <v>45797</v>
       </c>
       <c r="I42" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7406,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="1">
         <v>0</v>
@@ -7451,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="1">
         <v>0</v>
@@ -7465,19 +7463,19 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
         <v>6213</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
         <v>98</v>
@@ -7486,7 +7484,7 @@
         <v>45797</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7628,19 +7626,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>60</v>
-      </c>
-      <c r="E44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>59</v>
       </c>
       <c r="G44" t="s">
         <v>98</v>
@@ -7649,7 +7647,7 @@
         <v>45797</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7669,10 +7667,10 @@
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -7684,10 +7682,10 @@
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
@@ -7729,10 +7727,10 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -7791,19 +7789,19 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G45" t="s">
         <v>98</v>
@@ -7812,13 +7810,13 @@
         <v>45797</v>
       </c>
       <c r="I45" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7832,10 +7830,10 @@
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1">
         <v>0</v>
@@ -7892,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="1">
         <v>1</v>
@@ -7940,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB45" s="1">
         <v>0</v>
@@ -7954,19 +7952,19 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>3676</v>
+        <v>10836</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
         <v>98</v>
@@ -7975,7 +7973,7 @@
         <v>45797</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8010,10 +8008,10 @@
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" s="1">
         <v>0</v>
@@ -8094,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8117,17 +8115,19 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3676</v>
+      </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -8136,7 +8136,7 @@
         <v>45797</v>
       </c>
       <c r="I47" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8278,19 +8278,19 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
         <v>98</v>
@@ -8299,7 +8299,7 @@
         <v>45761</v>
       </c>
       <c r="I48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -8616,7 +8616,7 @@
         <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -8767,19 +8767,19 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1">
         <v>3345</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
         <v>98</v>
@@ -8942,7 +8942,7 @@
         <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -8951,7 +8951,7 @@
         <v>45797</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -9097,13 +9097,13 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
         <v>98</v>
@@ -9112,7 +9112,7 @@
         <v>45797</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9266,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
         <v>98</v>
@@ -9417,19 +9417,19 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
         <v>98</v>
@@ -9438,7 +9438,7 @@
         <v>45723</v>
       </c>
       <c r="I55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -9458,10 +9458,10 @@
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB55" s="1">
         <v>0</v>
@@ -9580,19 +9580,19 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G56" t="s">
         <v>98</v>
@@ -9601,13 +9601,13 @@
         <v>45723</v>
       </c>
       <c r="I56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9630,10 +9630,10 @@
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>1</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="1">
         <v>0</v>
@@ -9743,19 +9743,19 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
         <v>98</v>
@@ -9764,13 +9764,13 @@
         <v>45723</v>
       </c>
       <c r="I57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -9784,19 +9784,19 @@
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="1">
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="1">
         <v>0</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>1</v>
@@ -9927,7 +9927,7 @@
         <v>45721</v>
       </c>
       <c r="I58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -10069,19 +10069,19 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C59" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -10158,10 +10158,10 @@
         <v>0</v>
       </c>
       <c r="AG59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="1">
         <v>0</v>
@@ -10232,19 +10232,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
         <v>98</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="AG60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="1">
         <v>0</v>
@@ -10399,13 +10399,13 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
@@ -10556,19 +10556,19 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C62" s="1">
         <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>98</v>
@@ -10731,7 +10731,7 @@
         <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G63" t="s">
         <v>98</v>
@@ -10740,7 +10740,7 @@
         <v>45797</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -10882,19 +10882,19 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C64" s="1">
         <v>3345</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G64" t="s">
         <v>98</v>
@@ -11045,19 +11045,19 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C65" s="1">
-        <v>91725431</v>
+        <v>12107</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
         <v>98</v>
@@ -11066,13 +11066,13 @@
         <v>45797</v>
       </c>
       <c r="I65" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11208,19 +11208,19 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C66" s="1">
-        <v>66924</v>
+        <v>91725431</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
         <v>98</v>
@@ -11229,13 +11229,13 @@
         <v>45797</v>
       </c>
       <c r="I66" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -11371,16 +11371,16 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1">
-        <v>12107</v>
+        <v>66924</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s">
         <v>96</v>
@@ -11392,7 +11392,7 @@
         <v>45797</v>
       </c>
       <c r="I67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -11520,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB67" s="1">
         <v>0</v>
@@ -11538,10 +11538,10 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" t="s">
         <v>96</v>
@@ -11553,7 +11553,7 @@
         <v>45797</v>
       </c>
       <c r="I68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11707,7 +11707,7 @@
         <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G69" t="s">
         <v>98</v>
@@ -11858,19 +11858,19 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1">
         <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
         <v>98</v>
@@ -12033,7 +12033,7 @@
         <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
         <v>98</v>
@@ -12184,17 +12184,19 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3345</v>
+      </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
         <v>98</v>
@@ -12203,13 +12205,13 @@
         <v>45761</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12223,10 +12225,10 @@
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" s="1">
         <v>0</v>
@@ -12283,10 +12285,10 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12345,19 +12347,17 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
         <v>98</v>
@@ -12366,13 +12366,13 @@
         <v>45761</v>
       </c>
       <c r="I73" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12386,10 +12386,10 @@
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1">
         <v>0</v>
@@ -12446,10 +12446,10 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12508,19 +12508,19 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C74" s="1">
         <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G74" t="s">
         <v>98</v>
@@ -12683,7 +12683,7 @@
         <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
@@ -12834,19 +12834,17 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="1">
-        <v>3345</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C76" s="1"/>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E76" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
@@ -12855,13 +12853,13 @@
         <v>45762</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -12875,10 +12873,10 @@
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" s="1">
         <v>0</v>
@@ -12935,10 +12933,10 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -13001,10 +12999,10 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F77" t="s">
         <v>96</v>
@@ -13016,7 +13014,7 @@
         <v>45762</v>
       </c>
       <c r="I77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -13158,19 +13156,19 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G78" t="s">
         <v>98</v>
@@ -13179,7 +13177,7 @@
         <v>45762</v>
       </c>
       <c r="I78" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -13205,10 +13203,10 @@
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U78" s="1">
         <v>0</v>
@@ -13307,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="BA78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB78" s="1">
         <v>0</v>
@@ -13321,19 +13319,19 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C79" s="1">
-        <v>88890</v>
+        <v>91725431</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G79" t="s">
         <v>98</v>
@@ -13342,7 +13340,7 @@
         <v>45762</v>
       </c>
       <c r="I79" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -13422,10 +13420,10 @@
         <v>0</v>
       </c>
       <c r="AK79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13470,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB79" s="1">
         <v>0</v>
@@ -13505,7 +13503,7 @@
         <v>45762</v>
       </c>
       <c r="I80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13647,19 +13645,19 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C81" s="1">
-        <v>91725431</v>
+        <v>68602</v>
       </c>
       <c r="D81" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E81" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G81" t="s">
         <v>98</v>
@@ -13668,13 +13666,13 @@
         <v>45762</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -13810,17 +13808,19 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3345</v>
+      </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E82" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G82" t="s">
         <v>98</v>
@@ -13829,7 +13829,7 @@
         <v>45762</v>
       </c>
       <c r="I82" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -13849,10 +13849,10 @@
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" s="1">
         <v>0</v>
@@ -13903,16 +13903,16 @@
         <v>0</v>
       </c>
       <c r="AI82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -13971,14 +13971,16 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3676</v>
+      </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F83" t="s">
         <v>96</v>
@@ -13990,7 +13992,7 @@
         <v>45762</v>
       </c>
       <c r="I83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
@@ -14109,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="AX83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY83" s="1">
         <v>0</v>
@@ -14135,7 +14137,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="1">
-        <v>68602</v>
+        <v>5707</v>
       </c>
       <c r="D84" t="s">
         <v>66</v>
@@ -14144,7 +14146,7 @@
         <v>85</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G84" t="s">
         <v>98</v>
@@ -14153,13 +14155,13 @@
         <v>45762</v>
       </c>
       <c r="I84" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -14179,10 +14181,10 @@
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" s="1">
         <v>0</v>
@@ -14233,10 +14235,10 @@
         <v>0</v>
       </c>
       <c r="AK84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -14295,19 +14297,17 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="1">
-        <v>3676</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C85" s="1"/>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E85" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G85" t="s">
         <v>98</v>
@@ -14316,13 +14316,13 @@
         <v>45762</v>
       </c>
       <c r="I85" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14390,10 +14390,10 @@
         <v>0</v>
       </c>
       <c r="AI85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK85" s="1">
         <v>0</v>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
       <c r="AX85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY85" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -111,48 +111,48 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>acetaminophen</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
     <t>erythritol</t>
   </si>
   <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
@@ -171,12 +171,12 @@
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
+    <t>NPP</t>
+  </si>
+  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>NPP</t>
-  </si>
-  <si>
     <t>clonazepam</t>
   </si>
   <si>
@@ -189,36 +189,36 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>537-46-2</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>105-70-4</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>537-46-2</t>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>103-90-2</t>
   </si>
   <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
@@ -249,33 +249,33 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>98PI200987</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>44RAL3456C</t>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
@@ -321,42 +321,42 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>10.45</t>
+  </si>
+  <si>
     <t>4.75</t>
   </si>
   <si>
-    <t>10.45</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
     <t>4.52</t>
   </si>
   <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>6.41</t>
+  </si>
+  <si>
     <t>7.18</t>
   </si>
   <si>
-    <t>6.41</t>
-  </si>
-  <si>
-    <t>10.43</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
     <t>4.47</t>
   </si>
   <si>
@@ -366,15 +366,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>10.48</t>
+  </si>
+  <si>
     <t>9.27</t>
   </si>
   <si>
     <t>5.02</t>
   </si>
   <si>
-    <t>10.48</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -387,18 +387,18 @@
     <t>10.46</t>
   </si>
   <si>
+    <t>10.44</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
     <t>8.39</t>
   </si>
   <si>
     <t>2.41</t>
   </si>
   <si>
-    <t>10.44</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
     <t>5.62</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>7.21</t>
+  </si>
+  <si>
     <t>2.38</t>
   </si>
   <si>
-    <t>7.21</t>
-  </si>
-  <si>
     <t>10.42</t>
   </si>
   <si>
@@ -423,13 +423,13 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>7.59</t>
+  </si>
+  <si>
+    <t>12.54</t>
+  </si>
+  <si>
     <t>7.51</t>
-  </si>
-  <si>
-    <t>7.59</t>
-  </si>
-  <si>
-    <t>12.54</t>
   </si>
   <si>
     <t>primary</t>
@@ -802,7 +802,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -956,7 +956,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>3676</v>
+        <v>10836</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -965,7 +965,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -977,10 +977,10 @@
         <v>102</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -1128,7 +1128,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1281,12 +1281,14 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>3676</v>
+      </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>96</v>
@@ -1298,7 +1300,7 @@
         <v>45762</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1372,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
@@ -1417,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1449,10 +1451,10 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -1461,7 +1463,7 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1606,16 +1608,16 @@
         <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1624,7 +1626,7 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1704,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1768,17 +1770,15 @@
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1">
-        <v>10836</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -1787,13 +1787,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -2092,19 +2092,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -2255,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>3676</v>
+        <v>446220</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
         <v>98</v>
@@ -2276,13 +2276,13 @@
         <v>45797</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
@@ -2439,13 +2439,13 @@
         <v>45797</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2459,10 +2459,10 @@
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="1">
-        <v>1983</v>
+        <v>6213</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -2593,7 +2593,7 @@
         <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -2744,17 +2744,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10836</v>
+      </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -2763,13 +2765,13 @@
         <v>45797</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2798,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>0</v>
@@ -2908,7 +2910,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="1">
-        <v>68602</v>
+        <v>1983</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
@@ -2917,7 +2919,7 @@
         <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -2926,13 +2928,13 @@
         <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -3068,19 +3070,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>3676</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -3089,13 +3091,13 @@
         <v>45797</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3118,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -3172,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3231,19 +3233,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
         <v>98</v>
@@ -3252,13 +3254,13 @@
         <v>45797</v>
       </c>
       <c r="I17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3272,10 +3274,10 @@
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -3380,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3396,17 +3398,15 @@
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1">
-        <v>10836</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
         <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -3415,13 +3415,13 @@
         <v>45797</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3450,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="1">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>41</v>
       </c>
       <c r="C19" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
@@ -3578,7 +3578,7 @@
         <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="1">
-        <v>6213</v>
+        <v>68602</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -3732,7 +3732,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -3741,13 +3741,13 @@
         <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3883,19 +3883,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>10836</v>
       </c>
       <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -4046,17 +4046,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3345</v>
+      </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -4065,7 +4067,7 @@
         <v>45797</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4085,10 +4087,10 @@
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -4145,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4207,19 +4209,17 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -4228,7 +4228,7 @@
         <v>45797</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4248,10 +4248,10 @@
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -4370,19 +4370,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
         <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -4533,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>10836</v>
       </c>
       <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -4696,19 +4696,19 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -4717,13 +4717,13 @@
         <v>45723</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4737,10 +4737,10 @@
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4859,19 +4859,19 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
         <v>88890</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -4880,7 +4880,7 @@
         <v>45723</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -5022,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
         <v>12107</v>
@@ -5034,7 +5034,7 @@
         <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -5043,7 +5043,7 @@
         <v>45723</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5185,19 +5185,19 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
         <v>98</v>
@@ -5206,13 +5206,13 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5226,10 +5226,10 @@
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="BA29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="1">
         <v>0</v>
@@ -5348,19 +5348,19 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <v>10836</v>
       </c>
       <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
         <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -5511,19 +5511,17 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5532,7 +5530,7 @@
         <v>45797</v>
       </c>
       <c r="I31" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5612,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5660,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5674,17 +5672,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C32" s="1">
+        <v>88890</v>
+      </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -5693,7 +5693,7 @@
         <v>45797</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5773,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5844,10 +5844,10 @@
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -5856,7 +5856,7 @@
         <v>45797</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5998,19 +5998,19 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>10836</v>
       </c>
       <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -6161,19 +6161,19 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <v>10836</v>
       </c>
       <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" t="s">
-        <v>60</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -6336,7 +6336,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
         <v>98</v>
@@ -6508,7 +6508,7 @@
         <v>45721</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>45721</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>45721</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -6976,19 +6976,19 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
         <v>98</v>
@@ -6997,7 +6997,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7017,10 +7017,10 @@
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7139,19 +7139,19 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
         <v>98</v>
@@ -7160,7 +7160,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7180,10 +7180,10 @@
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7302,17 +7302,19 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C42" s="1">
+        <v>88890</v>
+      </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
         <v>98</v>
@@ -7321,13 +7323,13 @@
         <v>45797</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7404,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42" s="1">
         <v>0</v>
@@ -7449,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB42" s="1">
         <v>0</v>
@@ -7463,19 +7465,19 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
         <v>98</v>
@@ -7484,7 +7486,7 @@
         <v>45797</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7504,10 +7506,10 @@
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
@@ -7564,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -7626,19 +7628,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
         <v>98</v>
@@ -7647,7 +7649,7 @@
         <v>45797</v>
       </c>
       <c r="I44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7667,10 +7669,10 @@
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -7682,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
@@ -7727,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -7789,19 +7791,19 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
         <v>98</v>
@@ -7810,13 +7812,13 @@
         <v>45797</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7893,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="1">
         <v>0</v>
@@ -7929,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY45" s="1">
         <v>0</v>
@@ -7938,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="1">
         <v>0</v>
@@ -7952,19 +7954,17 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="1">
-        <v>10836</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
         <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
         <v>98</v>
@@ -7973,7 +7973,7 @@
         <v>45797</v>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8008,10 +8008,10 @@
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="1">
         <v>0</v>
@@ -8115,19 +8115,19 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1">
-        <v>3676</v>
+        <v>6213</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -8136,7 +8136,7 @@
         <v>45797</v>
       </c>
       <c r="I47" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8287,10 +8287,10 @@
         <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
         <v>98</v>
@@ -8299,7 +8299,7 @@
         <v>45761</v>
       </c>
       <c r="I48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -8616,7 +8616,7 @@
         <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -8776,10 +8776,10 @@
         <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
         <v>98</v>
@@ -8788,7 +8788,7 @@
         <v>45797</v>
       </c>
       <c r="I51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -8930,19 +8930,17 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -8951,7 +8949,7 @@
         <v>45797</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -9031,10 +9029,10 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -9079,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="1">
         <v>0</v>
@@ -9093,17 +9091,19 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C53" s="1">
+        <v>88890</v>
+      </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
         <v>98</v>
@@ -9112,7 +9112,7 @@
         <v>45797</v>
       </c>
       <c r="I53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9192,10 +9192,10 @@
         <v>0</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB53" s="1">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
         <v>98</v>
@@ -9417,19 +9417,19 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C55" s="1">
         <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
         <v>98</v>
@@ -9438,7 +9438,7 @@
         <v>45723</v>
       </c>
       <c r="I55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -9580,7 +9580,7 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1">
         <v>5707</v>
@@ -9601,7 +9601,7 @@
         <v>45723</v>
       </c>
       <c r="I56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -9752,10 +9752,10 @@
         <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
         <v>98</v>
@@ -9764,7 +9764,7 @@
         <v>45723</v>
       </c>
       <c r="I57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -9927,7 +9927,7 @@
         <v>45721</v>
       </c>
       <c r="I58" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -10069,19 +10069,19 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1">
-        <v>6213</v>
+        <v>3821</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -10158,10 +10158,10 @@
         <v>0</v>
       </c>
       <c r="AG59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="1">
         <v>0</v>
@@ -10232,19 +10232,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
         <v>98</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="AG60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="1">
         <v>0</v>
@@ -10395,17 +10395,19 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3345</v>
+      </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
@@ -10414,7 +10416,7 @@
         <v>45797</v>
       </c>
       <c r="I61" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -10434,10 +10436,10 @@
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="1">
         <v>0</v>
@@ -10494,10 +10496,10 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10556,19 +10558,17 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
         <v>98</v>
@@ -10577,7 +10577,7 @@
         <v>45797</v>
       </c>
       <c r="I62" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10597,10 +10597,10 @@
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1">
         <v>0</v>
@@ -10657,10 +10657,10 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10719,19 +10719,19 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C63" s="1">
         <v>88890</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
         <v>98</v>
@@ -10882,19 +10882,19 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C64" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
         <v>98</v>
@@ -10903,13 +10903,13 @@
         <v>45797</v>
       </c>
       <c r="I64" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -10923,10 +10923,10 @@
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB64" s="1">
         <v>0</v>
@@ -11045,19 +11045,19 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C65" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
         <v>98</v>
@@ -11066,13 +11066,13 @@
         <v>45797</v>
       </c>
       <c r="I65" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11086,10 +11086,10 @@
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="1">
         <v>0</v>
@@ -11146,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11210,17 +11210,15 @@
       <c r="B66" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="1">
-        <v>91725431</v>
-      </c>
+      <c r="C66" s="1"/>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
         <v>98</v>
@@ -11229,13 +11227,13 @@
         <v>45797</v>
       </c>
       <c r="I66" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -11371,19 +11369,19 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1">
-        <v>66924</v>
+        <v>91725431</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -11392,13 +11390,13 @@
         <v>45797</v>
       </c>
       <c r="I67" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -11534,14 +11532,16 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C68" s="1">
+        <v>66924</v>
+      </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s">
         <v>96</v>
@@ -11553,7 +11553,7 @@
         <v>45797</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11695,19 +11695,19 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
         <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G69" t="s">
         <v>98</v>
@@ -11716,7 +11716,7 @@
         <v>45761</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -11736,10 +11736,10 @@
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="1">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="BA69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="1">
         <v>0</v>
@@ -11858,19 +11858,19 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G70" t="s">
         <v>98</v>
@@ -11879,7 +11879,7 @@
         <v>45761</v>
       </c>
       <c r="I70" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -11899,10 +11899,10 @@
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
         <v>0</v>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="BA70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB70" s="1">
         <v>0</v>
@@ -12021,19 +12021,19 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C71" s="1">
         <v>88890</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G71" t="s">
         <v>98</v>
@@ -12042,7 +12042,7 @@
         <v>45761</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -12193,10 +12193,10 @@
         <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G72" t="s">
         <v>98</v>
@@ -12351,10 +12351,10 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F73" t="s">
         <v>96</v>
@@ -12366,7 +12366,7 @@
         <v>45761</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -12508,19 +12508,19 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G74" t="s">
         <v>98</v>
@@ -12529,7 +12529,7 @@
         <v>45761</v>
       </c>
       <c r="I74" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -12549,10 +12549,10 @@
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="1">
         <v>0</v>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="BA74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB74" s="1">
         <v>0</v>
@@ -12671,19 +12671,19 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
         <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
@@ -12692,7 +12692,7 @@
         <v>45761</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -12712,10 +12712,10 @@
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="BA75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="1">
         <v>0</v>
@@ -12834,17 +12834,19 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5707</v>
+      </c>
       <c r="D76" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
@@ -12853,13 +12855,13 @@
         <v>45762</v>
       </c>
       <c r="I76" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -12879,10 +12881,10 @@
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="1">
         <v>0</v>
@@ -12933,10 +12935,10 @@
         <v>0</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -12995,17 +12997,17 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G77" t="s">
         <v>98</v>
@@ -13014,13 +13016,13 @@
         <v>45762</v>
       </c>
       <c r="I77" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -13088,10 +13090,10 @@
         <v>0</v>
       </c>
       <c r="AI77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
@@ -13156,19 +13158,19 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C78" s="1">
         <v>88890</v>
       </c>
       <c r="D78" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G78" t="s">
         <v>98</v>
@@ -13177,7 +13179,7 @@
         <v>45762</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -13319,19 +13321,19 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C79" s="1">
-        <v>91725431</v>
+        <v>68602</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G79" t="s">
         <v>98</v>
@@ -13340,13 +13342,13 @@
         <v>45762</v>
       </c>
       <c r="I79" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="J79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13503,7 +13505,7 @@
         <v>45762</v>
       </c>
       <c r="I80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13645,19 +13647,19 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C81" s="1">
-        <v>68602</v>
+        <v>91725431</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E81" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G81" t="s">
         <v>98</v>
@@ -13666,13 +13668,13 @@
         <v>45762</v>
       </c>
       <c r="I81" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="J81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -13808,19 +13810,17 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="1">
-        <v>3345</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C82" s="1"/>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G82" t="s">
         <v>98</v>
@@ -13832,10 +13832,10 @@
         <v>104</v>
       </c>
       <c r="J82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -13849,10 +13849,10 @@
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82" s="1">
         <v>0</v>
@@ -13909,10 +13909,10 @@
         <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -13971,16 +13971,16 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C83" s="1">
         <v>3676</v>
       </c>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F83" t="s">
         <v>96</v>
@@ -13992,7 +13992,7 @@
         <v>45762</v>
       </c>
       <c r="I83" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
@@ -14134,19 +14134,17 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
-      </c>
-      <c r="C84" s="1">
-        <v>5707</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C84" s="1"/>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E84" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G84" t="s">
         <v>98</v>
@@ -14155,13 +14153,13 @@
         <v>45762</v>
       </c>
       <c r="I84" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="J84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -14181,10 +14179,10 @@
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84" s="1">
         <v>0</v>
@@ -14235,10 +14233,10 @@
         <v>0</v>
       </c>
       <c r="AK84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -14297,17 +14295,19 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3345</v>
+      </c>
       <c r="D85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G85" t="s">
         <v>98</v>
@@ -14316,7 +14316,7 @@
         <v>45762</v>
       </c>
       <c r="I85" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -14336,10 +14336,10 @@
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" s="1">
         <v>0</v>
@@ -14390,16 +14390,16 @@
         <v>0</v>
       </c>
       <c r="AI85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -111,39 +111,39 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>erythritol</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>ethyl-4-ANPP</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>ecgonine methylester (EME)</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
@@ -171,12 +171,12 @@
     <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
     <t>NPP</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
     <t>clonazepam</t>
   </si>
   <si>
@@ -189,45 +189,45 @@
     <t>50-36-2</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>537-46-2</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>105-70-4</t>
-  </si>
-  <si>
-    <t/>
+    <t>103-90-2</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>103-90-2</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>6740-88-1</t>
+  </si>
+  <si>
     <t>9/1/7143</t>
   </si>
   <si>
-    <t>6740-88-1</t>
-  </si>
-  <si>
     <t>43021-26-7</t>
   </si>
   <si>
@@ -249,42 +249,42 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>G45CU3Z186</t>
+    <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>362O9ITL9D</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>690G0D6V8H</t>
+  </si>
+  <si>
     <t>Y35FJB3QBJ</t>
   </si>
   <si>
-    <t>690G0D6V8H</t>
-  </si>
-  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
@@ -321,42 +321,42 @@
     <t>8.35</t>
   </si>
   <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
     <t>4.39</t>
   </si>
   <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>10.45</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
     <t>4.52</t>
   </si>
   <si>
+    <t>6.41</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
     <t>10.43</t>
   </si>
   <si>
+    <t>4.44</t>
+  </si>
+  <si>
     <t>2.42</t>
   </si>
   <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>6.41</t>
-  </si>
-  <si>
-    <t>7.18</t>
-  </si>
-  <si>
     <t>4.47</t>
   </si>
   <si>
@@ -366,15 +366,15 @@
     <t>4.31</t>
   </si>
   <si>
+    <t>5.02</t>
+  </si>
+  <si>
     <t>10.48</t>
   </si>
   <si>
     <t>9.27</t>
   </si>
   <si>
-    <t>5.02</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -390,15 +390,15 @@
     <t>10.44</t>
   </si>
   <si>
+    <t>2.41</t>
+  </si>
+  <si>
     <t>4.38</t>
   </si>
   <si>
     <t>8.39</t>
   </si>
   <si>
-    <t>2.41</t>
-  </si>
-  <si>
     <t>5.62</t>
   </si>
   <si>
@@ -408,28 +408,28 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>2.38</t>
+  </si>
+  <si>
     <t>7.21</t>
   </si>
   <si>
-    <t>2.38</t>
-  </si>
-  <si>
     <t>10.42</t>
   </si>
   <si>
+    <t>7.5</t>
+  </si>
+  <si>
     <t>10.47</t>
   </si>
   <si>
-    <t>7.5</t>
+    <t>12.54</t>
+  </si>
+  <si>
+    <t>7.51</t>
   </si>
   <si>
     <t>7.59</t>
-  </si>
-  <si>
-    <t>12.54</t>
-  </si>
-  <si>
-    <t>7.51</t>
   </si>
   <si>
     <t>primary</t>
@@ -802,7 +802,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -956,7 +956,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -965,7 +965,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -1128,7 +1128,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>98</v>
@@ -1140,10 +1140,10 @@
         <v>103</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -1291,7 +1291,7 @@
         <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>98</v>
@@ -1303,10 +1303,10 @@
         <v>104</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1320,10 +1320,10 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1444,17 +1444,15 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1">
-        <v>3345</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>98</v>
@@ -1463,13 +1461,13 @@
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1483,10 +1481,10 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1537,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1608,16 +1606,16 @@
         <v>36</v>
       </c>
       <c r="C7" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
         <v>98</v>
@@ -1626,7 +1624,7 @@
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1706,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1754,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1770,15 +1768,17 @@
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>10836</v>
+      </c>
       <c r="D8" t="s">
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
@@ -1787,13 +1787,13 @@
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1822,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
         <v>98</v>
@@ -2092,19 +2092,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>10836</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
         <v>98</v>
@@ -2255,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
-        <v>446220</v>
+        <v>1983</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
         <v>98</v>
@@ -2276,13 +2276,13 @@
         <v>45797</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
         <v>98</v>
@@ -2439,13 +2439,13 @@
         <v>45797</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2459,19 +2459,19 @@
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>1</v>
@@ -2581,19 +2581,17 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6213</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
         <v>98</v>
@@ -2602,13 +2600,13 @@
         <v>45797</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2676,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="1">
         <v>0</v>
@@ -2744,19 +2742,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
-        <v>10836</v>
+        <v>446220</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
         <v>98</v>
@@ -2765,13 +2763,13 @@
         <v>45797</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2800,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
@@ -2907,19 +2905,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
-        <v>1983</v>
+        <v>3676</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
         <v>98</v>
@@ -2928,7 +2926,7 @@
         <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -3047,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3070,19 +3068,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
-        <v>3676</v>
+        <v>68602</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
         <v>98</v>
@@ -3091,13 +3089,13 @@
         <v>45797</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3210,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3233,16 +3231,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1">
         <v>165365057</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>96</v>
@@ -3254,7 +3252,7 @@
         <v>45797</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3396,17 +3394,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3345</v>
+      </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -3415,13 +3415,13 @@
         <v>45797</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3435,10 +3435,10 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -3489,16 +3489,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
         <v>98</v>
@@ -3578,13 +3578,13 @@
         <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3607,16 +3607,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="1">
-        <v>68602</v>
+        <v>6213</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -3732,7 +3732,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
         <v>98</v>
@@ -3741,13 +3741,13 @@
         <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3883,19 +3883,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>10836</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
         <v>98</v>
@@ -4046,19 +4046,17 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
         <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>98</v>
@@ -4067,7 +4065,7 @@
         <v>45797</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4087,10 +4085,10 @@
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -4147,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4209,17 +4207,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3345</v>
+      </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
@@ -4228,7 +4228,7 @@
         <v>45797</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4248,10 +4248,10 @@
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -4370,19 +4370,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
         <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
         <v>98</v>
@@ -4533,19 +4533,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>10836</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -4696,19 +4696,19 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
         <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -4737,10 +4737,10 @@
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -4797,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4859,19 +4859,19 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
         <v>98</v>
@@ -4900,10 +4900,10 @@
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5022,19 +5022,19 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
         <v>98</v>
@@ -5123,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5191,10 +5191,10 @@
         <v>156346345</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
         <v>96</v>
@@ -5206,7 +5206,7 @@
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -5348,19 +5348,19 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>10836</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
         <v>98</v>
@@ -5511,17 +5511,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>88890</v>
+      </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5530,7 +5532,7 @@
         <v>45797</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5610,10 +5612,10 @@
         <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5658,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5672,19 +5674,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -5693,7 +5695,7 @@
         <v>45797</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5713,10 +5715,10 @@
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -5821,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5835,19 +5837,17 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" t="s">
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
         <v>98</v>
@@ -5856,7 +5856,7 @@
         <v>45797</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5876,10 +5876,10 @@
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -5936,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -5998,19 +5998,19 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>10836</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
         <v>98</v>
@@ -6161,19 +6161,19 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>10836</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
         <v>98</v>
@@ -6324,19 +6324,19 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>98</v>
@@ -6345,13 +6345,13 @@
         <v>45721</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6386,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="1">
         <v>0</v>
@@ -6487,16 +6487,16 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <v>104904</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
@@ -6508,7 +6508,7 @@
         <v>45721</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -6650,16 +6650,16 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
-        <v>3821</v>
+        <v>119478</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
@@ -6671,7 +6671,7 @@
         <v>45721</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="1">
         <v>0</v>
@@ -6813,19 +6813,19 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
         <v>98</v>
@@ -6834,13 +6834,13 @@
         <v>45721</v>
       </c>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6875,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="1">
         <v>0</v>
@@ -6976,19 +6976,19 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
         <v>98</v>
@@ -6997,7 +6997,7 @@
         <v>45761</v>
       </c>
       <c r="I40" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7017,10 +7017,10 @@
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7139,19 +7139,19 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
         <v>98</v>
@@ -7160,7 +7160,7 @@
         <v>45761</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -7180,10 +7180,10 @@
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7302,19 +7302,19 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
         <v>98</v>
@@ -7323,13 +7323,13 @@
         <v>45797</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
@@ -7343,10 +7343,10 @@
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="1">
         <v>0</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="1">
         <v>1</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="1">
         <v>0</v>
@@ -7465,19 +7465,19 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
-        <v>3345</v>
+        <v>6213</v>
       </c>
       <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" t="s">
         <v>61</v>
-      </c>
-      <c r="E43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>63</v>
       </c>
       <c r="G43" t="s">
         <v>98</v>
@@ -7486,7 +7486,7 @@
         <v>45797</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7506,10 +7506,10 @@
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
@@ -7566,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -7628,19 +7628,19 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1">
         <v>10836</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
         <v>98</v>
@@ -7649,7 +7649,7 @@
         <v>45797</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7791,19 +7791,17 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3676</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
         <v>98</v>
@@ -7812,7 +7810,7 @@
         <v>45797</v>
       </c>
       <c r="I45" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7931,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="AX45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="1">
         <v>0</v>
@@ -7954,17 +7952,19 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3676</v>
+      </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
         <v>98</v>
@@ -7973,7 +7973,7 @@
         <v>45797</v>
       </c>
       <c r="I46" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8115,19 +8115,19 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -8136,13 +8136,13 @@
         <v>45797</v>
       </c>
       <c r="I47" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB47" s="1">
         <v>0</v>
@@ -8278,19 +8278,19 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
         <v>61</v>
-      </c>
-      <c r="E48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" t="s">
-        <v>63</v>
       </c>
       <c r="G48" t="s">
         <v>98</v>
@@ -8299,7 +8299,7 @@
         <v>45761</v>
       </c>
       <c r="I48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -8616,7 +8616,7 @@
         <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -8767,19 +8767,19 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
         <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
         <v>98</v>
@@ -8788,7 +8788,7 @@
         <v>45797</v>
       </c>
       <c r="I51" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -8808,10 +8808,10 @@
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1">
         <v>0</v>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="1">
         <v>0</v>
@@ -8934,13 +8934,13 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
         <v>98</v>
@@ -9091,19 +9091,19 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C53" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
         <v>98</v>
@@ -9112,7 +9112,7 @@
         <v>45797</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9132,10 +9132,10 @@
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="1">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB53" s="1">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
         <v>98</v>
@@ -9417,19 +9417,19 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1">
         <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
         <v>98</v>
@@ -9438,7 +9438,7 @@
         <v>45723</v>
       </c>
       <c r="I55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -9580,19 +9580,19 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C56" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G56" t="s">
         <v>98</v>
@@ -9601,13 +9601,13 @@
         <v>45723</v>
       </c>
       <c r="I56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9621,19 +9621,19 @@
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>1</v>
@@ -9743,19 +9743,19 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
         <v>98</v>
@@ -9764,13 +9764,13 @@
         <v>45723</v>
       </c>
       <c r="I57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -9784,19 +9784,19 @@
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1">
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="1">
         <v>0</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>1</v>
@@ -9906,19 +9906,19 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C58" s="1">
-        <v>6089</v>
+        <v>6213</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s">
         <v>98</v>
@@ -9927,13 +9927,13 @@
         <v>45721</v>
       </c>
       <c r="I58" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10069,19 +10069,19 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1">
         <v>3821</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
         <v>98</v>
@@ -10090,7 +10090,7 @@
         <v>45721</v>
       </c>
       <c r="I59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10232,19 +10232,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C60" s="1">
-        <v>6213</v>
+        <v>6089</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
         <v>98</v>
@@ -10253,13 +10253,13 @@
         <v>45721</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10395,19 +10395,17 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3345</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="D61" t="s">
         <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
         <v>98</v>
@@ -10416,7 +10414,7 @@
         <v>45797</v>
       </c>
       <c r="I61" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -10436,10 +10434,10 @@
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1">
         <v>0</v>
@@ -10496,10 +10494,10 @@
         <v>0</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10558,17 +10556,19 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C62" s="1">
+        <v>88890</v>
+      </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
         <v>98</v>
@@ -10577,7 +10577,7 @@
         <v>45797</v>
       </c>
       <c r="I62" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10657,10 +10657,10 @@
         <v>0</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10705,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB62" s="1">
         <v>0</v>
@@ -10719,19 +10719,19 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
         <v>98</v>
@@ -10740,7 +10740,7 @@
         <v>45797</v>
       </c>
       <c r="I63" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -10760,10 +10760,10 @@
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="1">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="1">
         <v>0</v>
@@ -10882,16 +10882,16 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1">
-        <v>12107</v>
+        <v>66924</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
         <v>96</v>
@@ -10903,7 +10903,7 @@
         <v>45797</v>
       </c>
       <c r="I64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="1">
         <v>0</v>
@@ -11045,19 +11045,19 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C65" s="1">
-        <v>3345</v>
+        <v>12107</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
         <v>98</v>
@@ -11066,13 +11066,13 @@
         <v>45797</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11086,10 +11086,10 @@
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1">
         <v>0</v>
@@ -11146,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11210,15 +11210,17 @@
       <c r="B66" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1">
+        <v>91725431</v>
+      </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
         <v>98</v>
@@ -11227,13 +11229,13 @@
         <v>45797</v>
       </c>
       <c r="I66" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
@@ -11371,17 +11373,15 @@
       <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="1">
-        <v>91725431</v>
-      </c>
+      <c r="C67" s="1"/>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -11390,13 +11390,13 @@
         <v>45797</v>
       </c>
       <c r="I67" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -11532,19 +11532,19 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C68" s="1">
-        <v>66924</v>
+        <v>3345</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G68" t="s">
         <v>98</v>
@@ -11553,13 +11553,13 @@
         <v>45797</v>
       </c>
       <c r="I68" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -11573,10 +11573,10 @@
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="1">
         <v>0</v>
@@ -11633,10 +11633,10 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11695,19 +11695,19 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C69" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
         <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
         <v>98</v>
@@ -11716,7 +11716,7 @@
         <v>45761</v>
       </c>
       <c r="I69" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -11736,10 +11736,10 @@
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="BA69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB69" s="1">
         <v>0</v>
@@ -11858,19 +11858,19 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C70" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G70" t="s">
         <v>98</v>
@@ -11879,7 +11879,7 @@
         <v>45761</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -11899,10 +11899,10 @@
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
         <v>0</v>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="BA70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="1">
         <v>0</v>
@@ -12021,19 +12021,17 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="1">
-        <v>88890</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C71" s="1"/>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
         <v>98</v>
@@ -12045,10 +12043,10 @@
         <v>103</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -12122,10 +12120,10 @@
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="1">
         <v>0</v>
@@ -12170,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="BA71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB71" s="1">
         <v>0</v>
@@ -12184,19 +12182,19 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" s="1">
         <v>3345</v>
       </c>
       <c r="D72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" t="s">
         <v>61</v>
-      </c>
-      <c r="E72" t="s">
-        <v>81</v>
-      </c>
-      <c r="F72" t="s">
-        <v>63</v>
       </c>
       <c r="G72" t="s">
         <v>98</v>
@@ -12347,17 +12345,19 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C73" s="1">
+        <v>88890</v>
+      </c>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G73" t="s">
         <v>98</v>
@@ -12366,13 +12366,13 @@
         <v>45761</v>
       </c>
       <c r="I73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12446,10 +12446,10 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="BA73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB73" s="1">
         <v>0</v>
@@ -12508,19 +12508,19 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C74" s="1">
         <v>88890</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G74" t="s">
         <v>98</v>
@@ -12529,7 +12529,7 @@
         <v>45761</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -12671,19 +12671,19 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="1">
         <v>3345</v>
       </c>
       <c r="D75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
         <v>61</v>
-      </c>
-      <c r="E75" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" t="s">
-        <v>63</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
@@ -12834,19 +12834,17 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" s="1">
-        <v>5707</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C76" s="1"/>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
@@ -12881,10 +12879,10 @@
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76" s="1">
         <v>0</v>
@@ -12929,16 +12927,16 @@
         <v>0</v>
       </c>
       <c r="AI76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -12997,17 +12995,19 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C77" s="1">
+        <v>91725431</v>
+      </c>
       <c r="D77" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G77" t="s">
         <v>98</v>
@@ -13090,10 +13090,10 @@
         <v>0</v>
       </c>
       <c r="AI77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
@@ -13158,19 +13158,19 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C78" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
         <v>98</v>
@@ -13179,7 +13179,7 @@
         <v>45762</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -13205,10 +13205,10 @@
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="1">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="BA78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB78" s="1">
         <v>0</v>
@@ -13321,16 +13321,16 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C79" s="1">
-        <v>68602</v>
+        <v>2802</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
         <v>96</v>
@@ -13342,7 +13342,7 @@
         <v>45762</v>
       </c>
       <c r="I79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="AR79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS79" s="1">
         <v>0</v>
@@ -13484,16 +13484,14 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2802</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C80" s="1"/>
       <c r="D80" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E80" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F80" t="s">
         <v>96</v>
@@ -13505,7 +13503,7 @@
         <v>45762</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13606,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="AR80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS80" s="1">
         <v>0</v>
@@ -13647,19 +13645,19 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C81" s="1">
-        <v>91725431</v>
+        <v>68602</v>
       </c>
       <c r="D81" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G81" t="s">
         <v>98</v>
@@ -13668,13 +13666,13 @@
         <v>45762</v>
       </c>
       <c r="I81" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -13810,17 +13808,19 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C82" s="1">
+        <v>88890</v>
+      </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G82" t="s">
         <v>98</v>
@@ -13829,13 +13829,13 @@
         <v>45762</v>
       </c>
       <c r="I82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -13909,10 +13909,10 @@
         <v>0</v>
       </c>
       <c r="AK82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="BA82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB82" s="1">
         <v>0</v>
@@ -13971,16 +13971,14 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="1">
-        <v>3676</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C83" s="1"/>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
         <v>96</v>
@@ -13992,7 +13990,7 @@
         <v>45762</v>
       </c>
       <c r="I83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
@@ -14111,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="AX83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY83" s="1">
         <v>0</v>
@@ -14134,14 +14132,16 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3676</v>
+      </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E84" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F84" t="s">
         <v>96</v>
@@ -14153,7 +14153,7 @@
         <v>45762</v>
       </c>
       <c r="I84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="AX84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY84" s="1">
         <v>0</v>
@@ -14295,19 +14295,19 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C85" s="1">
         <v>3345</v>
       </c>
       <c r="D85" t="s">
+        <v>60</v>
+      </c>
+      <c r="E85" t="s">
+        <v>80</v>
+      </c>
+      <c r="F85" t="s">
         <v>61</v>
-      </c>
-      <c r="E85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F85" t="s">
-        <v>63</v>
       </c>
       <c r="G85" t="s">
         <v>98</v>
@@ -14316,7 +14316,7 @@
         <v>45762</v>
       </c>
       <c r="I85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>

--- a/datasets/selfservice/RT/lab_detail.xlsx
+++ b/datasets/selfservice/RT/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="643" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="727" uniqueCount="197">
   <si>
     <t>sampleid</t>
   </si>
@@ -27,6 +27,9 @@
     <t>900108</t>
   </si>
   <si>
+    <t>900109</t>
+  </si>
+  <si>
     <t>900121</t>
   </si>
   <si>
@@ -63,12 +66,18 @@
     <t>900185</t>
   </si>
   <si>
+    <t>900188</t>
+  </si>
+  <si>
     <t>900198</t>
   </si>
   <si>
     <t>900200</t>
   </si>
   <si>
+    <t>900217</t>
+  </si>
+  <si>
     <t>900221</t>
   </si>
   <si>
@@ -90,6 +99,9 @@
     <t>900246</t>
   </si>
   <si>
+    <t>900256</t>
+  </si>
+  <si>
     <t>900263</t>
   </si>
   <si>
@@ -114,54 +126,57 @@
     <t>1,3-Diacetin</t>
   </si>
   <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>methamphetamine</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>ethyl-4-ANPP</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
     <t>erythritol</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>ethyl-4-ANPP</t>
+    <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>N-phenethyl-N-phenylpropionamide</t>
+  </si>
+  <si>
     <t>tetracaine</t>
   </si>
   <si>
@@ -192,42 +207,42 @@
     <t>105-70-4</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t/>
+    <t>537-46-2</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>537-46-2</t>
+    <t>86347-14-0</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>103-90-2</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>9/1/7143</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
     <t>43021-26-7</t>
   </si>
   <si>
@@ -258,33 +273,33 @@
     <t>UF599785JZ</t>
   </si>
   <si>
+    <t>44RAL3456C</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>44RAL3456C</t>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>Y35FJB3QBJ</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
@@ -330,51 +345,60 @@
     <t>10.45</t>
   </si>
   <si>
+    <t>4.39</t>
+  </si>
+  <si>
     <t>9.26</t>
   </si>
   <si>
-    <t>4.39</t>
-  </si>
-  <si>
     <t>4.51</t>
   </si>
   <si>
+    <t>9.31</t>
+  </si>
+  <si>
+    <t>10.36</t>
+  </si>
+  <si>
+    <t>9.16</t>
+  </si>
+  <si>
     <t>4.52</t>
   </si>
   <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
     <t>6.41</t>
   </si>
   <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>10.43</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>2.42</t>
+    <t>9.24</t>
   </si>
   <si>
     <t>4.47</t>
   </si>
   <si>
-    <t>9.24</t>
-  </si>
-  <si>
     <t>4.31</t>
   </si>
   <si>
     <t>5.02</t>
   </si>
   <si>
+    <t>9.27</t>
+  </si>
+  <si>
     <t>10.48</t>
   </si>
   <si>
-    <t>9.27</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -387,18 +411,30 @@
     <t>10.46</t>
   </si>
   <si>
+    <t>7.66</t>
+  </si>
+  <si>
+    <t>10.33</t>
+  </si>
+  <si>
+    <t>13.79</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
     <t>10.44</t>
   </si>
   <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
     <t>8.39</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
     <t>5.62</t>
   </si>
   <si>
@@ -408,28 +444,31 @@
     <t>5.61</t>
   </si>
   <si>
+    <t>7.21</t>
+  </si>
+  <si>
     <t>2.38</t>
   </si>
   <si>
-    <t>7.21</t>
-  </si>
-  <si>
     <t>10.42</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
     <t>7.5</t>
   </si>
   <si>
-    <t>10.47</t>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>7.59</t>
   </si>
   <si>
     <t>12.54</t>
-  </si>
-  <si>
-    <t>7.51</t>
-  </si>
-  <si>
-    <t>7.59</t>
   </si>
   <si>
     <t>primary</t>
@@ -612,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC85"/>
+  <dimension ref="A1:BC97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -623,166 +662,166 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="P1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Q1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="R1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="S1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="T1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="V1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="W1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Z1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AA1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="AB1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="AC1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AD1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AE1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AF1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AG1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AH1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AI1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AJ1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AK1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="AL1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AM1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="AN1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="AO1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AP1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AQ1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AR1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AS1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AT1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="AU1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AV1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AW1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AX1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="AY1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AZ1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="BA1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="BB1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="BC1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -790,28 +829,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
         <v>446220</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2">
         <v>45721</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -953,28 +992,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>66924</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H3" s="2">
         <v>45762</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -1116,28 +1155,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3676</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2">
         <v>45762</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1211,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="1">
         <v>0</v>
@@ -1256,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1279,34 +1316,34 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2">
         <v>45762</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1320,10 +1357,10 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1380,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1419,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1442,32 +1479,34 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3345</v>
+      </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2">
         <v>45762</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1481,10 +1520,10 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1535,16 +1574,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1603,28 +1642,28 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2">
         <v>45762</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1659,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -1704,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1752,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1766,28 +1805,28 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H8" s="2">
         <v>45762</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1822,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -1867,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -1915,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -1929,28 +1968,28 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
         <v>10836</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2">
         <v>45761</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -2092,28 +2131,28 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
-        <v>10836</v>
+        <v>156346345</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2">
-        <v>45761</v>
+        <v>45824</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -2123,10 +2162,10 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -2148,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -2241,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2252,31 +2291,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1">
-        <v>1983</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H11" s="2">
-        <v>45797</v>
+        <v>45824</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2286,20 +2325,20 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -2356,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2415,44 +2454,44 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2">
-        <v>45797</v>
+        <v>45824</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
@@ -2468,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -2519,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>1</v>
@@ -2567,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="1">
         <v>0</v>
@@ -2581,39 +2620,41 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10836</v>
+      </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H13" s="2">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
@@ -2635,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -2674,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>0</v>
@@ -2739,31 +2780,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>446220</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2">
         <v>45797</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2902,31 +2943,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
-        <v>3676</v>
+        <v>10836</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2">
         <v>45797</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -2961,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
         <v>0</v>
@@ -3045,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3065,31 +3106,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
-        <v>68602</v>
+        <v>165365057</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H16" s="2">
         <v>45797</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3172,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -3217,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -3228,31 +3269,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1">
-        <v>165365057</v>
+        <v>68602</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2">
         <v>45797</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3335,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3380,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3391,37 +3432,35 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3345</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H18" s="2">
         <v>45797</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3435,10 +3474,10 @@
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -3489,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="1">
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3554,31 +3593,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H19" s="2">
         <v>45797</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -3598,10 +3637,10 @@
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -3613,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -3658,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3717,37 +3756,37 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H20" s="2">
         <v>45797</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3770,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
         <v>0</v>
@@ -3824,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -3883,28 +3922,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
-        <v>10836</v>
+        <v>3676</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H21" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -3914,10 +3953,10 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
@@ -3939,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1">
         <v>0</v>
@@ -4023,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="1">
         <v>0</v>
@@ -4043,29 +4082,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6213</v>
+      </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H22" s="2">
         <v>45797</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4075,10 +4116,10 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
@@ -4204,31 +4245,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1">
-        <v>3345</v>
+        <v>1983</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H23" s="2">
         <v>45797</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4238,20 +4279,20 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -4308,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -4370,28 +4411,28 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H24" s="2">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4401,10 +4442,10 @@
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
@@ -4426,10 +4467,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
@@ -4471,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4519,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4533,28 +4574,28 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H25" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4564,10 +4605,10 @@
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
@@ -4589,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -4634,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4682,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="1">
         <v>0</v>
@@ -4693,31 +4734,29 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1">
-        <v>12107</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H26" s="2">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -4727,7 +4766,7 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="1">
         <v>3</v>
@@ -4845,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4856,28 +4895,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
         <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H27" s="2">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="I27" t="s">
         <v>118</v>
@@ -4890,7 +4929,7 @@
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="1">
         <v>3</v>
@@ -5022,28 +5061,28 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H28" s="2">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5053,10 +5092,10 @@
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1">
         <v>0</v>
@@ -5078,10 +5117,10 @@
         <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
@@ -5123,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5171,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="1">
         <v>0</v>
@@ -5182,31 +5221,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1">
         <v>156346345</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H29" s="2">
         <v>45723</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -5348,28 +5387,28 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1">
-        <v>10836</v>
+        <v>12107</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H30" s="2">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5379,10 +5418,10 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
@@ -5404,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
@@ -5497,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30" s="1">
         <v>0</v>
@@ -5508,31 +5547,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
         <v>88890</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H31" s="2">
-        <v>45797</v>
+        <v>45723</v>
       </c>
       <c r="I31" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5542,7 +5581,7 @@
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" s="1">
         <v>3</v>
@@ -5671,31 +5710,31 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <v>3345</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H32" s="2">
-        <v>45797</v>
+        <v>45723</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5705,7 +5744,7 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" s="1">
         <v>3</v>
@@ -5837,26 +5876,28 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10836</v>
+      </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H33" s="2">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5866,10 +5907,10 @@
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
@@ -5891,10 +5932,10 @@
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="1">
         <v>0</v>
@@ -5998,28 +6039,28 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H34" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -6029,10 +6070,10 @@
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
@@ -6054,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1">
         <v>0</v>
@@ -6099,10 +6140,10 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6147,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="1">
         <v>0</v>
@@ -6158,31 +6199,29 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="1">
-        <v>10836</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H35" s="2">
         <v>45797</v>
       </c>
       <c r="I35" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6192,10 +6231,10 @@
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35" s="1">
         <v>0</v>
@@ -6217,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
         <v>0</v>
@@ -6321,54 +6360,54 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
-        <v>3821</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H36" s="2">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="I36" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -6413,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="1">
         <v>0</v>
@@ -6425,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6484,41 +6523,41 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
-        <v>104904</v>
+        <v>10836</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H37" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I37" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" s="1">
         <v>1</v>
@@ -6543,10 +6582,10 @@
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
         <v>0</v>
@@ -6650,38 +6689,38 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
-        <v>119478</v>
+        <v>10836</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H38" s="2">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
@@ -6706,10 +6745,10 @@
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="1">
         <v>0</v>
@@ -6810,31 +6849,31 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
         <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H39" s="2">
         <v>45721</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -6976,41 +7015,41 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>104904</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H40" s="2">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="I40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" s="1">
         <v>0</v>
@@ -7077,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7125,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7139,51 +7178,51 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>3821</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H41" s="2">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -7228,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" s="1">
         <v>0</v>
@@ -7240,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7299,54 +7338,54 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C42" s="1">
-        <v>3345</v>
+        <v>119478</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H42" s="2">
-        <v>45797</v>
+        <v>45721</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N42" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
         <v>0</v>
@@ -7403,10 +7442,10 @@
         <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="1">
         <v>0</v>
@@ -7465,28 +7504,28 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H43" s="2">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7496,10 +7535,10 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N43" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O43" s="1">
         <v>0</v>
@@ -7566,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="AK43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
@@ -7614,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="BA43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB43" s="1">
         <v>0</v>
@@ -7628,28 +7667,28 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H44" s="2">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="I44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7659,20 +7698,20 @@
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N44" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -7684,10 +7723,10 @@
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
@@ -7729,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="AK44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44" s="1">
         <v>0</v>
@@ -7788,29 +7827,29 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H45" s="2">
-        <v>45797</v>
+        <v>45824</v>
       </c>
       <c r="I45" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -7823,7 +7862,7 @@
         <v>6</v>
       </c>
       <c r="N45" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O45" s="1">
         <v>0</v>
@@ -7949,44 +7988,44 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1">
         <v>3676</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H46" s="2">
-        <v>45797</v>
+        <v>45824</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
         <v>6</v>
       </c>
       <c r="N46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O46" s="1">
         <v>0</v>
@@ -8112,54 +8151,54 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H47" s="2">
-        <v>45797</v>
+        <v>45824</v>
       </c>
       <c r="I47" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
         <v>6</v>
       </c>
       <c r="N47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="1">
         <v>0</v>
@@ -8216,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
         <v>1</v>
@@ -8264,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="1">
         <v>0</v>
@@ -8278,28 +8317,28 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H48" s="2">
-        <v>45761</v>
+        <v>45824</v>
       </c>
       <c r="I48" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8309,20 +8348,20 @@
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N48" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
         <v>0</v>
@@ -8427,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB48" s="1">
         <v>0</v>
@@ -8438,44 +8477,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1614</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H49" s="2">
-        <v>45761</v>
+        <v>45824</v>
       </c>
       <c r="I49" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N49" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O49" s="1">
         <v>0</v>
@@ -8601,31 +8638,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1">
-        <v>6089</v>
+        <v>165365057</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H50" s="2">
-        <v>45721</v>
+        <v>45824</v>
       </c>
       <c r="I50" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8635,10 +8672,10 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N50" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O50" s="1">
         <v>0</v>
@@ -8705,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -8753,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="BA50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB50" s="1">
         <v>0</v>
@@ -8764,31 +8801,31 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H51" s="2">
         <v>45797</v>
       </c>
       <c r="I51" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -8798,10 +8835,10 @@
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N51" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O51" s="1">
         <v>0</v>
@@ -8823,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="1">
         <v>0</v>
@@ -8868,10 +8905,10 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
@@ -8916,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="1">
         <v>0</v>
@@ -8927,29 +8964,31 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6213</v>
+      </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H52" s="2">
         <v>45797</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -8959,10 +8998,10 @@
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N52" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O52" s="1">
         <v>0</v>
@@ -9088,31 +9127,31 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
         <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H53" s="2">
         <v>45797</v>
       </c>
       <c r="I53" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9122,10 +9161,10 @@
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N53" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O53" s="1">
         <v>0</v>
@@ -9251,31 +9290,31 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C54" s="1">
-        <v>1614</v>
+        <v>3676</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H54" s="2">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -9285,10 +9324,10 @@
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N54" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O54" s="1">
         <v>0</v>
@@ -9394,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="AX54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY54" s="1">
         <v>0</v>
@@ -9414,31 +9453,29 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="1">
-        <v>88890</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G55" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H55" s="2">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="I55" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -9448,10 +9485,10 @@
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N55" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O55" s="1">
         <v>0</v>
@@ -9518,10 +9555,10 @@
         <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="1">
         <v>0</v>
@@ -9566,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="1">
         <v>0</v>
@@ -9577,54 +9614,54 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G56" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H56" s="2">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="I56" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N56" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
@@ -9681,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
         <v>1</v>
@@ -9729,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB56" s="1">
         <v>0</v>
@@ -9740,63 +9777,63 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
       </c>
       <c r="C57" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H57" s="2">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="I57" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57" s="1">
         <v>0</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="1">
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="1">
         <v>0</v>
@@ -9844,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
         <v>1</v>
@@ -9903,13 +9940,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D58" t="s">
         <v>67</v>
@@ -9918,16 +9955,16 @@
         <v>86</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G58" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H58" s="2">
-        <v>45721</v>
+        <v>45824</v>
       </c>
       <c r="I58" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -9937,7 +9974,7 @@
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N58" s="1">
         <v>2</v>
@@ -9962,10 +9999,10 @@
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="1">
         <v>0</v>
@@ -10066,31 +10103,31 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="1">
-        <v>3821</v>
+        <v>6213</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H59" s="2">
-        <v>45721</v>
+        <v>45824</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10100,7 +10137,7 @@
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N59" s="1">
         <v>2</v>
@@ -10158,10 +10195,10 @@
         <v>0</v>
       </c>
       <c r="AG59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="1">
         <v>0</v>
@@ -10229,44 +10266,44 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C60" s="1">
-        <v>6089</v>
+        <v>1614</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H60" s="2">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="I60" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O60" s="1">
         <v>0</v>
@@ -10392,29 +10429,31 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6089</v>
+      </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H61" s="2">
-        <v>45797</v>
+        <v>45721</v>
       </c>
       <c r="I61" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -10424,10 +10463,10 @@
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61" s="1">
         <v>0</v>
@@ -10553,31 +10592,31 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H62" s="2">
         <v>45797</v>
       </c>
       <c r="I62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10597,10 +10636,10 @@
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="1">
         <v>0</v>
@@ -10705,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="1">
         <v>0</v>
@@ -10716,31 +10755,29 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="1">
-        <v>3345</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C63" s="1"/>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H63" s="2">
         <v>45797</v>
       </c>
       <c r="I63" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -10760,10 +10797,10 @@
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1">
         <v>0</v>
@@ -10820,10 +10857,10 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -10879,44 +10916,44 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1">
-        <v>66924</v>
+        <v>88890</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H64" s="2">
         <v>45797</v>
       </c>
       <c r="I64" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N64" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O64" s="1">
         <v>0</v>
@@ -10983,10 +11020,10 @@
         <v>0</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11031,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB64" s="1">
         <v>0</v>
@@ -11042,44 +11079,44 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C65" s="1">
-        <v>12107</v>
+        <v>1614</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H65" s="2">
-        <v>45797</v>
+        <v>45721</v>
       </c>
       <c r="I65" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O65" s="1">
         <v>0</v>
@@ -11194,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11208,28 +11245,28 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1">
-        <v>91725431</v>
+        <v>88890</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H66" s="2">
-        <v>45797</v>
+        <v>45723</v>
       </c>
       <c r="I66" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11239,7 +11276,7 @@
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N66" s="1">
         <v>2</v>
@@ -11309,10 +11346,10 @@
         <v>0</v>
       </c>
       <c r="AK66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM66" s="1">
         <v>0</v>
@@ -11357,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB66" s="1">
         <v>0</v>
@@ -11371,36 +11408,38 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3345</v>
+      </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H67" s="2">
-        <v>45797</v>
+        <v>45723</v>
       </c>
       <c r="I67" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N67" s="1">
         <v>2</v>
@@ -11410,10 +11449,10 @@
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" s="1">
         <v>0</v>
@@ -11470,10 +11509,10 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11532,38 +11571,38 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C68" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H68" s="2">
-        <v>45797</v>
+        <v>45723</v>
       </c>
       <c r="I68" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N68" s="1">
         <v>2</v>
@@ -11573,19 +11612,19 @@
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1">
         <v>0</v>
       </c>
       <c r="T68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68" s="1">
         <v>0</v>
@@ -11633,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
         <v>1</v>
@@ -11695,28 +11734,28 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>3821</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H69" s="2">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -11726,7 +11765,7 @@
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N69" s="1">
         <v>2</v>
@@ -11784,10 +11823,10 @@
         <v>0</v>
       </c>
       <c r="AG69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI69" s="1">
         <v>0</v>
@@ -11796,10 +11835,10 @@
         <v>0</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -11844,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="BA69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="1">
         <v>0</v>
@@ -11858,38 +11897,38 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C70" s="1">
-        <v>3345</v>
+        <v>6089</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H70" s="2">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="I70" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N70" s="1">
         <v>2</v>
@@ -11899,10 +11938,10 @@
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
         <v>0</v>
@@ -11959,10 +11998,10 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12018,35 +12057,37 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6213</v>
+      </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H71" s="2">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="I71" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -12182,28 +12223,28 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H72" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -12216,17 +12257,17 @@
         <v>3</v>
       </c>
       <c r="N72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O72" s="1">
         <v>0</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1">
         <v>0</v>
@@ -12331,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="BA72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB72" s="1">
         <v>0</v>
@@ -12345,28 +12386,26 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="1">
-        <v>88890</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H73" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -12379,7 +12418,7 @@
         <v>3</v>
       </c>
       <c r="N73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" s="1">
         <v>0</v>
@@ -12446,10 +12485,10 @@
         <v>0</v>
       </c>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12494,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="BA73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="1">
         <v>0</v>
@@ -12505,31 +12544,31 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C74" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G74" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H74" s="2">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="I74" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -12539,20 +12578,20 @@
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O74" s="1">
         <v>0</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="1">
         <v>0</v>
@@ -12657,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="BA74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="1">
         <v>0</v>
@@ -12671,28 +12710,28 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C75" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G75" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H75" s="2">
-        <v>45761</v>
+        <v>45823</v>
       </c>
       <c r="I75" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -12702,20 +12741,20 @@
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O75" s="1">
         <v>0</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="1">
         <v>0</v>
@@ -12727,10 +12766,10 @@
         <v>0</v>
       </c>
       <c r="V75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75" s="1">
         <v>0</v>
@@ -12772,10 +12811,10 @@
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -12834,39 +12873,41 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C76" s="1">
+        <v>66924</v>
+      </c>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H76" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I76" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N76" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O76" s="1">
         <v>0</v>
@@ -12927,10 +12968,10 @@
         <v>0</v>
       </c>
       <c r="AI76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
@@ -12995,28 +13036,28 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C77" s="1">
-        <v>91725431</v>
+        <v>3345</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G77" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H77" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I77" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -13026,20 +13067,20 @@
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N77" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O77" s="1">
         <v>0</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" s="1">
         <v>0</v>
@@ -13096,10 +13137,10 @@
         <v>0</v>
       </c>
       <c r="AK77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -13158,28 +13199,28 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>91725431</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G78" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H78" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I78" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -13189,10 +13230,10 @@
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N78" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O78" s="1">
         <v>0</v>
@@ -13205,10 +13246,10 @@
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U78" s="1">
         <v>0</v>
@@ -13259,10 +13300,10 @@
         <v>0</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -13321,28 +13362,26 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2802</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C79" s="1"/>
       <c r="D79" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E79" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G79" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H79" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -13352,10 +13391,10 @@
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N79" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O79" s="1">
         <v>0</v>
@@ -13443,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="AR79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS79" s="1">
         <v>0</v>
@@ -13484,26 +13523,28 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C80" s="1">
+        <v>12107</v>
+      </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G80" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H80" s="2">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="I80" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13513,10 +13554,10 @@
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N80" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O80" s="1">
         <v>0</v>
@@ -13631,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="BA80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB80" s="1">
         <v>0</v>
@@ -13642,13 +13683,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" s="1">
-        <v>68602</v>
+        <v>3345</v>
       </c>
       <c r="D81" t="s">
         <v>66</v>
@@ -13657,39 +13698,39 @@
         <v>85</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G81" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H81" s="2">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="I81" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="J81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N81" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O81" s="1">
         <v>0</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="1">
         <v>0</v>
@@ -13746,10 +13787,10 @@
         <v>0</v>
       </c>
       <c r="AK81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -13805,31 +13846,31 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C82" s="1">
         <v>88890</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G82" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H82" s="2">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="I82" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -13839,10 +13880,10 @@
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N82" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O82" s="1">
         <v>0</v>
@@ -13968,52 +14009,54 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3345</v>
+      </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="G83" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H83" s="2">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="I83" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="J83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N83" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O83" s="1">
         <v>0</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" s="1">
         <v>0</v>
@@ -14070,10 +14113,10 @@
         <v>0</v>
       </c>
       <c r="AK83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM83" s="1">
         <v>0</v>
@@ -14129,31 +14172,29 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="1">
-        <v>3676</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C84" s="1"/>
       <c r="D84" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G84" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H84" s="2">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="I84" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
@@ -14163,10 +14204,10 @@
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N84" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O84" s="1">
         <v>0</v>
@@ -14272,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="AX84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="1">
         <v>0</v>
@@ -14292,31 +14333,31 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C85" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D85" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E85" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F85" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G85" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H85" s="2">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="I85" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -14326,20 +14367,20 @@
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N85" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O85" s="1">
         <v>0</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85" s="1">
         <v>0</v>
@@ -14444,12 +14485,1962 @@
         <v>0</v>
       </c>
       <c r="BA85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB85" s="1">
         <v>0</v>
       </c>
       <c r="BC85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D86" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" t="s">
+        <v>103</v>
+      </c>
+      <c r="H86" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I86" t="s">
+        <v>131</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1">
+        <v>2</v>
+      </c>
+      <c r="N86" s="1">
+        <v>2</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1">
+        <v>1</v>
+      </c>
+      <c r="R86" s="1">
+        <v>1</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0</v>
+      </c>
+      <c r="U86" s="1">
+        <v>0</v>
+      </c>
+      <c r="V86" s="1">
+        <v>0</v>
+      </c>
+      <c r="W86" s="1">
+        <v>0</v>
+      </c>
+      <c r="X86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL86" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ86" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA86" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB86" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D87" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="2">
+        <v>45761</v>
+      </c>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1">
+        <v>2</v>
+      </c>
+      <c r="N87" s="1">
+        <v>2</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1">
+        <v>0</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0</v>
+      </c>
+      <c r="U87" s="1">
+        <v>0</v>
+      </c>
+      <c r="V87" s="1">
+        <v>0</v>
+      </c>
+      <c r="W87" s="1">
+        <v>0</v>
+      </c>
+      <c r="X87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL87" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ87" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA87" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB87" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="1">
+        <v>91725431</v>
+      </c>
+      <c r="D88" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" t="s">
+        <v>103</v>
+      </c>
+      <c r="H88" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I88" t="s">
+        <v>149</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1">
+        <v>10</v>
+      </c>
+      <c r="N88" s="1">
+        <v>5</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1">
+        <v>0</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1">
+        <v>0</v>
+      </c>
+      <c r="U88" s="1">
+        <v>0</v>
+      </c>
+      <c r="V88" s="1">
+        <v>0</v>
+      </c>
+      <c r="W88" s="1">
+        <v>0</v>
+      </c>
+      <c r="X88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ88" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA88" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB88" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5707</v>
+      </c>
+      <c r="D89" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" t="s">
+        <v>64</v>
+      </c>
+      <c r="G89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H89" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I89" t="s">
+        <v>150</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1">
+        <v>10</v>
+      </c>
+      <c r="N89" s="1">
+        <v>5</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1">
+        <v>0</v>
+      </c>
+      <c r="R89" s="1">
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <v>1</v>
+      </c>
+      <c r="T89" s="1">
+        <v>1</v>
+      </c>
+      <c r="U89" s="1">
+        <v>0</v>
+      </c>
+      <c r="V89" s="1">
+        <v>0</v>
+      </c>
+      <c r="W89" s="1">
+        <v>0</v>
+      </c>
+      <c r="X89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" t="s">
+        <v>64</v>
+      </c>
+      <c r="G90" t="s">
+        <v>103</v>
+      </c>
+      <c r="H90" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I90" t="s">
+        <v>151</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1">
+        <v>10</v>
+      </c>
+      <c r="N90" s="1">
+        <v>5</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0</v>
+      </c>
+      <c r="U90" s="1">
+        <v>0</v>
+      </c>
+      <c r="V90" s="1">
+        <v>0</v>
+      </c>
+      <c r="W90" s="1">
+        <v>0</v>
+      </c>
+      <c r="X90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ90" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA90" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB90" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="1">
+        <v>68602</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" t="s">
+        <v>101</v>
+      </c>
+      <c r="G91" t="s">
+        <v>103</v>
+      </c>
+      <c r="H91" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I91" t="s">
+        <v>108</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1">
+        <v>10</v>
+      </c>
+      <c r="N91" s="1">
+        <v>5</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1">
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1">
+        <v>0</v>
+      </c>
+      <c r="U91" s="1">
+        <v>0</v>
+      </c>
+      <c r="V91" s="1">
+        <v>0</v>
+      </c>
+      <c r="W91" s="1">
+        <v>0</v>
+      </c>
+      <c r="X91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ91" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA91" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB91" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" t="s">
+        <v>103</v>
+      </c>
+      <c r="H92" s="2">
+        <v>45762</v>
+      </c>
+      <c r="I92" t="s">
+        <v>108</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1">
+        <v>10</v>
+      </c>
+      <c r="N92" s="1">
+        <v>5</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0</v>
+      </c>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1">
+        <v>0</v>
+      </c>
+      <c r="R92" s="1">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0</v>
+      </c>
+      <c r="T92" s="1">
+        <v>0</v>
+      </c>
+      <c r="U92" s="1">
+        <v>0</v>
+      </c>
+      <c r="V92" s="1">
+        <v>0</v>
+      </c>
+      <c r="W92" s="1">
+        <v>0</v>
+      </c>
+      <c r="X92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>